--- a/02_Analyse/02_Terminplanung/Terminplanung_V1.xlsx
+++ b/02_Analyse/02_Terminplanung/Terminplanung_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b660818652cf050/03_Studium/Master/Semester 5/02_Thesis/02_Analyse/02_Terminplanung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1658" documentId="8_{D92DD50D-1DBF-4A11-8833-F91896F605F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA8AB641-168E-4578-B8DD-519C8D9572BA}"/>
+  <xr:revisionPtr revIDLastSave="1767" documentId="8_{D92DD50D-1DBF-4A11-8833-F91896F605F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81A48814-D7C4-45F3-80DF-6FCED3C3808E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{A6803629-CC7A-4077-B2EA-9F52BB2D00D8}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="Grobplan" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Detailplan!$A$1:$AA$97</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Detailplan!$A$1:$AA$101</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Grobplan!$A$1:$V$10</definedName>
-    <definedName name="Print_Area" localSheetId="0">Detailplan!$A$1:$AA$97</definedName>
+    <definedName name="Print_Area" localSheetId="0">Detailplan!$A$1:$AA$101</definedName>
     <definedName name="Print_Area" localSheetId="2">Grobplan!$A$1:$V$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="135">
   <si>
     <t>PW1</t>
   </si>
@@ -376,12 +376,6 @@
     <t>Arbeitspaket 3: Mechanischer Aufbau</t>
   </si>
   <si>
-    <t>Arbeitspaket 5: Skills</t>
-  </si>
-  <si>
-    <t>Arbeitspaket 6: Objektklassen</t>
-  </si>
-  <si>
     <t>Arbeitspaket 7: HMI</t>
   </si>
   <si>
@@ -431,13 +425,37 @@
   </si>
   <si>
     <t>Einarbeiten in Schnittstellen</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 5: Prozessmodell</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 6: Anlagemodell</t>
+  </si>
+  <si>
+    <t>3.5.3.</t>
+  </si>
+  <si>
+    <t>3.5.4.</t>
+  </si>
+  <si>
+    <t>Definieren wie ein Skill definiert wird</t>
+  </si>
+  <si>
+    <t>Struktur von Skills definieren</t>
+  </si>
+  <si>
+    <t>Struktur von Anlagemodell definieren</t>
+  </si>
+  <si>
+    <t>Anlagemodell entwickeln</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +524,14 @@
       <b/>
       <sz val="6"/>
       <color theme="5" tint="0.79998168889431442"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -625,7 +651,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -781,11 +807,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -950,20 +991,113 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -971,96 +1105,42 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1090,39 +1170,26 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1297,8 +1364,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8347982" y="3071132"/>
-          <a:ext cx="292698" cy="271672"/>
+          <a:off x="8341702" y="3240698"/>
+          <a:ext cx="292698" cy="296792"/>
           <a:chOff x="8334375" y="3144116"/>
           <a:chExt cx="292698" cy="282804"/>
         </a:xfrm>
@@ -1437,8 +1504,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8892977" y="3075272"/>
-          <a:ext cx="355610" cy="270016"/>
+          <a:off x="8886697" y="3244838"/>
+          <a:ext cx="355610" cy="295136"/>
           <a:chOff x="8307870" y="3144116"/>
           <a:chExt cx="355610" cy="282804"/>
         </a:xfrm>
@@ -1878,10 +1945,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA433"/>
+  <dimension ref="A1:AA437"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1902,19 +1969,19 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="14"/>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="72" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="15" t="s">
@@ -2033,16 +2100,16 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
       <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>21</v>
@@ -2112,21 +2179,21 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77">
+      <c r="A4" s="105">
         <v>1</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="27"/>
-      <c r="F4" s="80">
+      <c r="F4" s="108">
         <f>SUM(F6:F17)/6</f>
-        <v>80</v>
-      </c>
-      <c r="G4" s="79" t="s">
-        <v>38</v>
+        <v>100</v>
+      </c>
+      <c r="G4" s="107" t="s">
+        <v>40</v>
       </c>
       <c r="H4" s="46"/>
       <c r="I4" s="47"/>
@@ -2150,13 +2217,13 @@
       <c r="AA4" s="8"/>
     </row>
     <row r="5" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="79"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="107"/>
       <c r="H5" s="48"/>
       <c r="I5" s="49"/>
       <c r="J5" s="8"/>
@@ -2179,22 +2246,22 @@
       <c r="AA5" s="8"/>
     </row>
     <row r="6" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="63">
+      <c r="A6" s="79"/>
+      <c r="B6" s="73">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63" t="s">
+      <c r="C6" s="73"/>
+      <c r="D6" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62">
+      <c r="E6" s="74"/>
+      <c r="F6" s="74">
         <v>100</v>
       </c>
-      <c r="G6" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="108"/>
+      <c r="G6" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="61"/>
       <c r="I6" s="9"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -2216,14 +2283,14 @@
       <c r="AA6" s="8"/>
     </row>
     <row r="7" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="107"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="60"/>
       <c r="I7" s="9"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -2245,23 +2312,23 @@
       <c r="AA7" s="8"/>
     </row>
     <row r="8" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="63">
+      <c r="A8" s="79"/>
+      <c r="B8" s="73">
         <v>1.2</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63" t="s">
+      <c r="C8" s="73"/>
+      <c r="D8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62">
+      <c r="E8" s="74"/>
+      <c r="F8" s="74">
         <v>100</v>
       </c>
-      <c r="G8" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
+      <c r="G8" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
       <c r="J8" s="32"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -2282,15 +2349,15 @@
       <c r="AA8" s="8"/>
     </row>
     <row r="9" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="64"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="107"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -2311,23 +2378,23 @@
       <c r="AA9" s="8"/>
     </row>
     <row r="10" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="63">
+      <c r="A10" s="79"/>
+      <c r="B10" s="73">
         <v>1.3</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62">
-        <v>90</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="108"/>
-      <c r="I10" s="109"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74">
+        <v>100</v>
+      </c>
+      <c r="G10" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
       <c r="J10" s="32"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -2348,16 +2415,16 @@
       <c r="AA10" s="8"/>
     </row>
     <row r="11" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="107"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="60"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -2377,23 +2444,23 @@
       <c r="AA11" s="8"/>
     </row>
     <row r="12" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="63">
+      <c r="A12" s="79"/>
+      <c r="B12" s="73">
         <v>1.4</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62">
+      <c r="E12" s="74"/>
+      <c r="F12" s="74">
         <v>100</v>
       </c>
-      <c r="G12" s="64" t="s">
-        <v>38</v>
+      <c r="G12" s="75" t="s">
+        <v>40</v>
       </c>
       <c r="H12" s="32"/>
-      <c r="I12" s="109"/>
+      <c r="I12" s="62"/>
       <c r="J12" s="32"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -2414,15 +2481,15 @@
       <c r="AA12" s="8"/>
     </row>
     <row r="13" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="64"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="111"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -2443,23 +2510,23 @@
       <c r="AA13" s="8"/>
     </row>
     <row r="14" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="63">
+      <c r="A14" s="79"/>
+      <c r="B14" s="73">
         <v>1.5</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62">
-        <v>90</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>38</v>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74">
+        <v>100</v>
+      </c>
+      <c r="G14" s="75" t="s">
+        <v>40</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="110"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="32"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -2480,16 +2547,16 @@
       <c r="AA14" s="8"/>
     </row>
     <row r="15" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="64"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="107"/>
+      <c r="J15" s="60"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -2509,23 +2576,23 @@
       <c r="AA15" s="8"/>
     </row>
     <row r="16" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="70">
+      <c r="A16" s="79"/>
+      <c r="B16" s="93">
         <v>1.6</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70" t="s">
+      <c r="C16" s="93"/>
+      <c r="D16" s="93" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="69">
-        <v>0</v>
-      </c>
-      <c r="G16" s="64" t="s">
-        <v>37</v>
+      <c r="F16" s="99">
+        <v>100</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>40</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="112"/>
+      <c r="I16" s="65"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -2546,16 +2613,16 @@
       <c r="AA16" s="8"/>
     </row>
     <row r="17" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
       <c r="E17" s="28"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="64"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="107"/>
+      <c r="J17" s="60"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -2575,21 +2642,21 @@
       <c r="AA17" s="8"/>
     </row>
     <row r="18" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82">
+      <c r="A18" s="101">
         <v>2</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81" t="s">
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100" t="s">
         <v>86</v>
       </c>
       <c r="E18" s="37"/>
-      <c r="F18" s="84">
+      <c r="F18" s="90">
         <f>SUM(F20:F25)/3</f>
-        <v>53.333333333333336</v>
-      </c>
-      <c r="G18" s="83" t="s">
-        <v>37</v>
+        <v>100</v>
+      </c>
+      <c r="G18" s="89" t="s">
+        <v>40</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="31"/>
@@ -2613,13 +2680,13 @@
       <c r="AA18" s="8"/>
     </row>
     <row r="19" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="37"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="83"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
       <c r="J19" s="51"/>
@@ -2642,24 +2709,24 @@
       <c r="AA19" s="8"/>
     </row>
     <row r="20" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="63">
+      <c r="A20" s="79"/>
+      <c r="B20" s="73">
         <v>2.1</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63" t="s">
+      <c r="C20" s="73"/>
+      <c r="D20" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62">
-        <v>80</v>
-      </c>
-      <c r="G20" s="64" t="s">
-        <v>37</v>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74">
+        <v>100</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>40</v>
       </c>
       <c r="H20" s="32"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="113"/>
+      <c r="J20" s="66"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -2679,15 +2746,15 @@
       <c r="AA20" s="8"/>
     </row>
     <row r="21" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="64"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="75"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="111"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -2708,24 +2775,24 @@
       <c r="AA21" s="8"/>
     </row>
     <row r="22" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="63">
+      <c r="A22" s="79"/>
+      <c r="B22" s="73">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63" t="s">
+      <c r="C22" s="73"/>
+      <c r="D22" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62">
-        <v>80</v>
-      </c>
-      <c r="G22" s="64" t="s">
-        <v>37</v>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74">
+        <v>100</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>40</v>
       </c>
       <c r="H22" s="32"/>
       <c r="I22" s="33"/>
-      <c r="J22" s="114"/>
+      <c r="J22" s="67"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -2745,15 +2812,15 @@
       <c r="AA22" s="8"/>
     </row>
     <row r="23" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="64"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="111"/>
+      <c r="I23" s="64"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -2774,24 +2841,24 @@
       <c r="AA23" s="8"/>
     </row>
     <row r="24" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="70">
+      <c r="A24" s="79"/>
+      <c r="B24" s="93">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70" t="s">
+      <c r="C24" s="93"/>
+      <c r="D24" s="93" t="s">
         <v>94</v>
       </c>
       <c r="E24" s="28"/>
-      <c r="F24" s="69">
-        <v>0</v>
-      </c>
-      <c r="G24" s="64" t="s">
-        <v>37</v>
+      <c r="F24" s="99">
+        <v>100</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>40</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="115"/>
+      <c r="J24" s="68"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -2811,16 +2878,16 @@
       <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="28"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="64"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="8"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="107"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -2840,21 +2907,21 @@
       <c r="AA25" s="8"/>
     </row>
     <row r="26" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73">
+      <c r="A26" s="94">
         <v>3</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74" t="s">
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95" t="s">
         <v>89</v>
       </c>
       <c r="E26" s="54"/>
-      <c r="F26" s="87">
-        <f>SUM(F28:F77)/6</f>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="G26" s="88" t="s">
-        <v>37</v>
+      <c r="F26" s="98">
+        <f>SUM(F28,F36,F44,F52,F58,F68,F74)/7</f>
+        <v>52.976190476190482</v>
+      </c>
+      <c r="G26" s="76" t="s">
+        <v>38</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="31"/>
@@ -2878,13 +2945,13 @@
       <c r="AA26" s="8"/>
     </row>
     <row r="27" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
       <c r="E27" s="54"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="88"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="76"/>
       <c r="H27" s="8"/>
       <c r="I27" s="9"/>
       <c r="J27" s="56"/>
@@ -2907,20 +2974,21 @@
       <c r="AA27" s="8"/>
     </row>
     <row r="28" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="65">
+      <c r="A28" s="79"/>
+      <c r="B28" s="96">
         <v>3.1</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65" t="s">
+      <c r="C28" s="96"/>
+      <c r="D28" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66">
-        <v>0</v>
-      </c>
-      <c r="G28" s="67" t="s">
-        <v>37</v>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97">
+        <f>SUM(F30:F35)/3</f>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="G28" s="102" t="s">
+        <v>38</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="9"/>
@@ -2944,13 +3012,13 @@
       <c r="AA28" s="8"/>
     </row>
     <row r="29" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="67"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="102"/>
       <c r="H29" s="8"/>
       <c r="I29" s="9"/>
       <c r="J29" s="44"/>
@@ -2973,20 +3041,20 @@
       <c r="AA29" s="8"/>
     </row>
     <row r="30" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="62" t="s">
+      <c r="A30" s="79"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62">
-        <v>0</v>
-      </c>
-      <c r="G30" s="64" t="s">
-        <v>37</v>
+      <c r="D30" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74">
+        <v>100</v>
+      </c>
+      <c r="G30" s="75" t="s">
+        <v>40</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="9"/>
@@ -3010,16 +3078,16 @@
       <c r="AA30" s="8"/>
     </row>
     <row r="31" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="64"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="75"/>
       <c r="H31" s="8"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="8"/>
+      <c r="J31" s="60"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -3039,20 +3107,20 @@
       <c r="AA31" s="8"/>
     </row>
     <row r="32" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="62" t="s">
+      <c r="A32" s="79"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62">
-        <v>0</v>
-      </c>
-      <c r="G32" s="64" t="s">
-        <v>37</v>
+      <c r="D32" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74">
+        <v>100</v>
+      </c>
+      <c r="G32" s="75" t="s">
+        <v>40</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="9"/>
@@ -3076,17 +3144,17 @@
       <c r="AA32" s="8"/>
     </row>
     <row r="33" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="64"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="75"/>
       <c r="H33" s="8"/>
       <c r="I33" s="9"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="K33" s="60"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
@@ -3105,20 +3173,20 @@
       <c r="AA33" s="8"/>
     </row>
     <row r="34" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="63" t="s">
+      <c r="A34" s="79"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62">
-        <v>0</v>
-      </c>
-      <c r="G34" s="64" t="s">
-        <v>37</v>
+      <c r="D34" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74">
+        <v>90</v>
+      </c>
+      <c r="G34" s="75" t="s">
+        <v>38</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="9"/>
@@ -3142,13 +3210,13 @@
       <c r="AA34" s="8"/>
     </row>
     <row r="35" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="64"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="75"/>
       <c r="H35" s="8"/>
       <c r="I35" s="9"/>
       <c r="J35" s="8"/>
@@ -3171,19 +3239,20 @@
       <c r="AA35" s="8"/>
     </row>
     <row r="36" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="65">
+      <c r="A36" s="79"/>
+      <c r="B36" s="96">
         <v>3.2</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65" t="s">
+      <c r="C36" s="96"/>
+      <c r="D36" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66">
+      <c r="E36" s="97"/>
+      <c r="F36" s="97">
+        <f>SUM(F38:F43)/3</f>
         <v>100</v>
       </c>
-      <c r="G36" s="67" t="s">
+      <c r="G36" s="102" t="s">
         <v>40</v>
       </c>
       <c r="H36" s="32"/>
@@ -3208,13 +3277,13 @@
       <c r="AA36" s="8"/>
     </row>
     <row r="37" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="102"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="44"/>
@@ -3237,19 +3306,19 @@
       <c r="AA37" s="8"/>
     </row>
     <row r="38" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="62" t="s">
+      <c r="A38" s="79"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62">
+      <c r="D38" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74">
         <v>100</v>
       </c>
-      <c r="G38" s="64" t="s">
+      <c r="G38" s="75" t="s">
         <v>40</v>
       </c>
       <c r="H38" s="8"/>
@@ -3274,16 +3343,16 @@
       <c r="AA38" s="8"/>
     </row>
     <row r="39" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="64"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="75"/>
       <c r="H39" s="8"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="107"/>
+      <c r="J39" s="60"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -3303,19 +3372,19 @@
       <c r="AA39" s="8"/>
     </row>
     <row r="40" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="62" t="s">
+      <c r="A40" s="79"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62">
+      <c r="D40" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74">
         <v>100</v>
       </c>
-      <c r="G40" s="64" t="s">
+      <c r="G40" s="75" t="s">
         <v>40</v>
       </c>
       <c r="H40" s="8"/>
@@ -3340,16 +3409,16 @@
       <c r="AA40" s="8"/>
     </row>
     <row r="41" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="64"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="75"/>
       <c r="H41" s="8"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="107"/>
+      <c r="J41" s="60"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -3369,19 +3438,19 @@
       <c r="AA41" s="8"/>
     </row>
     <row r="42" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="62" t="s">
+      <c r="A42" s="79"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62">
+      <c r="E42" s="74"/>
+      <c r="F42" s="74">
         <v>100</v>
       </c>
-      <c r="G42" s="64" t="s">
+      <c r="G42" s="75" t="s">
         <v>40</v>
       </c>
       <c r="H42" s="8"/>
@@ -3406,16 +3475,16 @@
       <c r="AA42" s="8"/>
     </row>
     <row r="43" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="64"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="75"/>
       <c r="H43" s="8"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="107"/>
+      <c r="J43" s="60"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
@@ -3435,20 +3504,21 @@
       <c r="AA43" s="8"/>
     </row>
     <row r="44" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="65">
+      <c r="A44" s="79"/>
+      <c r="B44" s="96">
         <v>3.3</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65" t="s">
+      <c r="C44" s="96"/>
+      <c r="D44" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="E44" s="68"/>
-      <c r="F44" s="66">
-        <v>0</v>
-      </c>
-      <c r="G44" s="67" t="s">
-        <v>37</v>
+      <c r="E44" s="109"/>
+      <c r="F44" s="97">
+        <f>SUM(F46:F51)/3</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G44" s="102" t="s">
+        <v>38</v>
       </c>
       <c r="H44" s="32"/>
       <c r="I44" s="33"/>
@@ -3472,13 +3542,13 @@
       <c r="AA44" s="8"/>
     </row>
     <row r="45" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="102"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -3501,22 +3571,22 @@
       <c r="AA45" s="8"/>
     </row>
     <row r="46" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="62" t="s">
+      <c r="A46" s="79"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="E46" s="62" t="s">
+      <c r="D46" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="62">
-        <v>0</v>
-      </c>
-      <c r="G46" s="64" t="s">
-        <v>37</v>
+      <c r="F46" s="74">
+        <v>100</v>
+      </c>
+      <c r="G46" s="75" t="s">
+        <v>40</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="9"/>
@@ -3540,17 +3610,17 @@
       <c r="AA46" s="8"/>
     </row>
     <row r="47" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="64"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="75"/>
       <c r="H47" s="8"/>
       <c r="I47" s="9"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="K47" s="60"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
@@ -3569,20 +3639,20 @@
       <c r="AA47" s="8"/>
     </row>
     <row r="48" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="62" t="s">
+      <c r="A48" s="79"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62">
-        <v>0</v>
-      </c>
-      <c r="G48" s="64" t="s">
-        <v>37</v>
+      <c r="D48" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74">
+        <v>100</v>
+      </c>
+      <c r="G48" s="75" t="s">
+        <v>40</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="9"/>
@@ -3606,18 +3676,18 @@
       <c r="AA48" s="8"/>
     </row>
     <row r="49" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="64"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="75"/>
       <c r="H49" s="8"/>
       <c r="I49" s="9"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
+      <c r="L49" s="60"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
@@ -3635,21 +3705,21 @@
       <c r="AA49" s="8"/>
     </row>
     <row r="50" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="F50" s="62">
+      <c r="A50" s="79"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="74">
         <v>0</v>
       </c>
-      <c r="G50" s="64" t="s">
+      <c r="G50" s="75" t="s">
         <v>37</v>
       </c>
       <c r="H50" s="8"/>
@@ -3674,13 +3744,13 @@
       <c r="AA50" s="8"/>
     </row>
     <row r="51" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="64"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="75"/>
       <c r="H51" s="8"/>
       <c r="I51" s="9"/>
       <c r="J51" s="8"/>
@@ -3703,20 +3773,21 @@
       <c r="AA51" s="8"/>
     </row>
     <row r="52" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="60"/>
-      <c r="B52" s="65">
+      <c r="A52" s="79"/>
+      <c r="B52" s="96">
         <v>3.4</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66">
-        <v>0</v>
-      </c>
-      <c r="G52" s="67" t="s">
-        <v>37</v>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97">
+        <f>SUM(F54:F57)/2</f>
+        <v>90</v>
+      </c>
+      <c r="G52" s="102" t="s">
+        <v>38</v>
       </c>
       <c r="H52" s="32"/>
       <c r="I52" s="33"/>
@@ -3739,13 +3810,13 @@
       <c r="AA52" s="8"/>
     </row>
     <row r="53" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
+      <c r="A53" s="79"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="102"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -3767,22 +3838,22 @@
       <c r="AA53" s="8"/>
     </row>
     <row r="54" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="60"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="62" t="s">
+      <c r="A54" s="79"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="E54" s="62" t="s">
+      <c r="D54" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="62">
-        <v>0</v>
-      </c>
-      <c r="G54" s="64" t="s">
-        <v>37</v>
+      <c r="F54" s="74">
+        <v>100</v>
+      </c>
+      <c r="G54" s="75" t="s">
+        <v>40</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="9"/>
@@ -3805,17 +3876,17 @@
       <c r="AA54" s="8"/>
     </row>
     <row r="55" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="64"/>
+      <c r="A55" s="79"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
       <c r="H55" s="8"/>
       <c r="I55" s="9"/>
       <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
+      <c r="K55" s="60"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
@@ -3834,20 +3905,20 @@
       <c r="AA55" s="8"/>
     </row>
     <row r="56" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="62" t="s">
+      <c r="A56" s="79"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62">
-        <v>0</v>
-      </c>
-      <c r="G56" s="64" t="s">
-        <v>37</v>
+      <c r="D56" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74">
+        <v>80</v>
+      </c>
+      <c r="G56" s="75" t="s">
+        <v>38</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="9"/>
@@ -3871,13 +3942,13 @@
       <c r="AA56" s="8"/>
     </row>
     <row r="57" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="64"/>
+      <c r="A57" s="79"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="75"/>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
       <c r="J57" s="8"/>
@@ -3900,19 +3971,20 @@
       <c r="AA57" s="8"/>
     </row>
     <row r="58" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
-      <c r="B58" s="65">
+      <c r="A58" s="79"/>
+      <c r="B58" s="96">
         <v>3.5</v>
       </c>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66">
-        <v>0</v>
-      </c>
-      <c r="G58" s="67" t="s">
+      <c r="C58" s="96"/>
+      <c r="D58" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="97"/>
+      <c r="F58" s="97">
+        <f>SUM(F60:F63)/4</f>
+        <v>17.5</v>
+      </c>
+      <c r="G58" s="102" t="s">
         <v>37</v>
       </c>
       <c r="H58" s="32"/>
@@ -3937,13 +4009,13 @@
       <c r="AA58" s="8"/>
     </row>
     <row r="59" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="67"/>
+      <c r="A59" s="79"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="102"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -3966,25 +4038,27 @@
       <c r="AA59" s="8"/>
     </row>
     <row r="60" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="60"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="62" t="s">
+      <c r="A60" s="79"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62">
-        <v>0</v>
-      </c>
-      <c r="G60" s="64" t="s">
-        <v>37</v>
+      <c r="D60" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74">
+        <v>70</v>
+      </c>
+      <c r="G60" s="75" t="s">
+        <v>38</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="9"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
+      <c r="M60" s="53"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
@@ -4001,13 +4075,13 @@
       <c r="AA60" s="8"/>
     </row>
     <row r="61" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="64"/>
+      <c r="A61" s="79"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="75"/>
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
       <c r="J61" s="8"/>
@@ -4030,17 +4104,19 @@
       <c r="AA61" s="8"/>
     </row>
     <row r="62" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="62" t="s">
+      <c r="A62" s="79"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62">
+      <c r="D62" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74">
         <v>0</v>
       </c>
-      <c r="G62" s="64" t="s">
+      <c r="G62" s="75" t="s">
         <v>37</v>
       </c>
       <c r="H62" s="8"/>
@@ -4049,7 +4125,7 @@
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
+      <c r="N62" s="53"/>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
       <c r="Q62" s="9"/>
@@ -4065,13 +4141,13 @@
       <c r="AA62" s="8"/>
     </row>
     <row r="63" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="60"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="64"/>
+      <c r="A63" s="79"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="75"/>
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
       <c r="J63" s="8"/>
@@ -4094,34 +4170,34 @@
       <c r="AA63" s="8"/>
     </row>
     <row r="64" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="60"/>
-      <c r="B64" s="65">
-        <v>3.6</v>
-      </c>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66">
+      <c r="A64" s="79"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74">
         <v>0</v>
       </c>
-      <c r="G64" s="67" t="s">
+      <c r="G64" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="32"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="32"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="44"/>
-      <c r="P64" s="44"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="44"/>
-      <c r="S64" s="44"/>
-      <c r="T64" s="44"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
       <c r="U64" s="8"/>
       <c r="V64" s="39"/>
       <c r="W64" s="39"/>
@@ -4131,26 +4207,26 @@
       <c r="AA64" s="8"/>
     </row>
     <row r="65" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="60"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="67"/>
+      <c r="A65" s="79"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="75"/>
       <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
+      <c r="I65" s="9"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="44"/>
-      <c r="S65" s="44"/>
-      <c r="T65" s="44"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
       <c r="U65" s="8"/>
       <c r="V65" s="39"/>
       <c r="W65" s="39"/>
@@ -4160,17 +4236,19 @@
       <c r="AA65" s="8"/>
     </row>
     <row r="66" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="60"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62">
+      <c r="A66" s="79"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74">
         <v>0</v>
       </c>
-      <c r="G66" s="64" t="s">
+      <c r="G66" s="75" t="s">
         <v>37</v>
       </c>
       <c r="H66" s="8"/>
@@ -4180,10 +4258,10 @@
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="8"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="53"/>
+      <c r="Q66" s="69"/>
+      <c r="R66" s="53"/>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
@@ -4195,13 +4273,13 @@
       <c r="AA66" s="8"/>
     </row>
     <row r="67" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="60"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="64"/>
+      <c r="A67" s="79"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="75"/>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
       <c r="J67" s="8"/>
@@ -4224,32 +4302,35 @@
       <c r="AA67" s="8"/>
     </row>
     <row r="68" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="60"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62">
+      <c r="A68" s="79"/>
+      <c r="B68" s="96">
+        <v>3.6</v>
+      </c>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="97"/>
+      <c r="F68" s="97">
+        <f>SUM(F70:F73)/3</f>
         <v>0</v>
       </c>
-      <c r="G68" s="64" t="s">
+      <c r="G68" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="H68" s="8"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="8"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="32"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="52"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
       <c r="U68" s="8"/>
       <c r="V68" s="39"/>
       <c r="W68" s="39"/>
@@ -4259,26 +4340,26 @@
       <c r="AA68" s="8"/>
     </row>
     <row r="69" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="60"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="64"/>
+      <c r="A69" s="79"/>
+      <c r="B69" s="96"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="102"/>
       <c r="H69" s="8"/>
-      <c r="I69" s="9"/>
+      <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="52"/>
+      <c r="R69" s="44"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="44"/>
       <c r="U69" s="8"/>
       <c r="V69" s="39"/>
       <c r="W69" s="39"/>
@@ -4288,24 +4369,22 @@
       <c r="AA69" s="8"/>
     </row>
     <row r="70" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="60"/>
-      <c r="B70" s="65">
-        <v>3.7</v>
-      </c>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66">
+      <c r="A70" s="79"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74">
         <v>0</v>
       </c>
-      <c r="G70" s="67" t="s">
+      <c r="G70" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="H70" s="32"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="32"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
@@ -4325,15 +4404,15 @@
       <c r="AA70" s="8"/>
     </row>
     <row r="71" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="60"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="67"/>
+      <c r="A71" s="79"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="75"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
+      <c r="I71" s="9"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
@@ -4354,17 +4433,17 @@
       <c r="AA71" s="8"/>
     </row>
     <row r="72" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="60"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62">
+      <c r="A72" s="79"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74">
         <v>0</v>
       </c>
-      <c r="G72" s="64" t="s">
+      <c r="G72" s="75" t="s">
         <v>37</v>
       </c>
       <c r="H72" s="8"/>
@@ -4389,13 +4468,13 @@
       <c r="AA72" s="8"/>
     </row>
     <row r="73" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="60"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="64"/>
+      <c r="A73" s="79"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="75"/>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
       <c r="J73" s="8"/>
@@ -4418,22 +4497,25 @@
       <c r="AA73" s="8"/>
     </row>
     <row r="74" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="60"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62">
+      <c r="A74" s="79"/>
+      <c r="B74" s="96">
+        <v>3.7</v>
+      </c>
+      <c r="C74" s="96"/>
+      <c r="D74" s="96" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="97"/>
+      <c r="F74" s="97">
+        <f>SUM(F76:F79)/3</f>
         <v>0</v>
       </c>
-      <c r="G74" s="64" t="s">
+      <c r="G74" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="H74" s="8"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="8"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="32"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
@@ -4453,15 +4535,15 @@
       <c r="AA74" s="8"/>
     </row>
     <row r="75" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="60"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="64"/>
+      <c r="A75" s="79"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="96"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="102"/>
       <c r="H75" s="8"/>
-      <c r="I75" s="9"/>
+      <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
@@ -4482,19 +4564,17 @@
       <c r="AA75" s="8"/>
     </row>
     <row r="76" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="60"/>
-      <c r="B76" s="70">
-        <v>3.8</v>
-      </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="E76" s="28"/>
-      <c r="F76" s="69">
+      <c r="A76" s="79"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74">
         <v>0</v>
       </c>
-      <c r="G76" s="64" t="s">
+      <c r="G76" s="75" t="s">
         <v>37</v>
       </c>
       <c r="H76" s="8"/>
@@ -4519,13 +4599,13 @@
       <c r="AA76" s="8"/>
     </row>
     <row r="77" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="60"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="64"/>
+      <c r="A77" s="79"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="75"/>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
       <c r="J77" s="8"/>
@@ -4548,25 +4628,22 @@
       <c r="AA77" s="8"/>
     </row>
     <row r="78" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="72">
-        <v>4</v>
-      </c>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="E78" s="38"/>
-      <c r="F78" s="85">
-        <f>SUM(F80:F85)/6</f>
+      <c r="A78" s="79"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74">
         <v>0</v>
       </c>
-      <c r="G78" s="86" t="s">
+      <c r="G78" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="H78" s="30"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="30"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
@@ -4581,18 +4658,18 @@
       <c r="V78" s="39"/>
       <c r="W78" s="39"/>
       <c r="X78" s="8"/>
-      <c r="Y78" s="43"/>
+      <c r="Y78" s="9"/>
       <c r="Z78" s="8"/>
       <c r="AA78" s="8"/>
     </row>
     <row r="79" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="72"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="86"/>
+      <c r="A79" s="79"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="75"/>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
       <c r="J79" s="8"/>
@@ -4610,27 +4687,27 @@
       <c r="V79" s="39"/>
       <c r="W79" s="39"/>
       <c r="X79" s="8"/>
-      <c r="Y79" s="43"/>
+      <c r="Y79" s="9"/>
       <c r="Z79" s="8"/>
       <c r="AA79" s="8"/>
     </row>
     <row r="80" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="60"/>
-      <c r="B80" s="63">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C80" s="63"/>
-      <c r="D80" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62">
+      <c r="A80" s="79"/>
+      <c r="B80" s="93">
+        <v>3.8</v>
+      </c>
+      <c r="C80" s="93"/>
+      <c r="D80" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80" s="28"/>
+      <c r="F80" s="99">
         <v>0</v>
       </c>
-      <c r="G80" s="64" t="s">
+      <c r="G80" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="H80" s="32"/>
+      <c r="H80" s="8"/>
       <c r="I80" s="9"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -4652,13 +4729,13 @@
       <c r="AA80" s="8"/>
     </row>
     <row r="81" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="60"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="64"/>
+      <c r="A81" s="79"/>
+      <c r="B81" s="93"/>
+      <c r="C81" s="93"/>
+      <c r="D81" s="93"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="99"/>
+      <c r="G81" s="75"/>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
       <c r="J81" s="8"/>
@@ -4681,24 +4758,25 @@
       <c r="AA81" s="8"/>
     </row>
     <row r="82" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="60"/>
-      <c r="B82" s="63">
-        <v>4.2</v>
-      </c>
-      <c r="C82" s="63"/>
-      <c r="D82" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62">
+      <c r="A82" s="91">
+        <v>4</v>
+      </c>
+      <c r="B82" s="92"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" s="38"/>
+      <c r="F82" s="77">
+        <f>SUM(F84:F89)/6</f>
         <v>0</v>
       </c>
-      <c r="G82" s="64" t="s">
+      <c r="G82" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H82" s="32"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="32"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="30"/>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
@@ -4713,20 +4791,20 @@
       <c r="V82" s="39"/>
       <c r="W82" s="39"/>
       <c r="X82" s="8"/>
-      <c r="Y82" s="9"/>
+      <c r="Y82" s="43"/>
       <c r="Z82" s="8"/>
       <c r="AA82" s="8"/>
     </row>
     <row r="83" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="60"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="64"/>
+      <c r="A83" s="91"/>
+      <c r="B83" s="92"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="78"/>
       <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
+      <c r="I83" s="9"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
@@ -4742,29 +4820,29 @@
       <c r="V83" s="39"/>
       <c r="W83" s="39"/>
       <c r="X83" s="8"/>
-      <c r="Y83" s="9"/>
+      <c r="Y83" s="43"/>
       <c r="Z83" s="8"/>
       <c r="AA83" s="8"/>
     </row>
     <row r="84" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="60"/>
-      <c r="B84" s="63">
-        <v>4.3</v>
-      </c>
-      <c r="C84" s="63"/>
-      <c r="D84" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62">
+      <c r="A84" s="79"/>
+      <c r="B84" s="73">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C84" s="73"/>
+      <c r="D84" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" s="74"/>
+      <c r="F84" s="74">
         <v>0</v>
       </c>
-      <c r="G84" s="64" t="s">
+      <c r="G84" s="75" t="s">
         <v>37</v>
       </c>
       <c r="H84" s="32"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="32"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
@@ -4784,13 +4862,13 @@
       <c r="AA84" s="8"/>
     </row>
     <row r="85" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="60"/>
-      <c r="B85" s="63"/>
-      <c r="C85" s="63"/>
-      <c r="D85" s="63"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="64"/>
+      <c r="A85" s="79"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="73"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="74"/>
+      <c r="G85" s="75"/>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
       <c r="J85" s="8"/>
@@ -4813,25 +4891,24 @@
       <c r="AA85" s="8"/>
     </row>
     <row r="86" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="91">
-        <v>5</v>
-      </c>
-      <c r="B86" s="92"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="E86" s="29"/>
-      <c r="F86" s="93">
-        <f>SUM(F90:F97)/4</f>
+      <c r="A86" s="79"/>
+      <c r="B86" s="73">
+        <v>4.2</v>
+      </c>
+      <c r="C86" s="73"/>
+      <c r="D86" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74">
         <v>0</v>
       </c>
-      <c r="G86" s="90" t="s">
+      <c r="G86" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="H86" s="8"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="8"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="32"/>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
@@ -4851,15 +4928,15 @@
       <c r="AA86" s="8"/>
     </row>
     <row r="87" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="91"/>
-      <c r="B87" s="92"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="93"/>
-      <c r="G87" s="90"/>
+      <c r="A87" s="79"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="75"/>
       <c r="H87" s="8"/>
-      <c r="I87" s="9"/>
+      <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
@@ -4880,24 +4957,24 @@
       <c r="AA87" s="8"/>
     </row>
     <row r="88" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="60"/>
-      <c r="B88" s="63">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="E88" s="62"/>
-      <c r="F88" s="62">
+      <c r="A88" s="79"/>
+      <c r="B88" s="73">
+        <v>4.3</v>
+      </c>
+      <c r="C88" s="73"/>
+      <c r="D88" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74">
         <v>0</v>
       </c>
-      <c r="G88" s="64" t="s">
+      <c r="G88" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="H88" s="34"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="8"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="32"/>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
@@ -4917,13 +4994,13 @@
       <c r="AA88" s="8"/>
     </row>
     <row r="89" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="60"/>
-      <c r="B89" s="63"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="64"/>
+      <c r="A89" s="79"/>
+      <c r="B89" s="73"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="75"/>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
       <c r="J89" s="8"/>
@@ -4946,19 +5023,20 @@
       <c r="AA89" s="8"/>
     </row>
     <row r="90" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="60"/>
-      <c r="B90" s="63">
-        <v>5.2</v>
-      </c>
-      <c r="C90" s="63"/>
-      <c r="D90" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="E90" s="62"/>
-      <c r="F90" s="62">
+      <c r="A90" s="83">
+        <v>5</v>
+      </c>
+      <c r="B90" s="84"/>
+      <c r="C90" s="84"/>
+      <c r="D90" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90" s="29"/>
+      <c r="F90" s="85">
+        <f>SUM(F94:F101)/4</f>
         <v>0</v>
       </c>
-      <c r="G90" s="64" t="s">
+      <c r="G90" s="82" t="s">
         <v>37</v>
       </c>
       <c r="H90" s="8"/>
@@ -4983,13 +5061,13 @@
       <c r="AA90" s="8"/>
     </row>
     <row r="91" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="60"/>
-      <c r="B91" s="63"/>
-      <c r="C91" s="63"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="62"/>
-      <c r="G91" s="64"/>
+      <c r="A91" s="83"/>
+      <c r="B91" s="84"/>
+      <c r="C91" s="84"/>
+      <c r="D91" s="84"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="82"/>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
       <c r="J91" s="8"/>
@@ -5012,22 +5090,22 @@
       <c r="AA91" s="8"/>
     </row>
     <row r="92" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="60"/>
-      <c r="B92" s="63">
-        <v>5.3</v>
-      </c>
-      <c r="C92" s="63"/>
-      <c r="D92" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62">
+      <c r="A92" s="79"/>
+      <c r="B92" s="73">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C92" s="73"/>
+      <c r="D92" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="E92" s="74"/>
+      <c r="F92" s="74">
         <v>0</v>
       </c>
-      <c r="G92" s="64" t="s">
+      <c r="G92" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="H92" s="8"/>
+      <c r="H92" s="34"/>
       <c r="I92" s="9"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -5049,13 +5127,13 @@
       <c r="AA92" s="8"/>
     </row>
     <row r="93" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="60"/>
-      <c r="B93" s="63"/>
-      <c r="C93" s="63"/>
-      <c r="D93" s="63"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="62"/>
-      <c r="G93" s="64"/>
+      <c r="A93" s="79"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="73"/>
+      <c r="D93" s="73"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="74"/>
+      <c r="G93" s="75"/>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
       <c r="J93" s="8"/>
@@ -5078,19 +5156,19 @@
       <c r="AA93" s="8"/>
     </row>
     <row r="94" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="60"/>
-      <c r="B94" s="63">
-        <v>5.4</v>
-      </c>
-      <c r="C94" s="63"/>
-      <c r="D94" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="E94" s="62"/>
-      <c r="F94" s="62">
+      <c r="A94" s="79"/>
+      <c r="B94" s="73">
+        <v>5.2</v>
+      </c>
+      <c r="C94" s="73"/>
+      <c r="D94" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="E94" s="74"/>
+      <c r="F94" s="74">
         <v>0</v>
       </c>
-      <c r="G94" s="64" t="s">
+      <c r="G94" s="75" t="s">
         <v>37</v>
       </c>
       <c r="H94" s="8"/>
@@ -5110,18 +5188,18 @@
       <c r="V94" s="39"/>
       <c r="W94" s="39"/>
       <c r="X94" s="8"/>
-      <c r="Y94" s="35"/>
+      <c r="Y94" s="9"/>
       <c r="Z94" s="8"/>
       <c r="AA94" s="8"/>
     </row>
     <row r="95" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="60"/>
-      <c r="B95" s="63"/>
-      <c r="C95" s="63"/>
-      <c r="D95" s="63"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="62"/>
-      <c r="G95" s="64"/>
+      <c r="A95" s="79"/>
+      <c r="B95" s="73"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="73"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="74"/>
+      <c r="G95" s="75"/>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
       <c r="J95" s="8"/>
@@ -5144,19 +5222,19 @@
       <c r="AA95" s="8"/>
     </row>
     <row r="96" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="60"/>
-      <c r="B96" s="63">
-        <v>5.5</v>
-      </c>
-      <c r="C96" s="63"/>
-      <c r="D96" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62">
+      <c r="A96" s="79"/>
+      <c r="B96" s="73">
+        <v>5.3</v>
+      </c>
+      <c r="C96" s="73"/>
+      <c r="D96" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74">
         <v>0</v>
       </c>
-      <c r="G96" s="64" t="s">
+      <c r="G96" s="75" t="s">
         <v>37</v>
       </c>
       <c r="H96" s="8"/>
@@ -5178,56 +5256,168 @@
       <c r="X96" s="8"/>
       <c r="Y96" s="9"/>
       <c r="Z96" s="8"/>
-      <c r="AA96" s="34"/>
-    </row>
-    <row r="97" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="94"/>
-      <c r="B97" s="95"/>
-      <c r="C97" s="95"/>
-      <c r="D97" s="95"/>
-      <c r="E97" s="89"/>
-      <c r="F97" s="89"/>
-      <c r="G97" s="96"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="19"/>
-      <c r="M97" s="19"/>
-      <c r="N97" s="19"/>
-      <c r="O97" s="19"/>
-      <c r="P97" s="19"/>
-      <c r="Q97" s="20"/>
-      <c r="R97" s="19"/>
-      <c r="S97" s="19"/>
-      <c r="T97" s="19"/>
-      <c r="U97" s="19"/>
-      <c r="V97" s="40"/>
-      <c r="W97" s="40"/>
-      <c r="X97" s="19"/>
-      <c r="Y97" s="20"/>
-      <c r="Z97" s="19"/>
-      <c r="AA97" s="19"/>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="AA96" s="8"/>
+    </row>
+    <row r="97" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="79"/>
+      <c r="B97" s="73"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="73"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="74"/>
+      <c r="G97" s="75"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="39"/>
+      <c r="W97" s="39"/>
+      <c r="X97" s="8"/>
+      <c r="Y97" s="9"/>
+      <c r="Z97" s="8"/>
+      <c r="AA97" s="8"/>
+    </row>
+    <row r="98" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="79"/>
+      <c r="B98" s="73">
+        <v>5.4</v>
+      </c>
+      <c r="C98" s="73"/>
+      <c r="D98" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" s="74"/>
+      <c r="F98" s="74">
+        <v>0</v>
+      </c>
+      <c r="G98" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H98" s="8"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="8"/>
+      <c r="V98" s="39"/>
+      <c r="W98" s="39"/>
+      <c r="X98" s="8"/>
+      <c r="Y98" s="35"/>
+      <c r="Z98" s="8"/>
+      <c r="AA98" s="8"/>
+    </row>
+    <row r="99" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="79"/>
+      <c r="B99" s="73"/>
+      <c r="C99" s="73"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="39"/>
+      <c r="W99" s="39"/>
+      <c r="X99" s="8"/>
+      <c r="Y99" s="9"/>
+      <c r="Z99" s="8"/>
+      <c r="AA99" s="8"/>
+    </row>
+    <row r="100" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="79"/>
+      <c r="B100" s="73">
+        <v>5.5</v>
+      </c>
+      <c r="C100" s="73"/>
+      <c r="D100" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74">
+        <v>0</v>
+      </c>
+      <c r="G100" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H100" s="8"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="8"/>
+      <c r="S100" s="8"/>
+      <c r="T100" s="8"/>
+      <c r="U100" s="8"/>
+      <c r="V100" s="39"/>
+      <c r="W100" s="39"/>
+      <c r="X100" s="8"/>
+      <c r="Y100" s="9"/>
+      <c r="Z100" s="8"/>
+      <c r="AA100" s="34"/>
+    </row>
+    <row r="101" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="86"/>
+      <c r="B101" s="87"/>
+      <c r="C101" s="87"/>
+      <c r="D101" s="87"/>
+      <c r="E101" s="81"/>
+      <c r="F101" s="81"/>
+      <c r="G101" s="88"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="20"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="19"/>
+      <c r="T101" s="19"/>
+      <c r="U101" s="19"/>
+      <c r="V101" s="40"/>
+      <c r="W101" s="40"/>
+      <c r="X101" s="19"/>
+      <c r="Y101" s="20"/>
+      <c r="Z101" s="19"/>
+      <c r="AA101" s="19"/>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
@@ -5238,15 +5428,11 @@
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
@@ -5262,11 +5448,15 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
@@ -6893,168 +7083,110 @@
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
     </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1"/>
+      <c r="B434" s="1"/>
+      <c r="C434" s="1"/>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1"/>
+      <c r="B435" s="1"/>
+      <c r="C435" s="1"/>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1"/>
+      <c r="B436" s="1"/>
+      <c r="C436" s="1"/>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1"/>
+      <c r="B437" s="1"/>
+      <c r="C437" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="270">
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="A86:C87"/>
-    <mergeCell ref="B90:C91"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="B96:C97"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:C93"/>
-    <mergeCell ref="B80:C81"/>
-    <mergeCell ref="F80:F81"/>
+  <mergeCells count="282">
+    <mergeCell ref="A78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
     <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:C85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E80:E81"/>
     <mergeCell ref="G78:G79"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A18:C19"/>
-    <mergeCell ref="B88:C89"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:C83"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A78:C79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="B76:C77"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="C76:C77"/>
     <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E76:E77"/>
     <mergeCell ref="F76:F77"/>
     <mergeCell ref="G76:G77"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="A72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:C53"/>
     <mergeCell ref="D52:D53"/>
@@ -7073,116 +7205,206 @@
     <mergeCell ref="F46:F47"/>
     <mergeCell ref="G46:G47"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B92:C93"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:C87"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A82:C83"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="B80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A88:A89"/>
     <mergeCell ref="E64:E65"/>
     <mergeCell ref="F64:F65"/>
     <mergeCell ref="G64:G65"/>
     <mergeCell ref="A66:B67"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="A68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="A72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="A90:C91"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="B98:C99"/>
+    <mergeCell ref="B100:C101"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:C97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B84:C85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="B88:C89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F4:F30 F32 F36:F38 F40 F76:F97">
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+  <conditionalFormatting sqref="F4:F30 F32 F36:F38 F40 F80:F101">
+    <cfRule type="cellIs" dxfId="19" priority="28" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7195,8 +7417,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F38 F32 F40 F4:F30 F76:F97">
-    <cfRule type="dataBar" priority="28">
+  <conditionalFormatting sqref="F36:F38 F32 F40 F4:F30 F80:F101">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7210,13 +7432,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7230,13 +7452,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F46 F48">
-    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="25" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7250,13 +7472,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7270,6 +7492,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:F54 F56">
+    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0D877D8A-F684-4D38-BE10-8FDA40531B2E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58:F60 F62">
     <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
       <formula>100</formula>
     </cfRule>
@@ -7284,19 +7526,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0D877D8A-F684-4D38-BE10-8FDA40531B2E}</x14:id>
+          <x14:id>{825B3EF1-D042-4031-83C8-0A3C0E40BFE9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58:F60 F62">
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+  <conditionalFormatting sqref="F64 F66">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7304,19 +7546,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{825B3EF1-D042-4031-83C8-0A3C0E40BFE9}</x14:id>
+          <x14:id>{DC067A18-958F-4513-8EAE-5AD96F05D461}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64:F66 F68">
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
+  <conditionalFormatting sqref="F68:F70 F72">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7329,14 +7571,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70:F72 F74">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+  <conditionalFormatting sqref="F74:F76 F78">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7383,7 +7625,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F36:F38 F32 F40 F4:F30 F76:F97</xm:sqref>
+          <xm:sqref>F36:F38 F32 F40 F4:F30 F80:F101</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{982B3ECA-59F0-467D-B182-B1E4F4D7FA8D}">
@@ -7461,6 +7703,21 @@
           <xm:sqref>F58:F60 F62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DC067A18-958F-4513-8EAE-5AD96F05D461}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F64 F66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93065951-09EA-4D52-A3E0-BA9DBB76332C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -7473,7 +7730,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F64:F66 F68</xm:sqref>
+          <xm:sqref>F68:F70 F72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BFCA5482-0225-48EE-8E53-FDDF0ACCB26F}">
@@ -7488,7 +7745,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F70:F72 F74</xm:sqref>
+          <xm:sqref>F74:F76 F78</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7498,7 +7755,7 @@
           <x14:formula1>
             <xm:f>'Status '!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G32 G36:G38 G40 G4:G30 G44:G46 G48 G52:G54 G56 G58:G60 G62 G64:G66 G68 G70:G72 G74 G76:G97 G34 G50 G42</xm:sqref>
+          <xm:sqref>G32 G36:G38 G40 G4:G30 G44:G46 G48 G52:G54 G56 G58:G60 G62 G68:G70 G72 G74:G76 G78 G80:G101 G34 G50 G42 G64 G66</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7691,8 +7948,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97"/>
-      <c r="B3" s="98" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="10"/>
@@ -7717,8 +7974,8 @@
       <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="98"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="8"/>
@@ -7741,8 +7998,8 @@
       <c r="V4" s="8"/>
     </row>
     <row r="5" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106" t="s">
+      <c r="A5" s="118"/>
+      <c r="B5" s="119" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="30"/>
@@ -7767,8 +8024,8 @@
       <c r="V5" s="8"/>
     </row>
     <row r="6" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="8"/>
@@ -7791,8 +8048,8 @@
       <c r="V6" s="8"/>
     </row>
     <row r="7" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="104" t="s">
+      <c r="A7" s="116"/>
+      <c r="B7" s="117" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="8"/>
@@ -7817,8 +8074,8 @@
       <c r="V7" s="30"/>
     </row>
     <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
@@ -7841,8 +8098,8 @@
       <c r="V8" s="8"/>
     </row>
     <row r="9" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99"/>
-      <c r="B9" s="101" t="s">
+      <c r="A9" s="112"/>
+      <c r="B9" s="114" t="s">
         <v>96</v>
       </c>
       <c r="C9" s="8"/>
@@ -7867,8 +8124,8 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
-      <c r="B10" s="102"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="19"/>

--- a/02_Analyse/02_Terminplanung/Terminplanung_V1.xlsx
+++ b/02_Analyse/02_Terminplanung/Terminplanung_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b660818652cf050/03_Studium/Master/Semester 5/02_Thesis/02_Analyse/02_Terminplanung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1767" documentId="8_{D92DD50D-1DBF-4A11-8833-F91896F605F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81A48814-D7C4-45F3-80DF-6FCED3C3808E}"/>
+  <xr:revisionPtr revIDLastSave="1859" documentId="8_{D92DD50D-1DBF-4A11-8833-F91896F605F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4766F51-D894-480C-B2A9-03744E432187}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{A6803629-CC7A-4077-B2EA-9F52BB2D00D8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6803629-CC7A-4077-B2EA-9F52BB2D00D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Detailplan" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Grobplan" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Detailplan!$A$1:$AA$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Detailplan!$A$1:$AA$111</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Grobplan!$A$1:$V$10</definedName>
-    <definedName name="Print_Area" localSheetId="0">Detailplan!$A$1:$AA$101</definedName>
+    <definedName name="Print_Area" localSheetId="0">Detailplan!$A$1:$AA$111</definedName>
     <definedName name="Print_Area" localSheetId="2">Grobplan!$A$1:$V$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="141">
   <si>
     <t>PW1</t>
   </si>
@@ -427,28 +427,46 @@
     <t>Einarbeiten in Schnittstellen</t>
   </si>
   <si>
-    <t>Arbeitspaket 5: Prozessmodell</t>
-  </si>
-  <si>
-    <t>Arbeitspaket 6: Anlagemodell</t>
-  </si>
-  <si>
     <t>3.5.3.</t>
   </si>
   <si>
     <t>3.5.4.</t>
   </si>
   <si>
-    <t>Definieren wie ein Skill definiert wird</t>
-  </si>
-  <si>
-    <t>Struktur von Skills definieren</t>
-  </si>
-  <si>
-    <t>Struktur von Anlagemodell definieren</t>
-  </si>
-  <si>
-    <t>Anlagemodell entwickeln</t>
+    <t>3.6.3.</t>
+  </si>
+  <si>
+    <t>3.6.4.</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 5: Skill</t>
+  </si>
+  <si>
+    <t>Kompetenzen eines Skills definieren</t>
+  </si>
+  <si>
+    <t>Definieren der Grund-Skill-Struktur</t>
+  </si>
+  <si>
+    <t>Umsetzung von Skills</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 7: Prozessmodell</t>
+  </si>
+  <si>
+    <t>Arbeitspaket 6: Anlagenmodell</t>
+  </si>
+  <si>
+    <t>Grundstruktur der Objekte definieren</t>
+  </si>
+  <si>
+    <t>Schnittstellen der Objekte definieren</t>
+  </si>
+  <si>
+    <t>Umsetzung der Objekte</t>
+  </si>
+  <si>
+    <t>Definieren der Anwendungs-Skills</t>
   </si>
 </sst>
 </file>
@@ -651,7 +669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -807,26 +825,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1027,16 +1030,113 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1048,99 +1148,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1170,12 +1177,43 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1364,8 +1402,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8341702" y="3240698"/>
-          <a:ext cx="292698" cy="296792"/>
+          <a:off x="8578068" y="3224139"/>
+          <a:ext cx="312774" cy="302508"/>
           <a:chOff x="8334375" y="3144116"/>
           <a:chExt cx="292698" cy="282804"/>
         </a:xfrm>
@@ -1504,8 +1542,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8886697" y="3244838"/>
-          <a:ext cx="355610" cy="295136"/>
+          <a:off x="9139329" y="3228279"/>
+          <a:ext cx="379496" cy="300852"/>
           <a:chOff x="8307870" y="3144116"/>
           <a:chExt cx="355610" cy="282804"/>
         </a:xfrm>
@@ -1945,23 +1983,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA437"/>
+  <dimension ref="A1:AA447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="1.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="27" width="8.5703125" customWidth="1"/>
+    <col min="1" max="2" width="1.44140625" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="27" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1978,13 +2016,13 @@
       <c r="J1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="72" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="15" t="s">
@@ -2030,7 +2068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2099,12 +2137,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="103" t="s">
+    <row r="3" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
@@ -2178,21 +2216,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105">
+    <row r="4" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="87">
         <v>1</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="27"/>
-      <c r="F4" s="108">
+      <c r="F4" s="90">
         <f>SUM(F6:F17)/6</f>
         <v>100</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="89" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="46"/>
@@ -2216,14 +2254,14 @@
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
     </row>
-    <row r="5" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
+    <row r="5" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="107"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="48"/>
       <c r="I5" s="49"/>
       <c r="J5" s="8"/>
@@ -2245,20 +2283,20 @@
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
     </row>
-    <row r="6" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="73">
+    <row r="6" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="75"/>
+      <c r="B6" s="82">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73" t="s">
+      <c r="C6" s="82"/>
+      <c r="D6" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74">
+      <c r="E6" s="77"/>
+      <c r="F6" s="77">
         <v>100</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="G6" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="61"/>
@@ -2282,14 +2320,14 @@
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
     </row>
-    <row r="7" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="75"/>
+    <row r="7" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="75"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="60"/>
       <c r="I7" s="9"/>
       <c r="J7" s="8"/>
@@ -2311,20 +2349,20 @@
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
     </row>
-    <row r="8" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="73">
+    <row r="8" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="75"/>
+      <c r="B8" s="82">
         <v>1.2</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73" t="s">
+      <c r="C8" s="82"/>
+      <c r="D8" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74">
+      <c r="E8" s="77"/>
+      <c r="F8" s="77">
         <v>100</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="61"/>
@@ -2348,14 +2386,14 @@
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
     </row>
-    <row r="9" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
+    <row r="9" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="75"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="8"/>
       <c r="I9" s="60"/>
       <c r="J9" s="8"/>
@@ -2377,20 +2415,20 @@
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
     </row>
-    <row r="10" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="73">
+    <row r="10" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="75"/>
+      <c r="B10" s="82">
         <v>1.3</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73" t="s">
+      <c r="C10" s="82"/>
+      <c r="D10" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74">
+      <c r="E10" s="77"/>
+      <c r="F10" s="77">
         <v>100</v>
       </c>
-      <c r="G10" s="75" t="s">
+      <c r="G10" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="61"/>
@@ -2414,14 +2452,14 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
     </row>
-    <row r="11" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
+    <row r="11" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="75"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="60"/>
       <c r="I11" s="64"/>
       <c r="J11" s="60"/>
@@ -2443,20 +2481,20 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="73">
+    <row r="12" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="75"/>
+      <c r="B12" s="82">
         <v>1.4</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73" t="s">
+      <c r="C12" s="82"/>
+      <c r="D12" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74">
+      <c r="E12" s="77"/>
+      <c r="F12" s="77">
         <v>100</v>
       </c>
-      <c r="G12" s="75" t="s">
+      <c r="G12" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="32"/>
@@ -2480,14 +2518,14 @@
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
     </row>
-    <row r="13" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
+    <row r="13" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="75"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
       <c r="H13" s="8"/>
       <c r="I13" s="64"/>
       <c r="J13" s="8"/>
@@ -2509,20 +2547,20 @@
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
     </row>
-    <row r="14" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="73">
+    <row r="14" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="75"/>
+      <c r="B14" s="82">
         <v>1.5</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73" t="s">
+      <c r="C14" s="82"/>
+      <c r="D14" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74">
+      <c r="E14" s="77"/>
+      <c r="F14" s="77">
         <v>100</v>
       </c>
-      <c r="G14" s="75" t="s">
+      <c r="G14" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="8"/>
@@ -2546,14 +2584,14 @@
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
     </row>
-    <row r="15" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
+    <row r="15" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="75"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
       <c r="J15" s="60"/>
@@ -2575,20 +2613,20 @@
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
     </row>
-    <row r="16" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="93">
+    <row r="16" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="75"/>
+      <c r="B16" s="91">
         <v>1.6</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="91" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="99">
+      <c r="F16" s="84">
         <v>100</v>
       </c>
-      <c r="G16" s="75" t="s">
+      <c r="G16" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="8"/>
@@ -2612,14 +2650,14 @@
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
     </row>
-    <row r="17" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
+    <row r="17" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="75"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="28"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="75"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="78"/>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
       <c r="J17" s="60"/>
@@ -2641,21 +2679,21 @@
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
     </row>
-    <row r="18" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="101">
+    <row r="18" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="94">
         <v>2</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93" t="s">
         <v>86</v>
       </c>
       <c r="E18" s="37"/>
-      <c r="F18" s="90">
+      <c r="F18" s="96">
         <f>SUM(F20:F25)/3</f>
         <v>100</v>
       </c>
-      <c r="G18" s="89" t="s">
+      <c r="G18" s="95" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="30"/>
@@ -2679,14 +2717,14 @@
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
     </row>
-    <row r="19" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
+    <row r="19" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="94"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="37"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="89"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="95"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
       <c r="J19" s="51"/>
@@ -2708,20 +2746,20 @@
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
     </row>
-    <row r="20" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="B20" s="73">
+    <row r="20" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="75"/>
+      <c r="B20" s="82">
         <v>2.1</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73" t="s">
+      <c r="C20" s="82"/>
+      <c r="D20" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74">
+      <c r="E20" s="77"/>
+      <c r="F20" s="77">
         <v>100</v>
       </c>
-      <c r="G20" s="75" t="s">
+      <c r="G20" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H20" s="32"/>
@@ -2745,14 +2783,14 @@
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
     </row>
-    <row r="21" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="75"/>
+    <row r="21" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="75"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="8"/>
       <c r="I21" s="64"/>
       <c r="J21" s="8"/>
@@ -2774,20 +2812,20 @@
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
     </row>
-    <row r="22" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="73">
+    <row r="22" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="75"/>
+      <c r="B22" s="82">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73" t="s">
+      <c r="C22" s="82"/>
+      <c r="D22" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74">
+      <c r="E22" s="77"/>
+      <c r="F22" s="77">
         <v>100</v>
       </c>
-      <c r="G22" s="75" t="s">
+      <c r="G22" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H22" s="32"/>
@@ -2811,14 +2849,14 @@
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
     </row>
-    <row r="23" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
+    <row r="23" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="75"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="8"/>
       <c r="I23" s="64"/>
       <c r="J23" s="8"/>
@@ -2840,20 +2878,20 @@
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
     </row>
-    <row r="24" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
-      <c r="B24" s="93">
+    <row r="24" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="75"/>
+      <c r="B24" s="91">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93" t="s">
+      <c r="C24" s="91"/>
+      <c r="D24" s="91" t="s">
         <v>94</v>
       </c>
       <c r="E24" s="28"/>
-      <c r="F24" s="99">
+      <c r="F24" s="84">
         <v>100</v>
       </c>
-      <c r="G24" s="75" t="s">
+      <c r="G24" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="8"/>
@@ -2877,14 +2915,14 @@
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
-    <row r="25" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
+    <row r="25" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="75"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="28"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="75"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="8"/>
       <c r="I25" s="9"/>
       <c r="J25" s="60"/>
@@ -2906,21 +2944,21 @@
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
-    <row r="26" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="94">
+    <row r="26" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="99">
         <v>3</v>
       </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95" t="s">
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100" t="s">
         <v>89</v>
       </c>
       <c r="E26" s="54"/>
-      <c r="F26" s="98">
-        <f>SUM(F28,F36,F44,F52,F58,F68,F74)/7</f>
-        <v>52.976190476190482</v>
-      </c>
-      <c r="G26" s="76" t="s">
+      <c r="F26" s="92">
+        <f>SUM(F28,F36,F44,F52,F58,F78,F84,F68)/8</f>
+        <v>54.583333333333336</v>
+      </c>
+      <c r="G26" s="109" t="s">
         <v>38</v>
       </c>
       <c r="H26" s="30"/>
@@ -2944,14 +2982,14 @@
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
     </row>
-    <row r="27" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
+    <row r="27" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="99"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
       <c r="E27" s="54"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="76"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="109"/>
       <c r="H27" s="8"/>
       <c r="I27" s="9"/>
       <c r="J27" s="56"/>
@@ -2973,21 +3011,21 @@
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
     </row>
-    <row r="28" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
-      <c r="B28" s="96">
+    <row r="28" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="75"/>
+      <c r="B28" s="79">
         <v>3.1</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96" t="s">
+      <c r="C28" s="79"/>
+      <c r="D28" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97">
+      <c r="E28" s="80"/>
+      <c r="F28" s="80">
         <f>SUM(F30:F35)/3</f>
-        <v>96.666666666666671</v>
-      </c>
-      <c r="G28" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="81" t="s">
         <v>38</v>
       </c>
       <c r="H28" s="32"/>
@@ -3011,14 +3049,14 @@
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
     </row>
-    <row r="29" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="102"/>
+    <row r="29" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="75"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="81"/>
       <c r="H29" s="8"/>
       <c r="I29" s="9"/>
       <c r="J29" s="44"/>
@@ -3040,20 +3078,20 @@
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
     </row>
-    <row r="30" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="74" t="s">
+    <row r="30" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="75"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74">
+      <c r="E30" s="77"/>
+      <c r="F30" s="77">
         <v>100</v>
       </c>
-      <c r="G30" s="75" t="s">
+      <c r="G30" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H30" s="8"/>
@@ -3077,14 +3115,14 @@
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
     </row>
-    <row r="31" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="75"/>
+    <row r="31" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="75"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="78"/>
       <c r="H31" s="8"/>
       <c r="I31" s="9"/>
       <c r="J31" s="60"/>
@@ -3106,20 +3144,20 @@
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
     </row>
-    <row r="32" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="74" t="s">
+    <row r="32" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="75"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74">
+      <c r="E32" s="77"/>
+      <c r="F32" s="77">
         <v>100</v>
       </c>
-      <c r="G32" s="75" t="s">
+      <c r="G32" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H32" s="8"/>
@@ -3143,14 +3181,14 @@
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
     </row>
-    <row r="33" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="75"/>
+    <row r="33" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="75"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="78"/>
       <c r="H33" s="8"/>
       <c r="I33" s="9"/>
       <c r="J33" s="8"/>
@@ -3172,21 +3210,21 @@
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
     </row>
-    <row r="34" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="74" t="s">
+    <row r="34" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="75"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74">
-        <v>90</v>
-      </c>
-      <c r="G34" s="75" t="s">
-        <v>38</v>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77">
+        <v>100</v>
+      </c>
+      <c r="G34" s="78" t="s">
+        <v>40</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="9"/>
@@ -3209,19 +3247,19 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
     </row>
-    <row r="35" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="75"/>
+    <row r="35" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="75"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="78"/>
       <c r="H35" s="8"/>
       <c r="I35" s="9"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="L35" s="60"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -3238,21 +3276,21 @@
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
     </row>
-    <row r="36" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="96">
+    <row r="36" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="75"/>
+      <c r="B36" s="79">
         <v>3.2</v>
       </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96" t="s">
+      <c r="C36" s="79"/>
+      <c r="D36" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97">
+      <c r="E36" s="80"/>
+      <c r="F36" s="80">
         <f>SUM(F38:F43)/3</f>
         <v>100</v>
       </c>
-      <c r="G36" s="102" t="s">
+      <c r="G36" s="81" t="s">
         <v>40</v>
       </c>
       <c r="H36" s="32"/>
@@ -3276,14 +3314,14 @@
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
     </row>
-    <row r="37" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="79"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="102"/>
+    <row r="37" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="75"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="81"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="44"/>
@@ -3305,20 +3343,20 @@
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
     </row>
-    <row r="38" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="74" t="s">
+    <row r="38" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="75"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="73" t="s">
+      <c r="D38" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74">
+      <c r="E38" s="77"/>
+      <c r="F38" s="77">
         <v>100</v>
       </c>
-      <c r="G38" s="75" t="s">
+      <c r="G38" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H38" s="8"/>
@@ -3342,14 +3380,14 @@
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
     </row>
-    <row r="39" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="79"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="75"/>
+    <row r="39" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="75"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="78"/>
       <c r="H39" s="8"/>
       <c r="I39" s="9"/>
       <c r="J39" s="60"/>
@@ -3371,20 +3409,20 @@
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
     </row>
-    <row r="40" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="74" t="s">
+    <row r="40" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="75"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="73" t="s">
+      <c r="D40" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74">
+      <c r="E40" s="77"/>
+      <c r="F40" s="77">
         <v>100</v>
       </c>
-      <c r="G40" s="75" t="s">
+      <c r="G40" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H40" s="8"/>
@@ -3408,14 +3446,14 @@
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
     </row>
-    <row r="41" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="75"/>
+    <row r="41" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="75"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="78"/>
       <c r="H41" s="8"/>
       <c r="I41" s="9"/>
       <c r="J41" s="60"/>
@@ -3437,20 +3475,20 @@
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
     </row>
-    <row r="42" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="74" t="s">
+    <row r="42" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="75"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="73" t="s">
+      <c r="D42" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74">
+      <c r="E42" s="77"/>
+      <c r="F42" s="77">
         <v>100</v>
       </c>
-      <c r="G42" s="75" t="s">
+      <c r="G42" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H42" s="8"/>
@@ -3474,14 +3512,14 @@
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
     </row>
-    <row r="43" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="75"/>
+    <row r="43" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="75"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="78"/>
       <c r="H43" s="8"/>
       <c r="I43" s="9"/>
       <c r="J43" s="60"/>
@@ -3503,21 +3541,21 @@
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
     </row>
-    <row r="44" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
-      <c r="B44" s="96">
+    <row r="44" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="75"/>
+      <c r="B44" s="79">
         <v>3.3</v>
       </c>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96" t="s">
+      <c r="C44" s="79"/>
+      <c r="D44" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="E44" s="109"/>
-      <c r="F44" s="97">
+      <c r="E44" s="83"/>
+      <c r="F44" s="80">
         <f>SUM(F46:F51)/3</f>
         <v>66.666666666666671</v>
       </c>
-      <c r="G44" s="102" t="s">
+      <c r="G44" s="81" t="s">
         <v>38</v>
       </c>
       <c r="H44" s="32"/>
@@ -3541,14 +3579,14 @@
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
     </row>
-    <row r="45" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="79"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="102"/>
+    <row r="45" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="75"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="81"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -3570,22 +3608,22 @@
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
     </row>
-    <row r="46" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="79"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="74" t="s">
+    <row r="46" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="75"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="73" t="s">
+      <c r="D46" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="74" t="s">
+      <c r="E46" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="74">
+      <c r="F46" s="77">
         <v>100</v>
       </c>
-      <c r="G46" s="75" t="s">
+      <c r="G46" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H46" s="8"/>
@@ -3609,14 +3647,14 @@
       <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
     </row>
-    <row r="47" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="75"/>
+    <row r="47" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="75"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="78"/>
       <c r="H47" s="8"/>
       <c r="I47" s="9"/>
       <c r="J47" s="8"/>
@@ -3638,20 +3676,20 @@
       <c r="Z47" s="8"/>
       <c r="AA47" s="8"/>
     </row>
-    <row r="48" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="79"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="74" t="s">
+    <row r="48" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="75"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="73" t="s">
+      <c r="D48" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74">
+      <c r="E48" s="77"/>
+      <c r="F48" s="77">
         <v>100</v>
       </c>
-      <c r="G48" s="75" t="s">
+      <c r="G48" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H48" s="8"/>
@@ -3675,14 +3713,14 @@
       <c r="Z48" s="8"/>
       <c r="AA48" s="8"/>
     </row>
-    <row r="49" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="75"/>
+    <row r="49" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="75"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="78"/>
       <c r="H49" s="8"/>
       <c r="I49" s="9"/>
       <c r="J49" s="8"/>
@@ -3704,22 +3742,22 @@
       <c r="Z49" s="8"/>
       <c r="AA49" s="8"/>
     </row>
-    <row r="50" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="74" t="s">
+    <row r="50" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="75"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="73" t="s">
+      <c r="D50" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E50" s="74" t="s">
+      <c r="E50" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="F50" s="74">
+      <c r="F50" s="77">
         <v>0</v>
       </c>
-      <c r="G50" s="75" t="s">
+      <c r="G50" s="78" t="s">
         <v>37</v>
       </c>
       <c r="H50" s="8"/>
@@ -3743,14 +3781,14 @@
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
     </row>
-    <row r="51" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="79"/>
-      <c r="B51" s="80"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="75"/>
+    <row r="51" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="75"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="78"/>
       <c r="H51" s="8"/>
       <c r="I51" s="9"/>
       <c r="J51" s="8"/>
@@ -3772,21 +3810,21 @@
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
     </row>
-    <row r="52" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="79"/>
-      <c r="B52" s="96">
+    <row r="52" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="75"/>
+      <c r="B52" s="79">
         <v>3.4</v>
       </c>
-      <c r="C52" s="96"/>
-      <c r="D52" s="96" t="s">
+      <c r="C52" s="79"/>
+      <c r="D52" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="E52" s="97"/>
-      <c r="F52" s="97">
+      <c r="E52" s="80"/>
+      <c r="F52" s="80">
         <f>SUM(F54:F57)/2</f>
         <v>90</v>
       </c>
-      <c r="G52" s="102" t="s">
+      <c r="G52" s="81" t="s">
         <v>38</v>
       </c>
       <c r="H52" s="32"/>
@@ -3809,14 +3847,14 @@
       <c r="Z52" s="8"/>
       <c r="AA52" s="8"/>
     </row>
-    <row r="53" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="79"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="96"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="102"/>
+    <row r="53" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="75"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="81"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -3837,22 +3875,22 @@
       <c r="Z53" s="8"/>
       <c r="AA53" s="8"/>
     </row>
-    <row r="54" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="79"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="74" t="s">
+    <row r="54" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="75"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="73" t="s">
+      <c r="D54" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="74" t="s">
+      <c r="E54" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="74">
+      <c r="F54" s="77">
         <v>100</v>
       </c>
-      <c r="G54" s="75" t="s">
+      <c r="G54" s="78" t="s">
         <v>40</v>
       </c>
       <c r="H54" s="8"/>
@@ -3875,14 +3913,14 @@
       <c r="Z54" s="8"/>
       <c r="AA54" s="8"/>
     </row>
-    <row r="55" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="79"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+    <row r="55" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="75"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="78"/>
       <c r="H55" s="8"/>
       <c r="I55" s="9"/>
       <c r="J55" s="8"/>
@@ -3904,20 +3942,20 @@
       <c r="Z55" s="8"/>
       <c r="AA55" s="8"/>
     </row>
-    <row r="56" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="79"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="74" t="s">
+    <row r="56" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="75"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="73" t="s">
+      <c r="D56" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74">
+      <c r="E56" s="77"/>
+      <c r="F56" s="77">
         <v>80</v>
       </c>
-      <c r="G56" s="75" t="s">
+      <c r="G56" s="78" t="s">
         <v>38</v>
       </c>
       <c r="H56" s="8"/>
@@ -3941,14 +3979,14 @@
       <c r="Z56" s="8"/>
       <c r="AA56" s="8"/>
     </row>
-    <row r="57" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="79"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="75"/>
+    <row r="57" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="75"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="78"/>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
       <c r="J57" s="8"/>
@@ -3970,34 +4008,33 @@
       <c r="Z57" s="8"/>
       <c r="AA57" s="8"/>
     </row>
-    <row r="58" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="79"/>
-      <c r="B58" s="96">
+    <row r="58" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="75"/>
+      <c r="B58" s="79">
         <v>3.5</v>
       </c>
-      <c r="C58" s="96"/>
-      <c r="D58" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97">
-        <f>SUM(F60:F63)/4</f>
-        <v>17.5</v>
-      </c>
-      <c r="G58" s="102" t="s">
-        <v>37</v>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80">
+        <f>SUM(F60:F67)/4</f>
+        <v>80</v>
+      </c>
+      <c r="G58" s="81" t="s">
+        <v>38</v>
       </c>
       <c r="H58" s="32"/>
       <c r="I58" s="33"/>
       <c r="J58" s="32"/>
       <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
       <c r="M58" s="44"/>
       <c r="N58" s="44"/>
       <c r="O58" s="44"/>
       <c r="P58" s="44"/>
       <c r="Q58" s="52"/>
-      <c r="R58" s="44"/>
+      <c r="R58" s="8"/>
       <c r="S58" s="8"/>
       <c r="T58" s="8"/>
       <c r="U58" s="8"/>
@@ -4008,25 +4045,24 @@
       <c r="Z58" s="8"/>
       <c r="AA58" s="8"/>
     </row>
-    <row r="59" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="79"/>
-      <c r="B59" s="96"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="97"/>
-      <c r="F59" s="97"/>
-      <c r="G59" s="102"/>
+    <row r="59" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="75"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="81"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
       <c r="M59" s="44"/>
       <c r="N59" s="44"/>
       <c r="O59" s="44"/>
       <c r="P59" s="44"/>
       <c r="Q59" s="52"/>
-      <c r="R59" s="44"/>
+      <c r="R59" s="8"/>
       <c r="S59" s="8"/>
       <c r="T59" s="8"/>
       <c r="U59" s="8"/>
@@ -4037,27 +4073,26 @@
       <c r="Z59" s="8"/>
       <c r="AA59" s="8"/>
     </row>
-    <row r="60" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="79"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="74" t="s">
+    <row r="60" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="75"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74">
-        <v>70</v>
-      </c>
-      <c r="G60" s="75" t="s">
-        <v>38</v>
+      <c r="D60" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77">
+        <v>100</v>
+      </c>
+      <c r="G60" s="78" t="s">
+        <v>40</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="9"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
       <c r="M60" s="53"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
@@ -4074,19 +4109,19 @@
       <c r="Z60" s="8"/>
       <c r="AA60" s="8"/>
     </row>
-    <row r="61" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="79"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="75"/>
+    <row r="61" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="75"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="78"/>
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
+      <c r="L61" s="74"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
@@ -4103,27 +4138,26 @@
       <c r="Z61" s="8"/>
       <c r="AA61" s="8"/>
     </row>
-    <row r="62" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="79"/>
-      <c r="B62" s="80"/>
-      <c r="C62" s="74" t="s">
+    <row r="62" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="75"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74">
-        <v>0</v>
-      </c>
-      <c r="G62" s="75" t="s">
-        <v>37</v>
+      <c r="D62" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77">
+        <v>100</v>
+      </c>
+      <c r="G62" s="78" t="s">
+        <v>40</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="9"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
       <c r="M62" s="8"/>
       <c r="N62" s="53"/>
       <c r="O62" s="8"/>
@@ -4140,20 +4174,20 @@
       <c r="Z62" s="8"/>
       <c r="AA62" s="8"/>
     </row>
-    <row r="63" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="79"/>
-      <c r="B63" s="80"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="75"/>
+    <row r="63" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="75"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="78"/>
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
+      <c r="L63" s="74"/>
+      <c r="M63" s="60"/>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
@@ -4169,27 +4203,26 @@
       <c r="Z63" s="8"/>
       <c r="AA63" s="8"/>
     </row>
-    <row r="64" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="79"/>
-      <c r="B64" s="80"/>
-      <c r="C64" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="D64" s="73" t="s">
+    <row r="64" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="75"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74">
-        <v>0</v>
-      </c>
-      <c r="G64" s="75" t="s">
-        <v>37</v>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77">
+        <v>100</v>
+      </c>
+      <c r="G64" s="78" t="s">
+        <v>40</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="9"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
       <c r="M64" s="8"/>
       <c r="N64" s="53"/>
       <c r="O64" s="8"/>
@@ -4206,20 +4239,20 @@
       <c r="Z64" s="8"/>
       <c r="AA64" s="8"/>
     </row>
-    <row r="65" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="79"/>
-      <c r="B65" s="80"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="75"/>
+    <row r="65" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="75"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="78"/>
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
+      <c r="L65" s="74"/>
+      <c r="M65" s="60"/>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
@@ -4235,33 +4268,32 @@
       <c r="Z65" s="8"/>
       <c r="AA65" s="8"/>
     </row>
-    <row r="66" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="79"/>
-      <c r="B66" s="80"/>
-      <c r="C66" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" s="73" t="s">
+    <row r="66" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="75"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74">
-        <v>0</v>
-      </c>
-      <c r="G66" s="75" t="s">
+      <c r="E66" s="77"/>
+      <c r="F66" s="77">
+        <v>20</v>
+      </c>
+      <c r="G66" s="78" t="s">
         <v>37</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="9"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="53"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="69"/>
       <c r="P66" s="53"/>
       <c r="Q66" s="69"/>
-      <c r="R66" s="53"/>
+      <c r="R66" s="122"/>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
@@ -4272,14 +4304,14 @@
       <c r="Z66" s="8"/>
       <c r="AA66" s="8"/>
     </row>
-    <row r="67" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="79"/>
-      <c r="B67" s="80"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="75"/>
+    <row r="67" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="75"/>
+      <c r="B67" s="76"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="78"/>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
       <c r="J67" s="8"/>
@@ -4301,21 +4333,21 @@
       <c r="Z67" s="8"/>
       <c r="AA67" s="8"/>
     </row>
-    <row r="68" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="79"/>
-      <c r="B68" s="96">
+    <row r="68" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="75"/>
+      <c r="B68" s="79">
         <v>3.6</v>
       </c>
-      <c r="C68" s="96"/>
-      <c r="D68" s="96" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" s="97"/>
-      <c r="F68" s="97">
-        <f>SUM(F70:F73)/3</f>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68" s="80"/>
+      <c r="F68" s="80">
+        <f>SUM(F70:F77)/4</f>
         <v>0</v>
       </c>
-      <c r="G68" s="102" t="s">
+      <c r="G68" s="81" t="s">
         <v>37</v>
       </c>
       <c r="H68" s="32"/>
@@ -4323,14 +4355,14 @@
       <c r="J68" s="32"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="52"/>
       <c r="O68" s="44"/>
       <c r="P68" s="44"/>
-      <c r="Q68" s="52"/>
-      <c r="R68" s="44"/>
-      <c r="S68" s="44"/>
-      <c r="T68" s="44"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
       <c r="U68" s="8"/>
       <c r="V68" s="39"/>
       <c r="W68" s="39"/>
@@ -4339,27 +4371,27 @@
       <c r="Z68" s="8"/>
       <c r="AA68" s="8"/>
     </row>
-    <row r="69" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="79"/>
-      <c r="B69" s="96"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="96"/>
-      <c r="E69" s="97"/>
-      <c r="F69" s="97"/>
-      <c r="G69" s="102"/>
+    <row r="69" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="75"/>
+      <c r="B69" s="79"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="81"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="52"/>
       <c r="O69" s="44"/>
       <c r="P69" s="44"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="44"/>
-      <c r="S69" s="44"/>
-      <c r="T69" s="44"/>
+      <c r="Q69" s="44"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
       <c r="U69" s="8"/>
       <c r="V69" s="39"/>
       <c r="W69" s="39"/>
@@ -4368,18 +4400,20 @@
       <c r="Z69" s="8"/>
       <c r="AA69" s="8"/>
     </row>
-    <row r="70" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="79"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="74" t="s">
+    <row r="70" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="75"/>
+      <c r="B70" s="76"/>
+      <c r="C70" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74">
+      <c r="D70" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77">
         <v>0</v>
       </c>
-      <c r="G70" s="75" t="s">
+      <c r="G70" s="78" t="s">
         <v>37</v>
       </c>
       <c r="H70" s="8"/>
@@ -4387,7 +4421,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
+      <c r="M70" s="53"/>
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
@@ -4403,14 +4437,14 @@
       <c r="Z70" s="8"/>
       <c r="AA70" s="8"/>
     </row>
-    <row r="71" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="79"/>
-      <c r="B71" s="80"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="75"/>
+    <row r="71" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="75"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="78"/>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
       <c r="J71" s="8"/>
@@ -4432,18 +4466,20 @@
       <c r="Z71" s="8"/>
       <c r="AA71" s="8"/>
     </row>
-    <row r="72" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="79"/>
-      <c r="B72" s="80"/>
-      <c r="C72" s="74" t="s">
+    <row r="72" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="75"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74">
+      <c r="D72" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77">
         <v>0</v>
       </c>
-      <c r="G72" s="75" t="s">
+      <c r="G72" s="78" t="s">
         <v>37</v>
       </c>
       <c r="H72" s="8"/>
@@ -4451,8 +4487,8 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="53"/>
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
       <c r="Q72" s="9"/>
@@ -4467,14 +4503,14 @@
       <c r="Z72" s="8"/>
       <c r="AA72" s="8"/>
     </row>
-    <row r="73" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="79"/>
-      <c r="B73" s="80"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="75"/>
+    <row r="73" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="75"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="78"/>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
       <c r="J73" s="8"/>
@@ -4496,33 +4532,32 @@
       <c r="Z73" s="8"/>
       <c r="AA73" s="8"/>
     </row>
-    <row r="74" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="79"/>
-      <c r="B74" s="96">
-        <v>3.7</v>
-      </c>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="E74" s="97"/>
-      <c r="F74" s="97">
-        <f>SUM(F76:F79)/3</f>
+    <row r="74" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="75"/>
+      <c r="B74" s="76"/>
+      <c r="C74" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="77"/>
+      <c r="F74" s="77">
         <v>0</v>
       </c>
-      <c r="G74" s="102" t="s">
+      <c r="G74" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H74" s="32"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="32"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="9"/>
+      <c r="N74" s="53"/>
+      <c r="O74" s="53"/>
+      <c r="P74" s="53"/>
+      <c r="Q74" s="69"/>
       <c r="R74" s="8"/>
       <c r="S74" s="8"/>
       <c r="T74" s="8"/>
@@ -4534,16 +4569,16 @@
       <c r="Z74" s="8"/>
       <c r="AA74" s="8"/>
     </row>
-    <row r="75" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="79"/>
-      <c r="B75" s="96"/>
-      <c r="C75" s="96"/>
-      <c r="D75" s="96"/>
-      <c r="E75" s="97"/>
-      <c r="F75" s="97"/>
-      <c r="G75" s="102"/>
+    <row r="75" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="75"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="78"/>
       <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
+      <c r="I75" s="9"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
@@ -4563,18 +4598,18 @@
       <c r="Z75" s="8"/>
       <c r="AA75" s="8"/>
     </row>
-    <row r="76" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="79"/>
-      <c r="B76" s="80"/>
-      <c r="C76" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74">
+    <row r="76" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="75"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="82"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77">
         <v>0</v>
       </c>
-      <c r="G76" s="75" t="s">
+      <c r="G76" s="78" t="s">
         <v>37</v>
       </c>
       <c r="H76" s="8"/>
@@ -4598,14 +4633,14 @@
       <c r="Z76" s="8"/>
       <c r="AA76" s="8"/>
     </row>
-    <row r="77" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="79"/>
-      <c r="B77" s="80"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="75"/>
+    <row r="77" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="75"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="82"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="78"/>
       <c r="H77" s="8"/>
       <c r="I77" s="9"/>
       <c r="J77" s="8"/>
@@ -4627,33 +4662,36 @@
       <c r="Z77" s="8"/>
       <c r="AA77" s="8"/>
     </row>
-    <row r="78" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="79"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74">
+    <row r="78" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="75"/>
+      <c r="B78" s="79">
+        <v>3.7</v>
+      </c>
+      <c r="C78" s="79"/>
+      <c r="D78" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="80"/>
+      <c r="F78" s="80">
+        <f>SUM(F80:F83)/2</f>
         <v>0</v>
       </c>
-      <c r="G78" s="75" t="s">
+      <c r="G78" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="H78" s="8"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="8"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="32"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
+      <c r="O78" s="44"/>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="52"/>
+      <c r="R78" s="44"/>
+      <c r="S78" s="44"/>
+      <c r="T78" s="44"/>
       <c r="U78" s="8"/>
       <c r="V78" s="39"/>
       <c r="W78" s="39"/>
@@ -4662,27 +4700,27 @@
       <c r="Z78" s="8"/>
       <c r="AA78" s="8"/>
     </row>
-    <row r="79" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="79"/>
-      <c r="B79" s="80"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="75"/>
+    <row r="79" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="75"/>
+      <c r="B79" s="79"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="80"/>
+      <c r="G79" s="81"/>
       <c r="H79" s="8"/>
-      <c r="I79" s="9"/>
+      <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
+      <c r="O79" s="44"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="52"/>
+      <c r="R79" s="44"/>
+      <c r="S79" s="44"/>
+      <c r="T79" s="44"/>
       <c r="U79" s="8"/>
       <c r="V79" s="39"/>
       <c r="W79" s="39"/>
@@ -4691,20 +4729,18 @@
       <c r="Z79" s="8"/>
       <c r="AA79" s="8"/>
     </row>
-    <row r="80" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="79"/>
-      <c r="B80" s="93">
-        <v>3.8</v>
-      </c>
-      <c r="C80" s="93"/>
-      <c r="D80" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="E80" s="28"/>
-      <c r="F80" s="99">
+    <row r="80" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="75"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="77">
         <v>0</v>
       </c>
-      <c r="G80" s="75" t="s">
+      <c r="G80" s="78" t="s">
         <v>37</v>
       </c>
       <c r="H80" s="8"/>
@@ -4728,14 +4764,14 @@
       <c r="Z80" s="8"/>
       <c r="AA80" s="8"/>
     </row>
-    <row r="81" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="79"/>
-      <c r="B81" s="93"/>
-      <c r="C81" s="93"/>
-      <c r="D81" s="93"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="99"/>
-      <c r="G81" s="75"/>
+    <row r="81" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="75"/>
+      <c r="B81" s="76"/>
+      <c r="C81" s="77"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="77"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="78"/>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
       <c r="J81" s="8"/>
@@ -4757,26 +4793,23 @@
       <c r="Z81" s="8"/>
       <c r="AA81" s="8"/>
     </row>
-    <row r="82" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="91">
-        <v>4</v>
-      </c>
-      <c r="B82" s="92"/>
-      <c r="C82" s="92"/>
-      <c r="D82" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="E82" s="38"/>
+    <row r="82" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="75"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
       <c r="F82" s="77">
-        <f>SUM(F84:F89)/6</f>
         <v>0</v>
       </c>
       <c r="G82" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H82" s="30"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="30"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
@@ -4791,16 +4824,16 @@
       <c r="V82" s="39"/>
       <c r="W82" s="39"/>
       <c r="X82" s="8"/>
-      <c r="Y82" s="43"/>
+      <c r="Y82" s="9"/>
       <c r="Z82" s="8"/>
       <c r="AA82" s="8"/>
     </row>
-    <row r="83" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="91"/>
-      <c r="B83" s="92"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="38"/>
+    <row r="83" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="75"/>
+      <c r="B83" s="76"/>
+      <c r="C83" s="77"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="77"/>
       <c r="F83" s="77"/>
       <c r="G83" s="78"/>
       <c r="H83" s="8"/>
@@ -4820,29 +4853,30 @@
       <c r="V83" s="39"/>
       <c r="W83" s="39"/>
       <c r="X83" s="8"/>
-      <c r="Y83" s="43"/>
+      <c r="Y83" s="9"/>
       <c r="Z83" s="8"/>
       <c r="AA83" s="8"/>
     </row>
-    <row r="84" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="79"/>
-      <c r="B84" s="73">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C84" s="73"/>
-      <c r="D84" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" s="74"/>
-      <c r="F84" s="74">
+    <row r="84" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="75"/>
+      <c r="B84" s="79">
+        <v>3.8</v>
+      </c>
+      <c r="C84" s="79"/>
+      <c r="D84" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="E84" s="80"/>
+      <c r="F84" s="80">
+        <f>SUM(F86:F89)/3</f>
         <v>0</v>
       </c>
-      <c r="G84" s="75" t="s">
+      <c r="G84" s="81" t="s">
         <v>37</v>
       </c>
       <c r="H84" s="32"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="8"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="32"/>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
@@ -4861,16 +4895,16 @@
       <c r="Z84" s="8"/>
       <c r="AA84" s="8"/>
     </row>
-    <row r="85" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="79"/>
-      <c r="B85" s="73"/>
-      <c r="C85" s="73"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="74"/>
-      <c r="G85" s="75"/>
+    <row r="85" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="75"/>
+      <c r="B85" s="79"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="80"/>
+      <c r="F85" s="80"/>
+      <c r="G85" s="81"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="9"/>
+      <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
@@ -4890,25 +4924,23 @@
       <c r="Z85" s="8"/>
       <c r="AA85" s="8"/>
     </row>
-    <row r="86" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="79"/>
-      <c r="B86" s="73">
-        <v>4.2</v>
-      </c>
-      <c r="C86" s="73"/>
-      <c r="D86" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="74"/>
-      <c r="F86" s="74">
+    <row r="86" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="75"/>
+      <c r="B86" s="76"/>
+      <c r="C86" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" s="77"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77">
         <v>0</v>
       </c>
-      <c r="G86" s="75" t="s">
+      <c r="G86" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H86" s="32"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="32"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
@@ -4927,16 +4959,16 @@
       <c r="Z86" s="8"/>
       <c r="AA86" s="8"/>
     </row>
-    <row r="87" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="79"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="73"/>
-      <c r="D87" s="73"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="74"/>
-      <c r="G87" s="75"/>
+    <row r="87" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="75"/>
+      <c r="B87" s="76"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="78"/>
       <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
+      <c r="I87" s="9"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
@@ -4956,25 +4988,23 @@
       <c r="Z87" s="8"/>
       <c r="AA87" s="8"/>
     </row>
-    <row r="88" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="79"/>
-      <c r="B88" s="73">
-        <v>4.3</v>
-      </c>
-      <c r="C88" s="73"/>
-      <c r="D88" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="E88" s="74"/>
-      <c r="F88" s="74">
+    <row r="88" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="75"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77">
         <v>0</v>
       </c>
-      <c r="G88" s="75" t="s">
+      <c r="G88" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H88" s="32"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="32"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
@@ -4993,14 +5023,14 @@
       <c r="Z88" s="8"/>
       <c r="AA88" s="8"/>
     </row>
-    <row r="89" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="79"/>
-      <c r="B89" s="73"/>
-      <c r="C89" s="73"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="75"/>
+    <row r="89" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="75"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="78"/>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
       <c r="J89" s="8"/>
@@ -5022,21 +5052,20 @@
       <c r="Z89" s="8"/>
       <c r="AA89" s="8"/>
     </row>
-    <row r="90" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="83">
-        <v>5</v>
-      </c>
-      <c r="B90" s="84"/>
-      <c r="C90" s="84"/>
-      <c r="D90" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="E90" s="29"/>
-      <c r="F90" s="85">
-        <f>SUM(F94:F101)/4</f>
+    <row r="90" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="75"/>
+      <c r="B90" s="91">
+        <v>3.8</v>
+      </c>
+      <c r="C90" s="91"/>
+      <c r="D90" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="E90" s="28"/>
+      <c r="F90" s="84">
         <v>0</v>
       </c>
-      <c r="G90" s="82" t="s">
+      <c r="G90" s="78" t="s">
         <v>37</v>
       </c>
       <c r="H90" s="8"/>
@@ -5060,14 +5089,14 @@
       <c r="Z90" s="8"/>
       <c r="AA90" s="8"/>
     </row>
-    <row r="91" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="83"/>
-      <c r="B91" s="84"/>
-      <c r="C91" s="84"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="82"/>
+    <row r="91" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="75"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="84"/>
+      <c r="G91" s="78"/>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
       <c r="J91" s="8"/>
@@ -5089,25 +5118,26 @@
       <c r="Z91" s="8"/>
       <c r="AA91" s="8"/>
     </row>
-    <row r="92" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="79"/>
-      <c r="B92" s="73">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C92" s="73"/>
-      <c r="D92" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="E92" s="74"/>
-      <c r="F92" s="74">
+    <row r="92" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="97">
+        <v>4</v>
+      </c>
+      <c r="B92" s="98"/>
+      <c r="C92" s="98"/>
+      <c r="D92" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="E92" s="38"/>
+      <c r="F92" s="110">
+        <f>SUM(F94:F99)/6</f>
         <v>0</v>
       </c>
-      <c r="G92" s="75" t="s">
+      <c r="G92" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="H92" s="34"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="8"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="30"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
@@ -5122,18 +5152,18 @@
       <c r="V92" s="39"/>
       <c r="W92" s="39"/>
       <c r="X92" s="8"/>
-      <c r="Y92" s="9"/>
+      <c r="Y92" s="43"/>
       <c r="Z92" s="8"/>
       <c r="AA92" s="8"/>
     </row>
-    <row r="93" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="79"/>
-      <c r="B93" s="73"/>
-      <c r="C93" s="73"/>
-      <c r="D93" s="73"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="74"/>
-      <c r="G93" s="75"/>
+    <row r="93" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="97"/>
+      <c r="B93" s="98"/>
+      <c r="C93" s="98"/>
+      <c r="D93" s="98"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="110"/>
+      <c r="G93" s="111"/>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
       <c r="J93" s="8"/>
@@ -5151,27 +5181,27 @@
       <c r="V93" s="39"/>
       <c r="W93" s="39"/>
       <c r="X93" s="8"/>
-      <c r="Y93" s="9"/>
+      <c r="Y93" s="43"/>
       <c r="Z93" s="8"/>
       <c r="AA93" s="8"/>
     </row>
-    <row r="94" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="79"/>
-      <c r="B94" s="73">
-        <v>5.2</v>
-      </c>
-      <c r="C94" s="73"/>
-      <c r="D94" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="E94" s="74"/>
-      <c r="F94" s="74">
+    <row r="94" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="75"/>
+      <c r="B94" s="82">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C94" s="82"/>
+      <c r="D94" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E94" s="77"/>
+      <c r="F94" s="77">
         <v>0</v>
       </c>
-      <c r="G94" s="75" t="s">
+      <c r="G94" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H94" s="8"/>
+      <c r="H94" s="32"/>
       <c r="I94" s="9"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -5192,14 +5222,14 @@
       <c r="Z94" s="8"/>
       <c r="AA94" s="8"/>
     </row>
-    <row r="95" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="79"/>
-      <c r="B95" s="73"/>
-      <c r="C95" s="73"/>
-      <c r="D95" s="73"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="75"/>
+    <row r="95" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="75"/>
+      <c r="B95" s="82"/>
+      <c r="C95" s="82"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="77"/>
+      <c r="G95" s="78"/>
       <c r="H95" s="8"/>
       <c r="I95" s="9"/>
       <c r="J95" s="8"/>
@@ -5221,25 +5251,25 @@
       <c r="Z95" s="8"/>
       <c r="AA95" s="8"/>
     </row>
-    <row r="96" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="79"/>
-      <c r="B96" s="73">
-        <v>5.3</v>
-      </c>
-      <c r="C96" s="73"/>
-      <c r="D96" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74">
+    <row r="96" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="75"/>
+      <c r="B96" s="82">
+        <v>4.2</v>
+      </c>
+      <c r="C96" s="82"/>
+      <c r="D96" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77">
         <v>0</v>
       </c>
-      <c r="G96" s="75" t="s">
+      <c r="G96" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H96" s="8"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="8"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="32"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
@@ -5258,16 +5288,16 @@
       <c r="Z96" s="8"/>
       <c r="AA96" s="8"/>
     </row>
-    <row r="97" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="79"/>
-      <c r="B97" s="73"/>
-      <c r="C97" s="73"/>
-      <c r="D97" s="73"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="74"/>
-      <c r="G97" s="75"/>
+    <row r="97" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="75"/>
+      <c r="B97" s="82"/>
+      <c r="C97" s="82"/>
+      <c r="D97" s="82"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="78"/>
       <c r="H97" s="8"/>
-      <c r="I97" s="9"/>
+      <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
@@ -5287,25 +5317,25 @@
       <c r="Z97" s="8"/>
       <c r="AA97" s="8"/>
     </row>
-    <row r="98" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="79"/>
-      <c r="B98" s="73">
-        <v>5.4</v>
-      </c>
-      <c r="C98" s="73"/>
-      <c r="D98" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="E98" s="74"/>
-      <c r="F98" s="74">
+    <row r="98" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="75"/>
+      <c r="B98" s="82">
+        <v>4.3</v>
+      </c>
+      <c r="C98" s="82"/>
+      <c r="D98" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" s="77"/>
+      <c r="F98" s="77">
         <v>0</v>
       </c>
-      <c r="G98" s="75" t="s">
+      <c r="G98" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H98" s="8"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="8"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="32"/>
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
       <c r="M98" s="8"/>
@@ -5320,18 +5350,18 @@
       <c r="V98" s="39"/>
       <c r="W98" s="39"/>
       <c r="X98" s="8"/>
-      <c r="Y98" s="35"/>
+      <c r="Y98" s="9"/>
       <c r="Z98" s="8"/>
       <c r="AA98" s="8"/>
     </row>
-    <row r="99" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="79"/>
-      <c r="B99" s="73"/>
-      <c r="C99" s="73"/>
-      <c r="D99" s="73"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="74"/>
-      <c r="G99" s="75"/>
+    <row r="99" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="75"/>
+      <c r="B99" s="82"/>
+      <c r="C99" s="82"/>
+      <c r="D99" s="82"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="78"/>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
       <c r="J99" s="8"/>
@@ -5353,20 +5383,21 @@
       <c r="Z99" s="8"/>
       <c r="AA99" s="8"/>
     </row>
-    <row r="100" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="79"/>
-      <c r="B100" s="73">
-        <v>5.5</v>
-      </c>
-      <c r="C100" s="73"/>
-      <c r="D100" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74">
+    <row r="100" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="103">
+        <v>5</v>
+      </c>
+      <c r="B100" s="104"/>
+      <c r="C100" s="104"/>
+      <c r="D100" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" s="29"/>
+      <c r="F100" s="105">
+        <f>SUM(F104:F111)/4</f>
         <v>0</v>
       </c>
-      <c r="G100" s="75" t="s">
+      <c r="G100" s="102" t="s">
         <v>37</v>
       </c>
       <c r="H100" s="8"/>
@@ -5388,1734 +5419,2087 @@
       <c r="X100" s="8"/>
       <c r="Y100" s="9"/>
       <c r="Z100" s="8"/>
-      <c r="AA100" s="34"/>
-    </row>
-    <row r="101" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="86"/>
-      <c r="B101" s="87"/>
-      <c r="C101" s="87"/>
-      <c r="D101" s="87"/>
-      <c r="E101" s="81"/>
-      <c r="F101" s="81"/>
-      <c r="G101" s="88"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="19"/>
-      <c r="M101" s="19"/>
-      <c r="N101" s="19"/>
-      <c r="O101" s="19"/>
-      <c r="P101" s="19"/>
-      <c r="Q101" s="20"/>
-      <c r="R101" s="19"/>
-      <c r="S101" s="19"/>
-      <c r="T101" s="19"/>
-      <c r="U101" s="19"/>
-      <c r="V101" s="40"/>
-      <c r="W101" s="40"/>
-      <c r="X101" s="19"/>
-      <c r="Y101" s="20"/>
-      <c r="Z101" s="19"/>
-      <c r="AA101" s="19"/>
-    </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-    </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-    </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA100" s="8"/>
+    </row>
+    <row r="101" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="103"/>
+      <c r="B101" s="104"/>
+      <c r="C101" s="104"/>
+      <c r="D101" s="104"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="105"/>
+      <c r="G101" s="102"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="8"/>
+      <c r="S101" s="8"/>
+      <c r="T101" s="8"/>
+      <c r="U101" s="8"/>
+      <c r="V101" s="39"/>
+      <c r="W101" s="39"/>
+      <c r="X101" s="8"/>
+      <c r="Y101" s="9"/>
+      <c r="Z101" s="8"/>
+      <c r="AA101" s="8"/>
+    </row>
+    <row r="102" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="75"/>
+      <c r="B102" s="82">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C102" s="82"/>
+      <c r="D102" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77">
+        <v>0</v>
+      </c>
+      <c r="G102" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H102" s="34"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+      <c r="V102" s="39"/>
+      <c r="W102" s="39"/>
+      <c r="X102" s="8"/>
+      <c r="Y102" s="9"/>
+      <c r="Z102" s="8"/>
+      <c r="AA102" s="8"/>
+    </row>
+    <row r="103" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="75"/>
+      <c r="B103" s="82"/>
+      <c r="C103" s="82"/>
+      <c r="D103" s="82"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="78"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="8"/>
+      <c r="T103" s="8"/>
+      <c r="U103" s="8"/>
+      <c r="V103" s="39"/>
+      <c r="W103" s="39"/>
+      <c r="X103" s="8"/>
+      <c r="Y103" s="9"/>
+      <c r="Z103" s="8"/>
+      <c r="AA103" s="8"/>
+    </row>
+    <row r="104" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="75"/>
+      <c r="B104" s="82">
+        <v>5.2</v>
+      </c>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77">
+        <v>0</v>
+      </c>
+      <c r="G104" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H104" s="8"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="8"/>
+      <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="8"/>
+      <c r="V104" s="39"/>
+      <c r="W104" s="39"/>
+      <c r="X104" s="8"/>
+      <c r="Y104" s="9"/>
+      <c r="Z104" s="8"/>
+      <c r="AA104" s="8"/>
+    </row>
+    <row r="105" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="75"/>
+      <c r="B105" s="82"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="78"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="8"/>
+      <c r="S105" s="8"/>
+      <c r="T105" s="8"/>
+      <c r="U105" s="8"/>
+      <c r="V105" s="39"/>
+      <c r="W105" s="39"/>
+      <c r="X105" s="8"/>
+      <c r="Y105" s="9"/>
+      <c r="Z105" s="8"/>
+      <c r="AA105" s="8"/>
+    </row>
+    <row r="106" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="75"/>
+      <c r="B106" s="82">
+        <v>5.3</v>
+      </c>
+      <c r="C106" s="82"/>
+      <c r="D106" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77">
+        <v>0</v>
+      </c>
+      <c r="G106" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" s="8"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="8"/>
+      <c r="S106" s="8"/>
+      <c r="T106" s="8"/>
+      <c r="U106" s="8"/>
+      <c r="V106" s="39"/>
+      <c r="W106" s="39"/>
+      <c r="X106" s="8"/>
+      <c r="Y106" s="9"/>
+      <c r="Z106" s="8"/>
+      <c r="AA106" s="8"/>
+    </row>
+    <row r="107" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="75"/>
+      <c r="B107" s="82"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="78"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="8"/>
+      <c r="S107" s="8"/>
+      <c r="T107" s="8"/>
+      <c r="U107" s="8"/>
+      <c r="V107" s="39"/>
+      <c r="W107" s="39"/>
+      <c r="X107" s="8"/>
+      <c r="Y107" s="9"/>
+      <c r="Z107" s="8"/>
+      <c r="AA107" s="8"/>
+    </row>
+    <row r="108" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="75"/>
+      <c r="B108" s="82">
+        <v>5.4</v>
+      </c>
+      <c r="C108" s="82"/>
+      <c r="D108" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77">
+        <v>0</v>
+      </c>
+      <c r="G108" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H108" s="8"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="8"/>
+      <c r="S108" s="8"/>
+      <c r="T108" s="8"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="39"/>
+      <c r="W108" s="39"/>
+      <c r="X108" s="8"/>
+      <c r="Y108" s="35"/>
+      <c r="Z108" s="8"/>
+      <c r="AA108" s="8"/>
+    </row>
+    <row r="109" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="75"/>
+      <c r="B109" s="82"/>
+      <c r="C109" s="82"/>
+      <c r="D109" s="82"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="78"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="39"/>
+      <c r="W109" s="39"/>
+      <c r="X109" s="8"/>
+      <c r="Y109" s="9"/>
+      <c r="Z109" s="8"/>
+      <c r="AA109" s="8"/>
+    </row>
+    <row r="110" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="75"/>
+      <c r="B110" s="82">
+        <v>5.5</v>
+      </c>
+      <c r="C110" s="82"/>
+      <c r="D110" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77">
+        <v>0</v>
+      </c>
+      <c r="G110" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H110" s="8"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
+      <c r="U110" s="8"/>
+      <c r="V110" s="39"/>
+      <c r="W110" s="39"/>
+      <c r="X110" s="8"/>
+      <c r="Y110" s="9"/>
+      <c r="Z110" s="8"/>
+      <c r="AA110" s="34"/>
+    </row>
+    <row r="111" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="106"/>
+      <c r="B111" s="107"/>
+      <c r="C111" s="107"/>
+      <c r="D111" s="107"/>
+      <c r="E111" s="101"/>
+      <c r="F111" s="101"/>
+      <c r="G111" s="108"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="19"/>
+      <c r="M111" s="19"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="19"/>
+      <c r="P111" s="19"/>
+      <c r="Q111" s="20"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="19"/>
+      <c r="T111" s="19"/>
+      <c r="U111" s="19"/>
+      <c r="V111" s="40"/>
+      <c r="W111" s="40"/>
+      <c r="X111" s="19"/>
+      <c r="Y111" s="20"/>
+      <c r="Z111" s="19"/>
+      <c r="AA111" s="19"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="36"/>
+      <c r="E117" s="36"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
     </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" s="1"/>
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" s="1"/>
+      <c r="B439" s="1"/>
+      <c r="C439" s="1"/>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" s="1"/>
+      <c r="B440" s="1"/>
+      <c r="C440" s="1"/>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" s="1"/>
+      <c r="B441" s="1"/>
+      <c r="C441" s="1"/>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" s="1"/>
+      <c r="B442" s="1"/>
+      <c r="C442" s="1"/>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" s="1"/>
+      <c r="B443" s="1"/>
+      <c r="C443" s="1"/>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" s="1"/>
+      <c r="B444" s="1"/>
+      <c r="C444" s="1"/>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" s="1"/>
+      <c r="B445" s="1"/>
+      <c r="C445" s="1"/>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" s="1"/>
+      <c r="B446" s="1"/>
+      <c r="C446" s="1"/>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" s="1"/>
+      <c r="B447" s="1"/>
+      <c r="C447" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="282">
-    <mergeCell ref="A78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
+  <mergeCells count="312">
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="B98:C99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="G74:G75"/>
     <mergeCell ref="A76:B77"/>
     <mergeCell ref="C76:C77"/>
@@ -7123,70 +7507,158 @@
     <mergeCell ref="E76:E77"/>
     <mergeCell ref="F76:F77"/>
     <mergeCell ref="G76:G77"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="A100:C101"/>
+    <mergeCell ref="B104:C105"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="B108:C109"/>
+    <mergeCell ref="B110:C111"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:C107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="B90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:C97"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A92:C93"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B102:C103"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
     <mergeCell ref="E70:E71"/>
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="G70:G71"/>
-    <mergeCell ref="A72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
     <mergeCell ref="E72:E73"/>
     <mergeCell ref="F72:F73"/>
     <mergeCell ref="G72:G73"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F36:F37"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:C53"/>
     <mergeCell ref="D52:D53"/>
@@ -7211,200 +7683,119 @@
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="F50:F51"/>
     <mergeCell ref="G50:G51"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="A74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
     <mergeCell ref="F80:F81"/>
     <mergeCell ref="G80:G81"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B92:C93"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A18:C19"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:C87"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A82:B83"/>
+    <mergeCell ref="C82:C83"/>
     <mergeCell ref="D82:D83"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="D36:D37"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="G38:G39"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A82:C83"/>
-    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="A86:B87"/>
+    <mergeCell ref="C86:C87"/>
     <mergeCell ref="D86:D87"/>
-    <mergeCell ref="B80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="A90:C91"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="B98:C99"/>
-    <mergeCell ref="B100:C101"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:C97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B84:C85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="B88:C89"/>
-    <mergeCell ref="E88:E89"/>
     <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="F86:F87"/>
     <mergeCell ref="G86:G87"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F4:F30 F32 F36:F38 F40 F80:F101">
-    <cfRule type="cellIs" dxfId="19" priority="28" operator="equal">
+  <conditionalFormatting sqref="F4:F30 F32 F36:F38 F40 F90:F111">
+    <cfRule type="cellIs" dxfId="23" priority="34" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7417,8 +7808,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F38 F32 F40 F4:F30 F80:F101">
-    <cfRule type="dataBar" priority="31">
+  <conditionalFormatting sqref="F36:F38 F32 F40 F4:F30 F90:F111">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7432,13 +7823,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7452,13 +7843,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F46 F48">
-    <cfRule type="cellIs" dxfId="13" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="27">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7472,13 +7863,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7492,13 +7883,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:F54 F56">
-    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="28" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7512,13 +7903,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58:F60 F62">
-    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="25" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7532,6 +7923,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64 F66">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DC067A18-958F-4513-8EAE-5AD96F05D461}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68:F70 F72">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F5311F3-0889-44FB-BBAC-8E3D77093F86}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74 F76">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>100</formula>
     </cfRule>
@@ -7546,19 +7977,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DC067A18-958F-4513-8EAE-5AD96F05D461}</x14:id>
+          <x14:id>{031B8E25-C38F-4C1A-BDC2-788374570967}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68:F70 F72">
-    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
+  <conditionalFormatting sqref="F78:F80 F82">
+    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7571,14 +8002,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:F76 F78">
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+  <conditionalFormatting sqref="F84:F86 F88">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7625,7 +8056,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F36:F38 F32 F40 F4:F30 F80:F101</xm:sqref>
+          <xm:sqref>F36:F38 F32 F40 F4:F30 F90:F111</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{982B3ECA-59F0-467D-B182-B1E4F4D7FA8D}">
@@ -7718,7 +8149,7 @@
           <xm:sqref>F64 F66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93065951-09EA-4D52-A3E0-BA9DBB76332C}">
+          <x14:cfRule type="dataBar" id="{3F5311F3-0889-44FB-BBAC-8E3D77093F86}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7733,6 +8164,36 @@
           <xm:sqref>F68:F70 F72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{031B8E25-C38F-4C1A-BDC2-788374570967}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F74 F76</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{93065951-09EA-4D52-A3E0-BA9DBB76332C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F78:F80 F82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BFCA5482-0225-48EE-8E53-FDDF0ACCB26F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -7745,7 +8206,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F74:F76 F78</xm:sqref>
+          <xm:sqref>F84:F86 F88</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7755,7 +8216,7 @@
           <x14:formula1>
             <xm:f>'Status '!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G32 G36:G38 G40 G4:G30 G44:G46 G48 G52:G54 G56 G58:G60 G62 G68:G70 G72 G74:G76 G78 G80:G101 G34 G50 G42 G64 G66</xm:sqref>
+          <xm:sqref>G32 G36:G38 G40 G4:G30 G44:G46 G48 G52:G54 G56 G58:G60 G62 G78:G80 G82 G84:G86 G88 G90:G111 G34 G50 G42 G64 G66 G68:G70 G72 G74 G76</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7771,27 +8232,27 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -7812,14 +8273,14 @@
       <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" customWidth="1"/>
-    <col min="3" max="22" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" customWidth="1"/>
+    <col min="3" max="22" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="23" t="s">
@@ -7883,7 +8344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="25" t="s">
@@ -7947,9 +8408,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111" t="s">
+    <row r="3" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="112"/>
+      <c r="B3" s="113" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="10"/>
@@ -7973,9 +8434,9 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
     </row>
-    <row r="4" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
+    <row r="4" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="8"/>
@@ -7997,9 +8458,9 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
     </row>
-    <row r="5" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119" t="s">
+    <row r="5" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="120"/>
+      <c r="B5" s="121" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="30"/>
@@ -8023,9 +8484,9 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
     </row>
-    <row r="6" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="119"/>
+    <row r="6" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="120"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="8"/>
@@ -8047,9 +8508,9 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
     </row>
-    <row r="7" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116"/>
-      <c r="B7" s="117" t="s">
+    <row r="7" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="118"/>
+      <c r="B7" s="119" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="8"/>
@@ -8073,9 +8534,9 @@
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
     </row>
-    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="116"/>
-      <c r="B8" s="117"/>
+    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="118"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
@@ -8097,9 +8558,9 @@
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
     </row>
-    <row r="9" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="112"/>
-      <c r="B9" s="114" t="s">
+    <row r="9" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="114"/>
+      <c r="B9" s="116" t="s">
         <v>96</v>
       </c>
       <c r="C9" s="8"/>
@@ -8123,9 +8584,9 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" spans="1:22" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="113"/>
-      <c r="B10" s="115"/>
+    <row r="10" spans="1:22" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="115"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="19"/>
@@ -8147,1012 +8608,1012 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
     </row>
   </sheetData>

--- a/02_Analyse/02_Terminplanung/Terminplanung_V1.xlsx
+++ b/02_Analyse/02_Terminplanung/Terminplanung_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b660818652cf050/03_Studium/Master/Semester 5/02_Thesis/02_Analyse/02_Terminplanung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1859" documentId="8_{D92DD50D-1DBF-4A11-8833-F91896F605F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4766F51-D894-480C-B2A9-03744E432187}"/>
+  <xr:revisionPtr revIDLastSave="1870" documentId="8_{D92DD50D-1DBF-4A11-8833-F91896F605F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67417AFE-040A-4B75-9B1A-196D39DC0A5F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6803629-CC7A-4077-B2EA-9F52BB2D00D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6803629-CC7A-4077-B2EA-9F52BB2D00D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Detailplan" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Grobplan" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Detailplan!$A$1:$AA$111</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Detailplan!$A$1:$AA$109</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Grobplan!$A$1:$V$10</definedName>
-    <definedName name="Print_Area" localSheetId="0">Detailplan!$A$1:$AA$111</definedName>
+    <definedName name="Print_Area" localSheetId="0">Detailplan!$A$1:$AA$109</definedName>
     <definedName name="Print_Area" localSheetId="2">Grobplan!$A$1:$V$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="140">
   <si>
     <t>PW1</t>
   </si>
@@ -434,9 +434,6 @@
   </si>
   <si>
     <t>3.6.3.</t>
-  </si>
-  <si>
-    <t>3.6.4.</t>
   </si>
   <si>
     <t>Arbeitspaket 5: Skill</t>
@@ -829,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1041,113 +1038,113 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1177,9 +1174,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1402,8 +1396,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8578068" y="3224139"/>
-          <a:ext cx="312774" cy="302508"/>
+          <a:off x="8344228" y="3126499"/>
+          <a:ext cx="292698" cy="280117"/>
           <a:chOff x="8334375" y="3144116"/>
           <a:chExt cx="292698" cy="282804"/>
         </a:xfrm>
@@ -1542,8 +1536,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9139329" y="3228279"/>
-          <a:ext cx="379496" cy="300852"/>
+          <a:off x="8889223" y="3130639"/>
+          <a:ext cx="355610" cy="278461"/>
           <a:chOff x="8307870" y="3144116"/>
           <a:chExt cx="355610" cy="282804"/>
         </a:xfrm>
@@ -1657,10 +1651,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1983,23 +1973,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA447"/>
+  <dimension ref="A1:AA445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="1.44140625" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="27" width="8.5546875" customWidth="1"/>
+    <col min="1" max="2" width="1.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="27" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2068,7 +2058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2137,12 +2127,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
       <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
@@ -2216,21 +2206,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="87">
+    <row r="4" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="107">
         <v>1</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="27"/>
-      <c r="F4" s="90">
+      <c r="F4" s="110">
         <f>SUM(F6:F17)/6</f>
         <v>100</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="109" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="46"/>
@@ -2254,14 +2244,14 @@
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
     </row>
-    <row r="5" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
+    <row r="5" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="107"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="89"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="48"/>
       <c r="I5" s="49"/>
       <c r="J5" s="8"/>
@@ -2283,17 +2273,17 @@
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
     </row>
-    <row r="6" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75"/>
-      <c r="B6" s="82">
+      <c r="B6" s="77">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82" t="s">
+      <c r="C6" s="77"/>
+      <c r="D6" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77">
+      <c r="E6" s="76"/>
+      <c r="F6" s="76">
         <v>100</v>
       </c>
       <c r="G6" s="78" t="s">
@@ -2320,13 +2310,13 @@
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
     </row>
-    <row r="7" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="75"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="78"/>
       <c r="H7" s="60"/>
       <c r="I7" s="9"/>
@@ -2349,17 +2339,17 @@
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
     </row>
-    <row r="8" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="75"/>
-      <c r="B8" s="82">
+      <c r="B8" s="77">
         <v>1.2</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82" t="s">
+      <c r="C8" s="77"/>
+      <c r="D8" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77">
+      <c r="E8" s="76"/>
+      <c r="F8" s="76">
         <v>100</v>
       </c>
       <c r="G8" s="78" t="s">
@@ -2386,13 +2376,13 @@
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
     </row>
-    <row r="9" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="78"/>
       <c r="H9" s="8"/>
       <c r="I9" s="60"/>
@@ -2415,17 +2405,17 @@
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
     </row>
-    <row r="10" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="75"/>
-      <c r="B10" s="82">
+      <c r="B10" s="77">
         <v>1.3</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77">
+      <c r="E10" s="76"/>
+      <c r="F10" s="76">
         <v>100</v>
       </c>
       <c r="G10" s="78" t="s">
@@ -2452,13 +2442,13 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
     </row>
-    <row r="11" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="75"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="78"/>
       <c r="H11" s="60"/>
       <c r="I11" s="64"/>
@@ -2481,17 +2471,17 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="75"/>
-      <c r="B12" s="82">
+      <c r="B12" s="77">
         <v>1.4</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82" t="s">
+      <c r="C12" s="77"/>
+      <c r="D12" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77">
+      <c r="E12" s="76"/>
+      <c r="F12" s="76">
         <v>100</v>
       </c>
       <c r="G12" s="78" t="s">
@@ -2518,13 +2508,13 @@
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
     </row>
-    <row r="13" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="75"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
       <c r="G13" s="78"/>
       <c r="H13" s="8"/>
       <c r="I13" s="64"/>
@@ -2547,17 +2537,17 @@
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
     </row>
-    <row r="14" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="75"/>
-      <c r="B14" s="82">
+      <c r="B14" s="77">
         <v>1.5</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82" t="s">
+      <c r="C14" s="77"/>
+      <c r="D14" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77">
+      <c r="E14" s="76"/>
+      <c r="F14" s="76">
         <v>100</v>
       </c>
       <c r="G14" s="78" t="s">
@@ -2584,13 +2574,13 @@
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
     </row>
-    <row r="15" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="78"/>
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
@@ -2613,17 +2603,17 @@
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
     </row>
-    <row r="16" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
-      <c r="B16" s="91">
+      <c r="B16" s="82">
         <v>1.6</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91" t="s">
+      <c r="C16" s="82"/>
+      <c r="D16" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="84">
+      <c r="F16" s="101">
         <v>100</v>
       </c>
       <c r="G16" s="78" t="s">
@@ -2650,13 +2640,13 @@
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
     </row>
-    <row r="17" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="75"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="28"/>
-      <c r="F17" s="84"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="78"/>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
@@ -2679,21 +2669,21 @@
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
     </row>
-    <row r="18" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="94">
+    <row r="18" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="103">
         <v>2</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93" t="s">
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102" t="s">
         <v>86</v>
       </c>
       <c r="E18" s="37"/>
-      <c r="F18" s="96">
+      <c r="F18" s="97">
         <f>SUM(F20:F25)/3</f>
         <v>100</v>
       </c>
-      <c r="G18" s="95" t="s">
+      <c r="G18" s="96" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="30"/>
@@ -2717,14 +2707,14 @@
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
     </row>
-    <row r="19" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="94"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
+    <row r="19" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="103"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="37"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="95"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="96"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
       <c r="J19" s="51"/>
@@ -2746,17 +2736,17 @@
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
     </row>
-    <row r="20" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="75"/>
-      <c r="B20" s="82">
+      <c r="B20" s="77">
         <v>2.1</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82" t="s">
+      <c r="C20" s="77"/>
+      <c r="D20" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77">
+      <c r="E20" s="76"/>
+      <c r="F20" s="76">
         <v>100</v>
       </c>
       <c r="G20" s="78" t="s">
@@ -2783,13 +2773,13 @@
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
     </row>
-    <row r="21" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="75"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
       <c r="G21" s="78"/>
       <c r="H21" s="8"/>
       <c r="I21" s="64"/>
@@ -2812,17 +2802,17 @@
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
     </row>
-    <row r="22" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
-      <c r="B22" s="82">
+      <c r="B22" s="77">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82" t="s">
+      <c r="C22" s="77"/>
+      <c r="D22" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77">
+      <c r="E22" s="76"/>
+      <c r="F22" s="76">
         <v>100</v>
       </c>
       <c r="G22" s="78" t="s">
@@ -2849,13 +2839,13 @@
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
     </row>
-    <row r="23" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="75"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
       <c r="G23" s="78"/>
       <c r="H23" s="8"/>
       <c r="I23" s="64"/>
@@ -2878,17 +2868,17 @@
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
     </row>
-    <row r="24" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="75"/>
-      <c r="B24" s="91">
+      <c r="B24" s="82">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91" t="s">
+      <c r="C24" s="82"/>
+      <c r="D24" s="82" t="s">
         <v>94</v>
       </c>
       <c r="E24" s="28"/>
-      <c r="F24" s="84">
+      <c r="F24" s="101">
         <v>100</v>
       </c>
       <c r="G24" s="78" t="s">
@@ -2915,13 +2905,13 @@
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
-    <row r="25" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="75"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="28"/>
-      <c r="F25" s="84"/>
+      <c r="F25" s="101"/>
       <c r="G25" s="78"/>
       <c r="H25" s="8"/>
       <c r="I25" s="9"/>
@@ -2944,21 +2934,21 @@
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
-    <row r="26" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="99">
+    <row r="26" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="92">
         <v>3</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100" t="s">
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93" t="s">
         <v>89</v>
       </c>
       <c r="E26" s="54"/>
-      <c r="F26" s="92">
-        <f>SUM(F28,F36,F44,F52,F58,F78,F84,F68)/8</f>
-        <v>54.583333333333336</v>
-      </c>
-      <c r="G26" s="109" t="s">
+      <c r="F26" s="100">
+        <f>SUM(F28,F36,F44,F52,F58,F76,F82,F68)/8</f>
+        <v>61.041666666666664</v>
+      </c>
+      <c r="G26" s="99" t="s">
         <v>38</v>
       </c>
       <c r="H26" s="30"/>
@@ -2982,14 +2972,14 @@
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
     </row>
-    <row r="27" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="99"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
+    <row r="27" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="92"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
       <c r="E27" s="54"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="109"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="99"/>
       <c r="H27" s="8"/>
       <c r="I27" s="9"/>
       <c r="J27" s="56"/>
@@ -3011,21 +3001,21 @@
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
     </row>
-    <row r="28" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="75"/>
-      <c r="B28" s="79">
+      <c r="B28" s="94">
         <v>3.1</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79" t="s">
+      <c r="C28" s="94"/>
+      <c r="D28" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80">
+      <c r="E28" s="95"/>
+      <c r="F28" s="95">
         <f>SUM(F30:F35)/3</f>
         <v>100</v>
       </c>
-      <c r="G28" s="81" t="s">
+      <c r="G28" s="104" t="s">
         <v>38</v>
       </c>
       <c r="H28" s="32"/>
@@ -3049,14 +3039,14 @@
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
     </row>
-    <row r="29" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="75"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="81"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="104"/>
       <c r="H29" s="8"/>
       <c r="I29" s="9"/>
       <c r="J29" s="44"/>
@@ -3078,17 +3068,17 @@
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
     </row>
-    <row r="30" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="75"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="77" t="s">
+      <c r="B30" s="79"/>
+      <c r="C30" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="82" t="s">
+      <c r="D30" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77">
+      <c r="E30" s="76"/>
+      <c r="F30" s="76">
         <v>100</v>
       </c>
       <c r="G30" s="78" t="s">
@@ -3115,13 +3105,13 @@
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
     </row>
-    <row r="31" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="75"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
       <c r="G31" s="78"/>
       <c r="H31" s="8"/>
       <c r="I31" s="9"/>
@@ -3144,17 +3134,17 @@
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
     </row>
-    <row r="32" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="75"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="77" t="s">
+      <c r="B32" s="79"/>
+      <c r="C32" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="82" t="s">
+      <c r="D32" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77">
+      <c r="E32" s="76"/>
+      <c r="F32" s="76">
         <v>100</v>
       </c>
       <c r="G32" s="78" t="s">
@@ -3181,13 +3171,13 @@
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
     </row>
-    <row r="33" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="75"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
       <c r="G33" s="78"/>
       <c r="H33" s="8"/>
       <c r="I33" s="9"/>
@@ -3210,17 +3200,17 @@
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
     </row>
-    <row r="34" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="75"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="77" t="s">
+      <c r="B34" s="79"/>
+      <c r="C34" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="82" t="s">
+      <c r="D34" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77">
+      <c r="E34" s="76"/>
+      <c r="F34" s="76">
         <v>100</v>
       </c>
       <c r="G34" s="78" t="s">
@@ -3247,13 +3237,13 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
     </row>
-    <row r="35" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="75"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
       <c r="G35" s="78"/>
       <c r="H35" s="8"/>
       <c r="I35" s="9"/>
@@ -3276,21 +3266,21 @@
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
     </row>
-    <row r="36" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="75"/>
-      <c r="B36" s="79">
+      <c r="B36" s="94">
         <v>3.2</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79" t="s">
+      <c r="C36" s="94"/>
+      <c r="D36" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80">
+      <c r="E36" s="95"/>
+      <c r="F36" s="95">
         <f>SUM(F38:F43)/3</f>
         <v>100</v>
       </c>
-      <c r="G36" s="81" t="s">
+      <c r="G36" s="104" t="s">
         <v>40</v>
       </c>
       <c r="H36" s="32"/>
@@ -3314,14 +3304,14 @@
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
     </row>
-    <row r="37" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="75"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="104"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="44"/>
@@ -3343,17 +3333,17 @@
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
     </row>
-    <row r="38" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="75"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="77" t="s">
+      <c r="B38" s="79"/>
+      <c r="C38" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="82" t="s">
+      <c r="D38" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77">
+      <c r="E38" s="76"/>
+      <c r="F38" s="76">
         <v>100</v>
       </c>
       <c r="G38" s="78" t="s">
@@ -3380,13 +3370,13 @@
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
     </row>
-    <row r="39" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="75"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
       <c r="G39" s="78"/>
       <c r="H39" s="8"/>
       <c r="I39" s="9"/>
@@ -3409,17 +3399,17 @@
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
     </row>
-    <row r="40" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="75"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="77" t="s">
+      <c r="B40" s="79"/>
+      <c r="C40" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="82" t="s">
+      <c r="D40" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77">
+      <c r="E40" s="76"/>
+      <c r="F40" s="76">
         <v>100</v>
       </c>
       <c r="G40" s="78" t="s">
@@ -3446,13 +3436,13 @@
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
     </row>
-    <row r="41" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="75"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
       <c r="G41" s="78"/>
       <c r="H41" s="8"/>
       <c r="I41" s="9"/>
@@ -3475,17 +3465,17 @@
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
     </row>
-    <row r="42" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="75"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="77" t="s">
+      <c r="B42" s="79"/>
+      <c r="C42" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77">
+      <c r="E42" s="76"/>
+      <c r="F42" s="76">
         <v>100</v>
       </c>
       <c r="G42" s="78" t="s">
@@ -3512,13 +3502,13 @@
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
     </row>
-    <row r="43" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="75"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
       <c r="G43" s="78"/>
       <c r="H43" s="8"/>
       <c r="I43" s="9"/>
@@ -3541,21 +3531,21 @@
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
     </row>
-    <row r="44" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="75"/>
-      <c r="B44" s="79">
+      <c r="B44" s="94">
         <v>3.3</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79" t="s">
+      <c r="C44" s="94"/>
+      <c r="D44" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="E44" s="83"/>
-      <c r="F44" s="80">
+      <c r="E44" s="111"/>
+      <c r="F44" s="95">
         <f>SUM(F46:F51)/3</f>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="G44" s="81" t="s">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="G44" s="104" t="s">
         <v>38</v>
       </c>
       <c r="H44" s="32"/>
@@ -3579,14 +3569,14 @@
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
     </row>
-    <row r="45" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="75"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="81"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="104"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -3608,19 +3598,19 @@
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
     </row>
-    <row r="46" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="75"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="77" t="s">
+      <c r="B46" s="79"/>
+      <c r="C46" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="82" t="s">
+      <c r="D46" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="77" t="s">
+      <c r="E46" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="77">
+      <c r="F46" s="76">
         <v>100</v>
       </c>
       <c r="G46" s="78" t="s">
@@ -3647,13 +3637,13 @@
       <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
     </row>
-    <row r="47" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="75"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
       <c r="G47" s="78"/>
       <c r="H47" s="8"/>
       <c r="I47" s="9"/>
@@ -3676,17 +3666,17 @@
       <c r="Z47" s="8"/>
       <c r="AA47" s="8"/>
     </row>
-    <row r="48" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="75"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="77" t="s">
+      <c r="B48" s="79"/>
+      <c r="C48" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="82" t="s">
+      <c r="D48" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77">
+      <c r="E48" s="76"/>
+      <c r="F48" s="76">
         <v>100</v>
       </c>
       <c r="G48" s="78" t="s">
@@ -3713,13 +3703,13 @@
       <c r="Z48" s="8"/>
       <c r="AA48" s="8"/>
     </row>
-    <row r="49" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="75"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
       <c r="G49" s="78"/>
       <c r="H49" s="8"/>
       <c r="I49" s="9"/>
@@ -3742,23 +3732,23 @@
       <c r="Z49" s="8"/>
       <c r="AA49" s="8"/>
     </row>
-    <row r="50" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="75"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="77" t="s">
+      <c r="B50" s="79"/>
+      <c r="C50" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="82" t="s">
+      <c r="D50" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E50" s="77" t="s">
+      <c r="E50" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="F50" s="77">
-        <v>0</v>
+      <c r="F50" s="76">
+        <v>50</v>
       </c>
       <c r="G50" s="78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="9"/>
@@ -3781,13 +3771,13 @@
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
     </row>
-    <row r="51" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="75"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
       <c r="G51" s="78"/>
       <c r="H51" s="8"/>
       <c r="I51" s="9"/>
@@ -3810,21 +3800,21 @@
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
     </row>
-    <row r="52" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="75"/>
-      <c r="B52" s="79">
+      <c r="B52" s="94">
         <v>3.4</v>
       </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79" t="s">
+      <c r="C52" s="94"/>
+      <c r="D52" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80">
+      <c r="E52" s="95"/>
+      <c r="F52" s="95">
         <f>SUM(F54:F57)/2</f>
-        <v>90</v>
-      </c>
-      <c r="G52" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="104" t="s">
         <v>38</v>
       </c>
       <c r="H52" s="32"/>
@@ -3847,14 +3837,14 @@
       <c r="Z52" s="8"/>
       <c r="AA52" s="8"/>
     </row>
-    <row r="53" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="75"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="81"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="104"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -3875,19 +3865,19 @@
       <c r="Z53" s="8"/>
       <c r="AA53" s="8"/>
     </row>
-    <row r="54" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="75"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="77" t="s">
+      <c r="B54" s="79"/>
+      <c r="C54" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="82" t="s">
+      <c r="D54" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="77" t="s">
+      <c r="E54" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="77">
+      <c r="F54" s="76">
         <v>100</v>
       </c>
       <c r="G54" s="78" t="s">
@@ -3913,13 +3903,13 @@
       <c r="Z54" s="8"/>
       <c r="AA54" s="8"/>
     </row>
-    <row r="55" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="75"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
       <c r="G55" s="78"/>
       <c r="H55" s="8"/>
       <c r="I55" s="9"/>
@@ -3942,18 +3932,18 @@
       <c r="Z55" s="8"/>
       <c r="AA55" s="8"/>
     </row>
-    <row r="56" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="75"/>
-      <c r="B56" s="76"/>
-      <c r="C56" s="77" t="s">
+      <c r="B56" s="79"/>
+      <c r="C56" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="82" t="s">
+      <c r="D56" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77">
-        <v>80</v>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76">
+        <v>90</v>
       </c>
       <c r="G56" s="78" t="s">
         <v>38</v>
@@ -3979,13 +3969,13 @@
       <c r="Z56" s="8"/>
       <c r="AA56" s="8"/>
     </row>
-    <row r="57" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="75"/>
-      <c r="B57" s="76"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
       <c r="G57" s="78"/>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
@@ -4008,21 +3998,21 @@
       <c r="Z57" s="8"/>
       <c r="AA57" s="8"/>
     </row>
-    <row r="58" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="75"/>
-      <c r="B58" s="79">
+      <c r="B58" s="94">
         <v>3.5</v>
       </c>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80">
+      <c r="C58" s="94"/>
+      <c r="D58" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="95"/>
+      <c r="F58" s="95">
         <f>SUM(F60:F67)/4</f>
         <v>80</v>
       </c>
-      <c r="G58" s="81" t="s">
+      <c r="G58" s="104" t="s">
         <v>38</v>
       </c>
       <c r="H58" s="32"/>
@@ -4045,14 +4035,14 @@
       <c r="Z58" s="8"/>
       <c r="AA58" s="8"/>
     </row>
-    <row r="59" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="75"/>
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="81"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="104"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -4073,17 +4063,17 @@
       <c r="Z59" s="8"/>
       <c r="AA59" s="8"/>
     </row>
-    <row r="60" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="75"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="77" t="s">
+      <c r="B60" s="79"/>
+      <c r="C60" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77">
+      <c r="D60" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76">
         <v>100</v>
       </c>
       <c r="G60" s="78" t="s">
@@ -4109,13 +4099,13 @@
       <c r="Z60" s="8"/>
       <c r="AA60" s="8"/>
     </row>
-    <row r="61" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="75"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
       <c r="G61" s="78"/>
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
@@ -4138,17 +4128,17 @@
       <c r="Z61" s="8"/>
       <c r="AA61" s="8"/>
     </row>
-    <row r="62" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="75"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="77" t="s">
+      <c r="B62" s="79"/>
+      <c r="C62" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77">
+      <c r="D62" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="76"/>
+      <c r="F62" s="76">
         <v>100</v>
       </c>
       <c r="G62" s="78" t="s">
@@ -4174,13 +4164,13 @@
       <c r="Z62" s="8"/>
       <c r="AA62" s="8"/>
     </row>
-    <row r="63" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="75"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="77"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
       <c r="G63" s="78"/>
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
@@ -4203,17 +4193,17 @@
       <c r="Z63" s="8"/>
       <c r="AA63" s="8"/>
     </row>
-    <row r="64" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="75"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="77" t="s">
+      <c r="B64" s="79"/>
+      <c r="C64" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="D64" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77">
+      <c r="D64" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76">
         <v>100</v>
       </c>
       <c r="G64" s="78" t="s">
@@ -4239,13 +4229,13 @@
       <c r="Z64" s="8"/>
       <c r="AA64" s="8"/>
     </row>
-    <row r="65" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="75"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="77"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76"/>
       <c r="G65" s="78"/>
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
@@ -4268,17 +4258,17 @@
       <c r="Z65" s="8"/>
       <c r="AA65" s="8"/>
     </row>
-    <row r="66" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="75"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="77" t="s">
+      <c r="B66" s="79"/>
+      <c r="C66" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="D66" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77">
+      <c r="D66" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76">
         <v>20</v>
       </c>
       <c r="G66" s="78" t="s">
@@ -4293,7 +4283,7 @@
       <c r="O66" s="69"/>
       <c r="P66" s="53"/>
       <c r="Q66" s="69"/>
-      <c r="R66" s="122"/>
+      <c r="R66" s="8"/>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
@@ -4304,13 +4294,13 @@
       <c r="Z66" s="8"/>
       <c r="AA66" s="8"/>
     </row>
-    <row r="67" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="75"/>
-      <c r="B67" s="76"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
+      <c r="B67" s="79"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="76"/>
       <c r="G67" s="78"/>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
@@ -4333,21 +4323,21 @@
       <c r="Z67" s="8"/>
       <c r="AA67" s="8"/>
     </row>
-    <row r="68" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="75"/>
-      <c r="B68" s="79">
+      <c r="B68" s="94">
         <v>3.6</v>
       </c>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="E68" s="80"/>
-      <c r="F68" s="80">
-        <f>SUM(F70:F77)/4</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="81" t="s">
+      <c r="C68" s="94"/>
+      <c r="D68" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95">
+        <f>SUM(F70:F75)/4</f>
+        <v>30</v>
+      </c>
+      <c r="G68" s="104" t="s">
         <v>37</v>
       </c>
       <c r="H68" s="32"/>
@@ -4371,14 +4361,14 @@
       <c r="Z68" s="8"/>
       <c r="AA68" s="8"/>
     </row>
-    <row r="69" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="75"/>
-      <c r="B69" s="79"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="81"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="94"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="104"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -4400,21 +4390,21 @@
       <c r="Z69" s="8"/>
       <c r="AA69" s="8"/>
     </row>
-    <row r="70" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="75"/>
-      <c r="B70" s="76"/>
-      <c r="C70" s="77" t="s">
+      <c r="B70" s="79"/>
+      <c r="C70" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="D70" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77">
-        <v>0</v>
+      <c r="D70" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76">
+        <v>100</v>
       </c>
       <c r="G70" s="78" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="9"/>
@@ -4437,20 +4427,20 @@
       <c r="Z70" s="8"/>
       <c r="AA70" s="8"/>
     </row>
-    <row r="71" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="75"/>
-      <c r="B71" s="76"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
+      <c r="B71" s="79"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
       <c r="G71" s="78"/>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
+      <c r="M71" s="60"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
@@ -4466,18 +4456,18 @@
       <c r="Z71" s="8"/>
       <c r="AA71" s="8"/>
     </row>
-    <row r="72" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="75"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="77" t="s">
+      <c r="B72" s="79"/>
+      <c r="C72" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77">
-        <v>0</v>
+      <c r="D72" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" s="76"/>
+      <c r="F72" s="76">
+        <v>10</v>
       </c>
       <c r="G72" s="78" t="s">
         <v>37</v>
@@ -4503,20 +4493,20 @@
       <c r="Z72" s="8"/>
       <c r="AA72" s="8"/>
     </row>
-    <row r="73" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="75"/>
-      <c r="B73" s="76"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
       <c r="G73" s="78"/>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
+      <c r="M73" s="60"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
@@ -4532,18 +4522,18 @@
       <c r="Z73" s="8"/>
       <c r="AA73" s="8"/>
     </row>
-    <row r="74" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="75"/>
-      <c r="B74" s="76"/>
-      <c r="C74" s="77" t="s">
+      <c r="B74" s="79"/>
+      <c r="C74" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="D74" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="E74" s="77"/>
-      <c r="F74" s="77">
-        <v>0</v>
+      <c r="D74" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="E74" s="76"/>
+      <c r="F74" s="76">
+        <v>10</v>
       </c>
       <c r="G74" s="78" t="s">
         <v>37</v>
@@ -4569,20 +4559,20 @@
       <c r="Z74" s="8"/>
       <c r="AA74" s="8"/>
     </row>
-    <row r="75" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="75"/>
-      <c r="B75" s="76"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
+      <c r="B75" s="79"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="76"/>
+      <c r="F75" s="76"/>
       <c r="G75" s="78"/>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
+      <c r="M75" s="60"/>
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
@@ -4598,33 +4588,36 @@
       <c r="Z75" s="8"/>
       <c r="AA75" s="8"/>
     </row>
-    <row r="76" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="75"/>
-      <c r="B76" s="76"/>
-      <c r="C76" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="D76" s="82"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77">
+      <c r="B76" s="94">
+        <v>3.7</v>
+      </c>
+      <c r="C76" s="94"/>
+      <c r="D76" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="95"/>
+      <c r="F76" s="95">
+        <f>SUM(F78:F81)/2</f>
         <v>0</v>
       </c>
-      <c r="G76" s="78" t="s">
+      <c r="G76" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="H76" s="8"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="8"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="32"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
+      <c r="O76" s="44"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="52"/>
+      <c r="R76" s="44"/>
+      <c r="S76" s="44"/>
+      <c r="T76" s="44"/>
       <c r="U76" s="8"/>
       <c r="V76" s="39"/>
       <c r="W76" s="39"/>
@@ -4633,27 +4626,27 @@
       <c r="Z76" s="8"/>
       <c r="AA76" s="8"/>
     </row>
-    <row r="77" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="75"/>
-      <c r="B77" s="76"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="82"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="78"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="95"/>
+      <c r="F77" s="95"/>
+      <c r="G77" s="104"/>
       <c r="H77" s="8"/>
-      <c r="I77" s="9"/>
+      <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="52"/>
+      <c r="R77" s="44"/>
+      <c r="S77" s="44"/>
+      <c r="T77" s="44"/>
       <c r="U77" s="8"/>
       <c r="V77" s="39"/>
       <c r="W77" s="39"/>
@@ -4662,36 +4655,33 @@
       <c r="Z77" s="8"/>
       <c r="AA77" s="8"/>
     </row>
-    <row r="78" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="75"/>
-      <c r="B78" s="79">
-        <v>3.7</v>
-      </c>
-      <c r="C78" s="79"/>
-      <c r="D78" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="E78" s="80"/>
-      <c r="F78" s="80">
-        <f>SUM(F80:F83)/2</f>
+      <c r="B78" s="79"/>
+      <c r="C78" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" s="76"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="76">
         <v>0</v>
       </c>
-      <c r="G78" s="81" t="s">
+      <c r="G78" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H78" s="32"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="32"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
-      <c r="O78" s="44"/>
-      <c r="P78" s="44"/>
-      <c r="Q78" s="52"/>
-      <c r="R78" s="44"/>
-      <c r="S78" s="44"/>
-      <c r="T78" s="44"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
       <c r="U78" s="8"/>
       <c r="V78" s="39"/>
       <c r="W78" s="39"/>
@@ -4700,27 +4690,27 @@
       <c r="Z78" s="8"/>
       <c r="AA78" s="8"/>
     </row>
-    <row r="79" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="75"/>
       <c r="B79" s="79"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="80"/>
-      <c r="F79" s="80"/>
-      <c r="G79" s="81"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="78"/>
       <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
+      <c r="I79" s="9"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
-      <c r="O79" s="44"/>
-      <c r="P79" s="44"/>
-      <c r="Q79" s="52"/>
-      <c r="R79" s="44"/>
-      <c r="S79" s="44"/>
-      <c r="T79" s="44"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
       <c r="U79" s="8"/>
       <c r="V79" s="39"/>
       <c r="W79" s="39"/>
@@ -4729,15 +4719,15 @@
       <c r="Z79" s="8"/>
       <c r="AA79" s="8"/>
     </row>
-    <row r="80" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="75"/>
-      <c r="B80" s="76"/>
-      <c r="C80" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="D80" s="77"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="77">
+      <c r="B80" s="79"/>
+      <c r="C80" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="76"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="76">
         <v>0</v>
       </c>
       <c r="G80" s="78" t="s">
@@ -4764,13 +4754,13 @@
       <c r="Z80" s="8"/>
       <c r="AA80" s="8"/>
     </row>
-    <row r="81" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="75"/>
-      <c r="B81" s="76"/>
-      <c r="C81" s="77"/>
-      <c r="D81" s="77"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="77"/>
+      <c r="B81" s="79"/>
+      <c r="C81" s="76"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="76"/>
       <c r="G81" s="78"/>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
@@ -4793,23 +4783,26 @@
       <c r="Z81" s="8"/>
       <c r="AA81" s="8"/>
     </row>
-    <row r="82" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="75"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="D82" s="77"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77">
+      <c r="B82" s="94">
+        <v>3.8</v>
+      </c>
+      <c r="C82" s="94"/>
+      <c r="D82" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="95"/>
+      <c r="F82" s="95">
+        <f>SUM(F84:F87)/3</f>
         <v>0</v>
       </c>
-      <c r="G82" s="78" t="s">
+      <c r="G82" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="H82" s="8"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="8"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="32"/>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
@@ -4828,16 +4821,16 @@
       <c r="Z82" s="8"/>
       <c r="AA82" s="8"/>
     </row>
-    <row r="83" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="75"/>
-      <c r="B83" s="76"/>
-      <c r="C83" s="77"/>
-      <c r="D83" s="77"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="78"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="95"/>
+      <c r="F83" s="95"/>
+      <c r="G83" s="104"/>
       <c r="H83" s="8"/>
-      <c r="I83" s="9"/>
+      <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
@@ -4857,26 +4850,23 @@
       <c r="Z83" s="8"/>
       <c r="AA83" s="8"/>
     </row>
-    <row r="84" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="75"/>
-      <c r="B84" s="79">
-        <v>3.8</v>
-      </c>
-      <c r="C84" s="79"/>
-      <c r="D84" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="E84" s="80"/>
-      <c r="F84" s="80">
-        <f>SUM(F86:F89)/3</f>
+      <c r="B84" s="79"/>
+      <c r="C84" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84" s="76"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="76">
         <v>0</v>
       </c>
-      <c r="G84" s="81" t="s">
+      <c r="G84" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H84" s="32"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="32"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
@@ -4895,16 +4885,16 @@
       <c r="Z84" s="8"/>
       <c r="AA84" s="8"/>
     </row>
-    <row r="85" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="75"/>
       <c r="B85" s="79"/>
-      <c r="C85" s="79"/>
-      <c r="D85" s="79"/>
-      <c r="E85" s="80"/>
-      <c r="F85" s="80"/>
-      <c r="G85" s="81"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="78"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
+      <c r="I85" s="9"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
@@ -4924,15 +4914,15 @@
       <c r="Z85" s="8"/>
       <c r="AA85" s="8"/>
     </row>
-    <row r="86" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="75"/>
-      <c r="B86" s="76"/>
-      <c r="C86" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="D86" s="77"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77">
+      <c r="B86" s="79"/>
+      <c r="C86" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="76">
         <v>0</v>
       </c>
       <c r="G86" s="78" t="s">
@@ -4959,13 +4949,13 @@
       <c r="Z86" s="8"/>
       <c r="AA86" s="8"/>
     </row>
-    <row r="87" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="75"/>
-      <c r="B87" s="76"/>
-      <c r="C87" s="77"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
+      <c r="B87" s="79"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="76"/>
       <c r="G87" s="78"/>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
@@ -4988,15 +4978,17 @@
       <c r="Z87" s="8"/>
       <c r="AA87" s="8"/>
     </row>
-    <row r="88" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="75"/>
-      <c r="B88" s="76"/>
-      <c r="C88" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77">
+      <c r="B88" s="82">
+        <v>3.8</v>
+      </c>
+      <c r="C88" s="82"/>
+      <c r="D88" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="E88" s="28"/>
+      <c r="F88" s="101">
         <v>0</v>
       </c>
       <c r="G88" s="78" t="s">
@@ -5023,13 +5015,13 @@
       <c r="Z88" s="8"/>
       <c r="AA88" s="8"/>
     </row>
-    <row r="89" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="75"/>
-      <c r="B89" s="76"/>
-      <c r="C89" s="77"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="77"/>
+      <c r="B89" s="82"/>
+      <c r="C89" s="82"/>
+      <c r="D89" s="82"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="101"/>
       <c r="G89" s="78"/>
       <c r="H89" s="8"/>
       <c r="I89" s="9"/>
@@ -5052,25 +5044,26 @@
       <c r="Z89" s="8"/>
       <c r="AA89" s="8"/>
     </row>
-    <row r="90" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="75"/>
-      <c r="B90" s="91">
-        <v>3.8</v>
-      </c>
-      <c r="C90" s="91"/>
-      <c r="D90" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="E90" s="28"/>
-      <c r="F90" s="84">
+    <row r="90" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="98">
+        <v>4</v>
+      </c>
+      <c r="B90" s="83"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="E90" s="38"/>
+      <c r="F90" s="80">
+        <f>SUM(F92:F97)/6</f>
         <v>0</v>
       </c>
-      <c r="G90" s="78" t="s">
+      <c r="G90" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="H90" s="8"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="8"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="30"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
@@ -5085,18 +5078,18 @@
       <c r="V90" s="39"/>
       <c r="W90" s="39"/>
       <c r="X90" s="8"/>
-      <c r="Y90" s="9"/>
+      <c r="Y90" s="43"/>
       <c r="Z90" s="8"/>
       <c r="AA90" s="8"/>
     </row>
-    <row r="91" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="75"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="84"/>
-      <c r="G91" s="78"/>
+    <row r="91" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="98"/>
+      <c r="B91" s="83"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="83"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="80"/>
+      <c r="G91" s="81"/>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
       <c r="J91" s="8"/>
@@ -5114,30 +5107,29 @@
       <c r="V91" s="39"/>
       <c r="W91" s="39"/>
       <c r="X91" s="8"/>
-      <c r="Y91" s="9"/>
+      <c r="Y91" s="43"/>
       <c r="Z91" s="8"/>
       <c r="AA91" s="8"/>
     </row>
-    <row r="92" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="97">
-        <v>4</v>
-      </c>
-      <c r="B92" s="98"/>
-      <c r="C92" s="98"/>
-      <c r="D92" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="E92" s="38"/>
-      <c r="F92" s="110">
-        <f>SUM(F94:F99)/6</f>
+    <row r="92" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="75"/>
+      <c r="B92" s="77">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C92" s="77"/>
+      <c r="D92" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92" s="76"/>
+      <c r="F92" s="76">
         <v>0</v>
       </c>
-      <c r="G92" s="111" t="s">
+      <c r="G92" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H92" s="30"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="30"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
@@ -5152,18 +5144,18 @@
       <c r="V92" s="39"/>
       <c r="W92" s="39"/>
       <c r="X92" s="8"/>
-      <c r="Y92" s="43"/>
+      <c r="Y92" s="9"/>
       <c r="Z92" s="8"/>
       <c r="AA92" s="8"/>
     </row>
-    <row r="93" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="97"/>
-      <c r="B93" s="98"/>
-      <c r="C93" s="98"/>
-      <c r="D93" s="98"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="110"/>
-      <c r="G93" s="111"/>
+    <row r="93" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="75"/>
+      <c r="B93" s="77"/>
+      <c r="C93" s="77"/>
+      <c r="D93" s="77"/>
+      <c r="E93" s="76"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="78"/>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
       <c r="J93" s="8"/>
@@ -5181,29 +5173,29 @@
       <c r="V93" s="39"/>
       <c r="W93" s="39"/>
       <c r="X93" s="8"/>
-      <c r="Y93" s="43"/>
+      <c r="Y93" s="9"/>
       <c r="Z93" s="8"/>
       <c r="AA93" s="8"/>
     </row>
-    <row r="94" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="75"/>
-      <c r="B94" s="82">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C94" s="82"/>
-      <c r="D94" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="E94" s="77"/>
-      <c r="F94" s="77">
+      <c r="B94" s="77">
+        <v>4.2</v>
+      </c>
+      <c r="C94" s="77"/>
+      <c r="D94" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" s="76"/>
+      <c r="F94" s="76">
         <v>0</v>
       </c>
       <c r="G94" s="78" t="s">
         <v>37</v>
       </c>
       <c r="H94" s="32"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="8"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="32"/>
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
       <c r="M94" s="8"/>
@@ -5222,16 +5214,16 @@
       <c r="Z94" s="8"/>
       <c r="AA94" s="8"/>
     </row>
-    <row r="95" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="75"/>
-      <c r="B95" s="82"/>
-      <c r="C95" s="82"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="77"/>
+      <c r="B95" s="77"/>
+      <c r="C95" s="77"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="76"/>
       <c r="G95" s="78"/>
       <c r="H95" s="8"/>
-      <c r="I95" s="9"/>
+      <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
@@ -5251,17 +5243,17 @@
       <c r="Z95" s="8"/>
       <c r="AA95" s="8"/>
     </row>
-    <row r="96" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="75"/>
-      <c r="B96" s="82">
-        <v>4.2</v>
-      </c>
-      <c r="C96" s="82"/>
-      <c r="D96" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77">
+      <c r="B96" s="77">
+        <v>4.3</v>
+      </c>
+      <c r="C96" s="77"/>
+      <c r="D96" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96" s="76"/>
+      <c r="F96" s="76">
         <v>0</v>
       </c>
       <c r="G96" s="78" t="s">
@@ -5288,16 +5280,16 @@
       <c r="Z96" s="8"/>
       <c r="AA96" s="8"/>
     </row>
-    <row r="97" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="75"/>
-      <c r="B97" s="82"/>
-      <c r="C97" s="82"/>
-      <c r="D97" s="82"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="77"/>
+      <c r="B97" s="77"/>
+      <c r="C97" s="77"/>
+      <c r="D97" s="77"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="76"/>
       <c r="G97" s="78"/>
       <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
+      <c r="I97" s="9"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
@@ -5317,25 +5309,26 @@
       <c r="Z97" s="8"/>
       <c r="AA97" s="8"/>
     </row>
-    <row r="98" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="75"/>
-      <c r="B98" s="82">
-        <v>4.3</v>
-      </c>
-      <c r="C98" s="82"/>
-      <c r="D98" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77">
+    <row r="98" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="86">
+        <v>5</v>
+      </c>
+      <c r="B98" s="87"/>
+      <c r="C98" s="87"/>
+      <c r="D98" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" s="29"/>
+      <c r="F98" s="88">
+        <f>SUM(F102:F109)/4</f>
         <v>0</v>
       </c>
-      <c r="G98" s="78" t="s">
+      <c r="G98" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="H98" s="32"/>
-      <c r="I98" s="33"/>
-      <c r="J98" s="32"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
       <c r="M98" s="8"/>
@@ -5354,14 +5347,14 @@
       <c r="Z98" s="8"/>
       <c r="AA98" s="8"/>
     </row>
-    <row r="99" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="75"/>
-      <c r="B99" s="82"/>
-      <c r="C99" s="82"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="77"/>
-      <c r="G99" s="78"/>
+    <row r="99" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="86"/>
+      <c r="B99" s="87"/>
+      <c r="C99" s="87"/>
+      <c r="D99" s="87"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="88"/>
+      <c r="G99" s="85"/>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
       <c r="J99" s="8"/>
@@ -5383,24 +5376,23 @@
       <c r="Z99" s="8"/>
       <c r="AA99" s="8"/>
     </row>
-    <row r="100" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="103">
-        <v>5</v>
-      </c>
-      <c r="B100" s="104"/>
-      <c r="C100" s="104"/>
-      <c r="D100" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="E100" s="29"/>
-      <c r="F100" s="105">
-        <f>SUM(F104:F111)/4</f>
+    <row r="100" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="75"/>
+      <c r="B100" s="77">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76">
         <v>0</v>
       </c>
-      <c r="G100" s="102" t="s">
+      <c r="G100" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H100" s="8"/>
+      <c r="H100" s="34"/>
       <c r="I100" s="9"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
@@ -5421,14 +5413,14 @@
       <c r="Z100" s="8"/>
       <c r="AA100" s="8"/>
     </row>
-    <row r="101" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="103"/>
-      <c r="B101" s="104"/>
-      <c r="C101" s="104"/>
-      <c r="D101" s="104"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="105"/>
-      <c r="G101" s="102"/>
+    <row r="101" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="75"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="78"/>
       <c r="H101" s="8"/>
       <c r="I101" s="9"/>
       <c r="J101" s="8"/>
@@ -5450,23 +5442,23 @@
       <c r="Z101" s="8"/>
       <c r="AA101" s="8"/>
     </row>
-    <row r="102" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="75"/>
-      <c r="B102" s="82">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C102" s="82"/>
-      <c r="D102" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77">
+      <c r="B102" s="77">
+        <v>5.2</v>
+      </c>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76">
         <v>0</v>
       </c>
       <c r="G102" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H102" s="34"/>
+      <c r="H102" s="8"/>
       <c r="I102" s="9"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
@@ -5487,13 +5479,13 @@
       <c r="Z102" s="8"/>
       <c r="AA102" s="8"/>
     </row>
-    <row r="103" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="75"/>
-      <c r="B103" s="82"/>
-      <c r="C103" s="82"/>
-      <c r="D103" s="82"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
+      <c r="B103" s="77"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
       <c r="G103" s="78"/>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
@@ -5516,17 +5508,17 @@
       <c r="Z103" s="8"/>
       <c r="AA103" s="8"/>
     </row>
-    <row r="104" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="75"/>
-      <c r="B104" s="82">
-        <v>5.2</v>
-      </c>
-      <c r="C104" s="82"/>
-      <c r="D104" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77">
+      <c r="B104" s="77">
+        <v>5.3</v>
+      </c>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76">
         <v>0</v>
       </c>
       <c r="G104" s="78" t="s">
@@ -5553,13 +5545,13 @@
       <c r="Z104" s="8"/>
       <c r="AA104" s="8"/>
     </row>
-    <row r="105" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="75"/>
-      <c r="B105" s="82"/>
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
+      <c r="B105" s="77"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
       <c r="G105" s="78"/>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
@@ -5582,17 +5574,17 @@
       <c r="Z105" s="8"/>
       <c r="AA105" s="8"/>
     </row>
-    <row r="106" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="75"/>
-      <c r="B106" s="82">
-        <v>5.3</v>
-      </c>
-      <c r="C106" s="82"/>
-      <c r="D106" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77">
+      <c r="B106" s="77">
+        <v>5.4</v>
+      </c>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76">
         <v>0</v>
       </c>
       <c r="G106" s="78" t="s">
@@ -5615,17 +5607,17 @@
       <c r="V106" s="39"/>
       <c r="W106" s="39"/>
       <c r="X106" s="8"/>
-      <c r="Y106" s="9"/>
+      <c r="Y106" s="35"/>
       <c r="Z106" s="8"/>
       <c r="AA106" s="8"/>
     </row>
-    <row r="107" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="75"/>
-      <c r="B107" s="82"/>
-      <c r="C107" s="82"/>
-      <c r="D107" s="82"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
+      <c r="B107" s="77"/>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
       <c r="G107" s="78"/>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
@@ -5648,17 +5640,17 @@
       <c r="Z107" s="8"/>
       <c r="AA107" s="8"/>
     </row>
-    <row r="108" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="75"/>
-      <c r="B108" s="82">
-        <v>5.4</v>
-      </c>
-      <c r="C108" s="82"/>
-      <c r="D108" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77">
+      <c r="B108" s="77">
+        <v>5.5</v>
+      </c>
+      <c r="C108" s="77"/>
+      <c r="D108" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76">
         <v>0</v>
       </c>
       <c r="G108" s="78" t="s">
@@ -5681,1936 +5673,1850 @@
       <c r="V108" s="39"/>
       <c r="W108" s="39"/>
       <c r="X108" s="8"/>
-      <c r="Y108" s="35"/>
+      <c r="Y108" s="9"/>
       <c r="Z108" s="8"/>
-      <c r="AA108" s="8"/>
-    </row>
-    <row r="109" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="75"/>
-      <c r="B109" s="82"/>
-      <c r="C109" s="82"/>
-      <c r="D109" s="82"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="78"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8"/>
-      <c r="O109" s="8"/>
-      <c r="P109" s="8"/>
-      <c r="Q109" s="9"/>
-      <c r="R109" s="8"/>
-      <c r="S109" s="8"/>
-      <c r="T109" s="8"/>
-      <c r="U109" s="8"/>
-      <c r="V109" s="39"/>
-      <c r="W109" s="39"/>
-      <c r="X109" s="8"/>
-      <c r="Y109" s="9"/>
-      <c r="Z109" s="8"/>
-      <c r="AA109" s="8"/>
-    </row>
-    <row r="110" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="75"/>
-      <c r="B110" s="82">
-        <v>5.5</v>
-      </c>
-      <c r="C110" s="82"/>
-      <c r="D110" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77">
-        <v>0</v>
-      </c>
-      <c r="G110" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="H110" s="8"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
-      <c r="P110" s="8"/>
-      <c r="Q110" s="9"/>
-      <c r="R110" s="8"/>
-      <c r="S110" s="8"/>
-      <c r="T110" s="8"/>
-      <c r="U110" s="8"/>
-      <c r="V110" s="39"/>
-      <c r="W110" s="39"/>
-      <c r="X110" s="8"/>
-      <c r="Y110" s="9"/>
-      <c r="Z110" s="8"/>
-      <c r="AA110" s="34"/>
-    </row>
-    <row r="111" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="106"/>
-      <c r="B111" s="107"/>
-      <c r="C111" s="107"/>
-      <c r="D111" s="107"/>
-      <c r="E111" s="101"/>
-      <c r="F111" s="101"/>
-      <c r="G111" s="108"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="19"/>
-      <c r="K111" s="19"/>
-      <c r="L111" s="19"/>
-      <c r="M111" s="19"/>
-      <c r="N111" s="19"/>
-      <c r="O111" s="19"/>
-      <c r="P111" s="19"/>
-      <c r="Q111" s="20"/>
-      <c r="R111" s="19"/>
-      <c r="S111" s="19"/>
-      <c r="T111" s="19"/>
-      <c r="U111" s="19"/>
-      <c r="V111" s="40"/>
-      <c r="W111" s="40"/>
-      <c r="X111" s="19"/>
-      <c r="Y111" s="20"/>
-      <c r="Z111" s="19"/>
-      <c r="AA111" s="19"/>
-    </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA108" s="34"/>
+    </row>
+    <row r="109" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="89"/>
+      <c r="B109" s="90"/>
+      <c r="C109" s="90"/>
+      <c r="D109" s="90"/>
+      <c r="E109" s="84"/>
+      <c r="F109" s="84"/>
+      <c r="G109" s="91"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="19"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="19"/>
+      <c r="P109" s="19"/>
+      <c r="Q109" s="20"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="19"/>
+      <c r="T109" s="19"/>
+      <c r="U109" s="19"/>
+      <c r="V109" s="40"/>
+      <c r="W109" s="40"/>
+      <c r="X109" s="19"/>
+      <c r="Y109" s="20"/>
+      <c r="Z109" s="19"/>
+      <c r="AA109" s="19"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D115" s="36"/>
+      <c r="E115" s="36"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="36"/>
-      <c r="E117" s="36"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" s="1"/>
-      <c r="B446" s="1"/>
-      <c r="C446" s="1"/>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447" s="1"/>
-      <c r="B447" s="1"/>
-      <c r="C447" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="312">
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="F98:F99"/>
+  <mergeCells count="306">
+    <mergeCell ref="A86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="A84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
     <mergeCell ref="A80:B81"/>
     <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="B98:C99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="A76:B77"/>
-    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="B76:C77"/>
     <mergeCell ref="D76:D77"/>
     <mergeCell ref="E76:E77"/>
     <mergeCell ref="F76:F77"/>
     <mergeCell ref="G76:G77"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="A100:C101"/>
-    <mergeCell ref="B104:C105"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="B108:C109"/>
-    <mergeCell ref="B110:C111"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:C107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="B90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:C97"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A92:C93"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A18:C19"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B102:C103"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="A74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B14:C15"/>
     <mergeCell ref="A4:C5"/>
@@ -7635,152 +7541,166 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B100:C101"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="B92:C93"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A90:C91"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:C53"/>
     <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
     <mergeCell ref="B44:C45"/>
     <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A50:B51"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
     <mergeCell ref="A56:B57"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
     <mergeCell ref="A60:B61"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="A70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="A74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="A82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="A88:B89"/>
-    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="A98:C99"/>
+    <mergeCell ref="B102:C103"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B106:C107"/>
+    <mergeCell ref="B108:C109"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:C105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="B88:C89"/>
     <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="A86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="A78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="B96:C97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A94:A95"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F4:F30 F32 F36:F38 F40 F90:F111">
+  <conditionalFormatting sqref="F4:F30 F32 F36:F38 F40 F88:F109">
     <cfRule type="cellIs" dxfId="23" priority="34" operator="equal">
       <formula>100</formula>
     </cfRule>
@@ -7808,7 +7728,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F38 F32 F40 F4:F30 F90:F111">
+  <conditionalFormatting sqref="F36:F38 F32 F40 F4:F30 F88:F109">
     <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7962,7 +7882,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74 F76">
+  <conditionalFormatting sqref="F74">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>100</formula>
     </cfRule>
@@ -7982,7 +7902,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:F80 F82">
+  <conditionalFormatting sqref="F76:F78 F80">
     <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
       <formula>100</formula>
     </cfRule>
@@ -8002,7 +7922,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:F86 F88">
+  <conditionalFormatting sqref="F82:F84 F86">
     <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
       <formula>100</formula>
     </cfRule>
@@ -8056,7 +7976,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F36:F38 F32 F40 F4:F30 F90:F111</xm:sqref>
+          <xm:sqref>F36:F38 F32 F40 F4:F30 F88:F109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{982B3ECA-59F0-467D-B182-B1E4F4D7FA8D}">
@@ -8176,7 +8096,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F74 F76</xm:sqref>
+          <xm:sqref>F74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93065951-09EA-4D52-A3E0-BA9DBB76332C}">
@@ -8191,7 +8111,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F78:F80 F82</xm:sqref>
+          <xm:sqref>F76:F78 F80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BFCA5482-0225-48EE-8E53-FDDF0ACCB26F}">
@@ -8206,7 +8126,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F84:F86 F88</xm:sqref>
+          <xm:sqref>F82:F84 F86</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8216,7 +8136,7 @@
           <x14:formula1>
             <xm:f>'Status '!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G32 G36:G38 G40 G4:G30 G44:G46 G48 G52:G54 G56 G58:G60 G62 G78:G80 G82 G84:G86 G88 G90:G111 G34 G50 G42 G64 G66 G68:G70 G72 G74 G76</xm:sqref>
+          <xm:sqref>G32 G36:G38 G40 G4:G30 G44:G46 G48 G52:G54 G56 G58:G60 G62 G76:G78 G80 G82:G84 G86 G88:G109 G34 G50 G42 G64 G66 G68:G70 G72 G74</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8232,27 +8152,27 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -8273,14 +8193,14 @@
       <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" customWidth="1"/>
-    <col min="3" max="22" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="3" max="22" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="23" t="s">
@@ -8344,7 +8264,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="25" t="s">
@@ -8408,7 +8328,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="112"/>
       <c r="B3" s="113" t="s">
         <v>24</v>
@@ -8434,7 +8354,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
     </row>
-    <row r="4" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="112"/>
       <c r="B4" s="113"/>
       <c r="C4" s="8"/>
@@ -8458,7 +8378,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
     </row>
-    <row r="5" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="120"/>
       <c r="B5" s="121" t="s">
         <v>95</v>
@@ -8484,7 +8404,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
     </row>
-    <row r="6" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="120"/>
       <c r="B6" s="121"/>
       <c r="C6" s="8"/>
@@ -8508,7 +8428,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
     </row>
-    <row r="7" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="118"/>
       <c r="B7" s="119" t="s">
         <v>89</v>
@@ -8534,7 +8454,7 @@
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
     </row>
-    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="118"/>
       <c r="B8" s="119"/>
       <c r="C8" s="8"/>
@@ -8558,7 +8478,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
     </row>
-    <row r="9" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="114"/>
       <c r="B9" s="116" t="s">
         <v>96</v>
@@ -8584,7 +8504,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" spans="1:22" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="115"/>
       <c r="B10" s="117"/>
       <c r="C10" s="19"/>
@@ -8608,1012 +8528,1012 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
     </row>
   </sheetData>

--- a/02_Analyse/02_Terminplanung/Terminplanung_V1.xlsx
+++ b/02_Analyse/02_Terminplanung/Terminplanung_V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b660818652cf050/03_Studium/Master/Semester 5/02_Thesis/02_Analyse/02_Terminplanung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1870" documentId="8_{D92DD50D-1DBF-4A11-8833-F91896F605F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67417AFE-040A-4B75-9B1A-196D39DC0A5F}"/>
+  <xr:revisionPtr revIDLastSave="1903" documentId="8_{D92DD50D-1DBF-4A11-8833-F91896F605F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57B3F0FE-6187-47CF-B9FB-9B2C9E828F85}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6803629-CC7A-4077-B2EA-9F52BB2D00D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{A6803629-CC7A-4077-B2EA-9F52BB2D00D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Detailplan" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Grobplan" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Detailplan!$A$1:$AA$109</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Detailplan!$A$1:$AA$115</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Grobplan!$A$1:$V$10</definedName>
-    <definedName name="Print_Area" localSheetId="0">Detailplan!$A$1:$AA$109</definedName>
+    <definedName name="Print_Area" localSheetId="0">Detailplan!$A$1:$AA$115</definedName>
     <definedName name="Print_Area" localSheetId="2">Grobplan!$A$1:$V$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="143">
   <si>
     <t>PW1</t>
   </si>
@@ -460,10 +460,19 @@
     <t>Schnittstellen der Objekte definieren</t>
   </si>
   <si>
-    <t>Umsetzung der Objekte</t>
-  </si>
-  <si>
     <t>Definieren der Anwendungs-Skills</t>
+  </si>
+  <si>
+    <t>Umsetzung von Roboter-Objekt</t>
+  </si>
+  <si>
+    <t>Umsetzung von Kraftsensor-Objekt</t>
+  </si>
+  <si>
+    <t>Umsetzung von Greifer-Objekt</t>
+  </si>
+  <si>
+    <t>Umsetzung von Vision-Objekt</t>
   </si>
 </sst>
 </file>
@@ -826,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1027,13 +1036,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1055,12 +1067,12 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1085,42 +1097,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1174,12 +1186,57 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1396,8 +1453,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8344228" y="3126499"/>
-          <a:ext cx="292698" cy="280117"/>
+          <a:off x="8346799" y="3219036"/>
+          <a:ext cx="292698" cy="292969"/>
           <a:chOff x="8334375" y="3144116"/>
           <a:chExt cx="292698" cy="282804"/>
         </a:xfrm>
@@ -1536,8 +1593,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8889223" y="3130639"/>
-          <a:ext cx="355610" cy="278461"/>
+          <a:off x="8891794" y="3223176"/>
+          <a:ext cx="355610" cy="291313"/>
           <a:chOff x="8307870" y="3144116"/>
           <a:chExt cx="355610" cy="282804"/>
         </a:xfrm>
@@ -1973,10 +2030,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA445"/>
+  <dimension ref="A1:AA451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,16 +2066,16 @@
       <c r="K1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="75" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="15" t="s">
@@ -2128,11 +2185,11 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
       <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
@@ -2207,20 +2264,20 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107">
+      <c r="A4" s="108">
         <v>1</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="27"/>
-      <c r="F4" s="110">
+      <c r="F4" s="111">
         <f>SUM(F6:F17)/6</f>
         <v>100</v>
       </c>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="110" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="46"/>
@@ -2245,13 +2302,13 @@
       <c r="AA4" s="8"/>
     </row>
     <row r="5" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="109"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="48"/>
       <c r="I5" s="49"/>
       <c r="J5" s="8"/>
@@ -2274,19 +2331,19 @@
       <c r="AA5" s="8"/>
     </row>
     <row r="6" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="77">
+      <c r="A6" s="76"/>
+      <c r="B6" s="78">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76">
+      <c r="E6" s="77"/>
+      <c r="F6" s="77">
         <v>100</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="61"/>
@@ -2311,13 +2368,13 @@
       <c r="AA6" s="8"/>
     </row>
     <row r="7" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="78"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="60"/>
       <c r="I7" s="9"/>
       <c r="J7" s="8"/>
@@ -2340,19 +2397,19 @@
       <c r="AA7" s="8"/>
     </row>
     <row r="8" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="77">
+      <c r="A8" s="76"/>
+      <c r="B8" s="78">
         <v>1.2</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76">
+      <c r="E8" s="77"/>
+      <c r="F8" s="77">
         <v>100</v>
       </c>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="61"/>
@@ -2377,13 +2434,13 @@
       <c r="AA8" s="8"/>
     </row>
     <row r="9" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="78"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="8"/>
       <c r="I9" s="60"/>
       <c r="J9" s="8"/>
@@ -2406,19 +2463,19 @@
       <c r="AA9" s="8"/>
     </row>
     <row r="10" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="77">
+      <c r="A10" s="76"/>
+      <c r="B10" s="78">
         <v>1.3</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76">
+      <c r="E10" s="77"/>
+      <c r="F10" s="77">
         <v>100</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="G10" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="61"/>
@@ -2443,13 +2500,13 @@
       <c r="AA10" s="8"/>
     </row>
     <row r="11" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="78"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="60"/>
       <c r="I11" s="64"/>
       <c r="J11" s="60"/>
@@ -2472,19 +2529,19 @@
       <c r="AA11" s="8"/>
     </row>
     <row r="12" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="77">
+      <c r="A12" s="76"/>
+      <c r="B12" s="78">
         <v>1.4</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77" t="s">
+      <c r="C12" s="78"/>
+      <c r="D12" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76">
+      <c r="E12" s="77"/>
+      <c r="F12" s="77">
         <v>100</v>
       </c>
-      <c r="G12" s="78" t="s">
+      <c r="G12" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="32"/>
@@ -2509,13 +2566,13 @@
       <c r="AA12" s="8"/>
     </row>
     <row r="13" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="78"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="79"/>
       <c r="H13" s="8"/>
       <c r="I13" s="64"/>
       <c r="J13" s="8"/>
@@ -2538,19 +2595,19 @@
       <c r="AA13" s="8"/>
     </row>
     <row r="14" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
-      <c r="B14" s="77">
+      <c r="A14" s="76"/>
+      <c r="B14" s="78">
         <v>1.5</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76">
+      <c r="E14" s="77"/>
+      <c r="F14" s="77">
         <v>100</v>
       </c>
-      <c r="G14" s="78" t="s">
+      <c r="G14" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="8"/>
@@ -2575,13 +2632,13 @@
       <c r="AA14" s="8"/>
     </row>
     <row r="15" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="78"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="79"/>
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
       <c r="J15" s="60"/>
@@ -2604,19 +2661,19 @@
       <c r="AA15" s="8"/>
     </row>
     <row r="16" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
-      <c r="B16" s="82">
+      <c r="A16" s="76"/>
+      <c r="B16" s="84">
         <v>1.6</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82" t="s">
+      <c r="C16" s="84"/>
+      <c r="D16" s="84" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="101">
+      <c r="F16" s="100">
         <v>100</v>
       </c>
-      <c r="G16" s="78" t="s">
+      <c r="G16" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="8"/>
@@ -2641,13 +2698,13 @@
       <c r="AA16" s="8"/>
     </row>
     <row r="17" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="28"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="78"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
       <c r="J17" s="60"/>
@@ -2670,20 +2727,20 @@
       <c r="AA17" s="8"/>
     </row>
     <row r="18" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103">
+      <c r="A18" s="102">
         <v>2</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102" t="s">
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101" t="s">
         <v>86</v>
       </c>
       <c r="E18" s="37"/>
-      <c r="F18" s="97">
+      <c r="F18" s="96">
         <f>SUM(F20:F25)/3</f>
         <v>100</v>
       </c>
-      <c r="G18" s="96" t="s">
+      <c r="G18" s="95" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="30"/>
@@ -2708,13 +2765,13 @@
       <c r="AA18" s="8"/>
     </row>
     <row r="19" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="103"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="37"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="95"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
       <c r="J19" s="51"/>
@@ -2737,19 +2794,19 @@
       <c r="AA19" s="8"/>
     </row>
     <row r="20" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
-      <c r="B20" s="77">
+      <c r="A20" s="76"/>
+      <c r="B20" s="78">
         <v>2.1</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77" t="s">
+      <c r="C20" s="78"/>
+      <c r="D20" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76">
+      <c r="E20" s="77"/>
+      <c r="F20" s="77">
         <v>100</v>
       </c>
-      <c r="G20" s="78" t="s">
+      <c r="G20" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H20" s="32"/>
@@ -2774,13 +2831,13 @@
       <c r="AA20" s="8"/>
     </row>
     <row r="21" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="75"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="78"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="79"/>
       <c r="H21" s="8"/>
       <c r="I21" s="64"/>
       <c r="J21" s="8"/>
@@ -2803,19 +2860,19 @@
       <c r="AA21" s="8"/>
     </row>
     <row r="22" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
-      <c r="B22" s="77">
+      <c r="A22" s="76"/>
+      <c r="B22" s="78">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77" t="s">
+      <c r="C22" s="78"/>
+      <c r="D22" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76">
+      <c r="E22" s="77"/>
+      <c r="F22" s="77">
         <v>100</v>
       </c>
-      <c r="G22" s="78" t="s">
+      <c r="G22" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H22" s="32"/>
@@ -2840,13 +2897,13 @@
       <c r="AA22" s="8"/>
     </row>
     <row r="23" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="75"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="78"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="79"/>
       <c r="H23" s="8"/>
       <c r="I23" s="64"/>
       <c r="J23" s="8"/>
@@ -2869,19 +2926,19 @@
       <c r="AA23" s="8"/>
     </row>
     <row r="24" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75"/>
-      <c r="B24" s="82">
+      <c r="A24" s="76"/>
+      <c r="B24" s="84">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82" t="s">
+      <c r="C24" s="84"/>
+      <c r="D24" s="84" t="s">
         <v>94</v>
       </c>
       <c r="E24" s="28"/>
-      <c r="F24" s="101">
+      <c r="F24" s="100">
         <v>100</v>
       </c>
-      <c r="G24" s="78" t="s">
+      <c r="G24" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="8"/>
@@ -2906,13 +2963,13 @@
       <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
       <c r="E25" s="28"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="78"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="79"/>
       <c r="H25" s="8"/>
       <c r="I25" s="9"/>
       <c r="J25" s="60"/>
@@ -2935,20 +2992,20 @@
       <c r="AA25" s="8"/>
     </row>
     <row r="26" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="92">
+      <c r="A26" s="103">
         <v>3</v>
       </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93" t="s">
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104" t="s">
         <v>89</v>
       </c>
       <c r="E26" s="54"/>
-      <c r="F26" s="100">
-        <f>SUM(F28,F36,F44,F52,F58,F76,F82,F68)/8</f>
-        <v>61.041666666666664</v>
-      </c>
-      <c r="G26" s="99" t="s">
+      <c r="F26" s="99">
+        <f>SUM(F28,F36,F44,F52,F58,F82,F88,F68)/8</f>
+        <v>65.833333333333329</v>
+      </c>
+      <c r="G26" s="98" t="s">
         <v>38</v>
       </c>
       <c r="H26" s="30"/>
@@ -2973,13 +3030,13 @@
       <c r="AA26" s="8"/>
     </row>
     <row r="27" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="92"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
       <c r="E27" s="54"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="8"/>
       <c r="I27" s="9"/>
       <c r="J27" s="56"/>
@@ -3002,20 +3059,20 @@
       <c r="AA27" s="8"/>
     </row>
     <row r="28" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="75"/>
-      <c r="B28" s="94">
+      <c r="A28" s="76"/>
+      <c r="B28" s="93">
         <v>3.1</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94" t="s">
+      <c r="C28" s="93"/>
+      <c r="D28" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95">
+      <c r="E28" s="94"/>
+      <c r="F28" s="94">
         <f>SUM(F30:F35)/3</f>
         <v>100</v>
       </c>
-      <c r="G28" s="104" t="s">
+      <c r="G28" s="105" t="s">
         <v>38</v>
       </c>
       <c r="H28" s="32"/>
@@ -3040,13 +3097,13 @@
       <c r="AA28" s="8"/>
     </row>
     <row r="29" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="75"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="104"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="105"/>
       <c r="H29" s="8"/>
       <c r="I29" s="9"/>
       <c r="J29" s="44"/>
@@ -3069,19 +3126,19 @@
       <c r="AA29" s="8"/>
     </row>
     <row r="30" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="76" t="s">
+      <c r="A30" s="76"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76">
+      <c r="E30" s="77"/>
+      <c r="F30" s="77">
         <v>100</v>
       </c>
-      <c r="G30" s="78" t="s">
+      <c r="G30" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H30" s="8"/>
@@ -3106,13 +3163,13 @@
       <c r="AA30" s="8"/>
     </row>
     <row r="31" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="75"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="78"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="79"/>
       <c r="H31" s="8"/>
       <c r="I31" s="9"/>
       <c r="J31" s="60"/>
@@ -3135,19 +3192,19 @@
       <c r="AA31" s="8"/>
     </row>
     <row r="32" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="75"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="76" t="s">
+      <c r="A32" s="76"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="77" t="s">
+      <c r="D32" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76">
+      <c r="E32" s="77"/>
+      <c r="F32" s="77">
         <v>100</v>
       </c>
-      <c r="G32" s="78" t="s">
+      <c r="G32" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H32" s="8"/>
@@ -3172,13 +3229,13 @@
       <c r="AA32" s="8"/>
     </row>
     <row r="33" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="75"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="78"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="79"/>
       <c r="H33" s="8"/>
       <c r="I33" s="9"/>
       <c r="J33" s="8"/>
@@ -3201,19 +3258,19 @@
       <c r="AA33" s="8"/>
     </row>
     <row r="34" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="76" t="s">
+      <c r="A34" s="76"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="77" t="s">
+      <c r="D34" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76">
+      <c r="E34" s="77"/>
+      <c r="F34" s="77">
         <v>100</v>
       </c>
-      <c r="G34" s="78" t="s">
+      <c r="G34" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H34" s="8"/>
@@ -3238,13 +3295,13 @@
       <c r="AA34" s="8"/>
     </row>
     <row r="35" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="78"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="79"/>
       <c r="H35" s="8"/>
       <c r="I35" s="9"/>
       <c r="J35" s="8"/>
@@ -3267,20 +3324,20 @@
       <c r="AA35" s="8"/>
     </row>
     <row r="36" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="75"/>
-      <c r="B36" s="94">
+      <c r="A36" s="76"/>
+      <c r="B36" s="93">
         <v>3.2</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94" t="s">
+      <c r="C36" s="93"/>
+      <c r="D36" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95">
+      <c r="E36" s="94"/>
+      <c r="F36" s="94">
         <f>SUM(F38:F43)/3</f>
         <v>100</v>
       </c>
-      <c r="G36" s="104" t="s">
+      <c r="G36" s="105" t="s">
         <v>40</v>
       </c>
       <c r="H36" s="32"/>
@@ -3305,13 +3362,13 @@
       <c r="AA36" s="8"/>
     </row>
     <row r="37" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="75"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="104"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="105"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="44"/>
@@ -3334,19 +3391,19 @@
       <c r="AA37" s="8"/>
     </row>
     <row r="38" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="75"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="76" t="s">
+      <c r="A38" s="76"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="77" t="s">
+      <c r="D38" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76">
+      <c r="E38" s="77"/>
+      <c r="F38" s="77">
         <v>100</v>
       </c>
-      <c r="G38" s="78" t="s">
+      <c r="G38" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H38" s="8"/>
@@ -3371,13 +3428,13 @@
       <c r="AA38" s="8"/>
     </row>
     <row r="39" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="75"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="78"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="79"/>
       <c r="H39" s="8"/>
       <c r="I39" s="9"/>
       <c r="J39" s="60"/>
@@ -3400,19 +3457,19 @@
       <c r="AA39" s="8"/>
     </row>
     <row r="40" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="75"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="76" t="s">
+      <c r="A40" s="76"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76">
+      <c r="E40" s="77"/>
+      <c r="F40" s="77">
         <v>100</v>
       </c>
-      <c r="G40" s="78" t="s">
+      <c r="G40" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H40" s="8"/>
@@ -3437,13 +3494,13 @@
       <c r="AA40" s="8"/>
     </row>
     <row r="41" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="75"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="78"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="79"/>
       <c r="H41" s="8"/>
       <c r="I41" s="9"/>
       <c r="J41" s="60"/>
@@ -3466,19 +3523,19 @@
       <c r="AA41" s="8"/>
     </row>
     <row r="42" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="75"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="76" t="s">
+      <c r="A42" s="76"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76">
+      <c r="E42" s="77"/>
+      <c r="F42" s="77">
         <v>100</v>
       </c>
-      <c r="G42" s="78" t="s">
+      <c r="G42" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H42" s="8"/>
@@ -3503,13 +3560,13 @@
       <c r="AA42" s="8"/>
     </row>
     <row r="43" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="75"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="78"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="79"/>
       <c r="H43" s="8"/>
       <c r="I43" s="9"/>
       <c r="J43" s="60"/>
@@ -3532,20 +3589,20 @@
       <c r="AA43" s="8"/>
     </row>
     <row r="44" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="75"/>
-      <c r="B44" s="94">
+      <c r="A44" s="76"/>
+      <c r="B44" s="93">
         <v>3.3</v>
       </c>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94" t="s">
+      <c r="C44" s="93"/>
+      <c r="D44" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="E44" s="111"/>
-      <c r="F44" s="95">
+      <c r="E44" s="112"/>
+      <c r="F44" s="94">
         <f>SUM(F46:F51)/3</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="G44" s="104" t="s">
+      <c r="G44" s="105" t="s">
         <v>38</v>
       </c>
       <c r="H44" s="32"/>
@@ -3570,13 +3627,13 @@
       <c r="AA44" s="8"/>
     </row>
     <row r="45" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="75"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="104"/>
+      <c r="A45" s="76"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="105"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -3599,21 +3656,21 @@
       <c r="AA45" s="8"/>
     </row>
     <row r="46" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="75"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="76" t="s">
+      <c r="A46" s="76"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="77" t="s">
+      <c r="D46" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="76" t="s">
+      <c r="E46" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="76">
+      <c r="F46" s="77">
         <v>100</v>
       </c>
-      <c r="G46" s="78" t="s">
+      <c r="G46" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H46" s="8"/>
@@ -3638,13 +3695,13 @@
       <c r="AA46" s="8"/>
     </row>
     <row r="47" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="75"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="78"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="79"/>
       <c r="H47" s="8"/>
       <c r="I47" s="9"/>
       <c r="J47" s="8"/>
@@ -3667,19 +3724,19 @@
       <c r="AA47" s="8"/>
     </row>
     <row r="48" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="75"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="76" t="s">
+      <c r="A48" s="76"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="77" t="s">
+      <c r="D48" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76">
+      <c r="E48" s="77"/>
+      <c r="F48" s="77">
         <v>100</v>
       </c>
-      <c r="G48" s="78" t="s">
+      <c r="G48" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H48" s="8"/>
@@ -3704,13 +3761,13 @@
       <c r="AA48" s="8"/>
     </row>
     <row r="49" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="75"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="78"/>
+      <c r="A49" s="76"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="79"/>
       <c r="H49" s="8"/>
       <c r="I49" s="9"/>
       <c r="J49" s="8"/>
@@ -3733,21 +3790,21 @@
       <c r="AA49" s="8"/>
     </row>
     <row r="50" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="75"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="76" t="s">
+      <c r="A50" s="76"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="77" t="s">
+      <c r="D50" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="E50" s="76" t="s">
+      <c r="E50" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="F50" s="76">
+      <c r="F50" s="77">
         <v>50</v>
       </c>
-      <c r="G50" s="78" t="s">
+      <c r="G50" s="79" t="s">
         <v>38</v>
       </c>
       <c r="H50" s="8"/>
@@ -3772,13 +3829,13 @@
       <c r="AA50" s="8"/>
     </row>
     <row r="51" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="75"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="78"/>
+      <c r="A51" s="76"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="79"/>
       <c r="H51" s="8"/>
       <c r="I51" s="9"/>
       <c r="J51" s="8"/>
@@ -3801,20 +3858,20 @@
       <c r="AA51" s="8"/>
     </row>
     <row r="52" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="75"/>
-      <c r="B52" s="94">
+      <c r="A52" s="76"/>
+      <c r="B52" s="93">
         <v>3.4</v>
       </c>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94" t="s">
+      <c r="C52" s="93"/>
+      <c r="D52" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95">
+      <c r="E52" s="94"/>
+      <c r="F52" s="94">
         <f>SUM(F54:F57)/2</f>
         <v>95</v>
       </c>
-      <c r="G52" s="104" t="s">
+      <c r="G52" s="105" t="s">
         <v>38</v>
       </c>
       <c r="H52" s="32"/>
@@ -3838,13 +3895,13 @@
       <c r="AA52" s="8"/>
     </row>
     <row r="53" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="75"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="104"/>
+      <c r="A53" s="76"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="105"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -3866,21 +3923,21 @@
       <c r="AA53" s="8"/>
     </row>
     <row r="54" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="75"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="76" t="s">
+      <c r="A54" s="76"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="77" t="s">
+      <c r="D54" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="76" t="s">
+      <c r="E54" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="76">
+      <c r="F54" s="77">
         <v>100</v>
       </c>
-      <c r="G54" s="78" t="s">
+      <c r="G54" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H54" s="8"/>
@@ -3904,13 +3961,13 @@
       <c r="AA54" s="8"/>
     </row>
     <row r="55" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="75"/>
-      <c r="B55" s="79"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="78"/>
+      <c r="A55" s="76"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="79"/>
       <c r="H55" s="8"/>
       <c r="I55" s="9"/>
       <c r="J55" s="8"/>
@@ -3933,19 +3990,19 @@
       <c r="AA55" s="8"/>
     </row>
     <row r="56" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="75"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="76" t="s">
+      <c r="A56" s="76"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="77" t="s">
+      <c r="D56" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76">
+      <c r="E56" s="77"/>
+      <c r="F56" s="77">
         <v>90</v>
       </c>
-      <c r="G56" s="78" t="s">
+      <c r="G56" s="79" t="s">
         <v>38</v>
       </c>
       <c r="H56" s="8"/>
@@ -3970,13 +4027,13 @@
       <c r="AA56" s="8"/>
     </row>
     <row r="57" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="75"/>
-      <c r="B57" s="79"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="78"/>
+      <c r="A57" s="76"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="79"/>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
       <c r="J57" s="8"/>
@@ -3999,20 +4056,20 @@
       <c r="AA57" s="8"/>
     </row>
     <row r="58" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="75"/>
-      <c r="B58" s="94">
+      <c r="A58" s="76"/>
+      <c r="B58" s="93">
         <v>3.5</v>
       </c>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94" t="s">
+      <c r="C58" s="93"/>
+      <c r="D58" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="95"/>
-      <c r="F58" s="95">
+      <c r="E58" s="94"/>
+      <c r="F58" s="94">
         <f>SUM(F60:F67)/4</f>
         <v>80</v>
       </c>
-      <c r="G58" s="104" t="s">
+      <c r="G58" s="105" t="s">
         <v>38</v>
       </c>
       <c r="H58" s="32"/>
@@ -4036,13 +4093,13 @@
       <c r="AA58" s="8"/>
     </row>
     <row r="59" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="75"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="95"/>
-      <c r="F59" s="95"/>
-      <c r="G59" s="104"/>
+      <c r="A59" s="76"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="94"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="105"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -4064,19 +4121,19 @@
       <c r="AA59" s="8"/>
     </row>
     <row r="60" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="75"/>
-      <c r="B60" s="79"/>
-      <c r="C60" s="76" t="s">
+      <c r="A60" s="76"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="77" t="s">
+      <c r="D60" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76">
+      <c r="E60" s="77"/>
+      <c r="F60" s="77">
         <v>100</v>
       </c>
-      <c r="G60" s="78" t="s">
+      <c r="G60" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H60" s="8"/>
@@ -4100,18 +4157,18 @@
       <c r="AA60" s="8"/>
     </row>
     <row r="61" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="75"/>
-      <c r="B61" s="79"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="78"/>
+      <c r="A61" s="76"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="79"/>
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
-      <c r="L61" s="74"/>
+      <c r="L61" s="73"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
@@ -4129,19 +4186,19 @@
       <c r="AA61" s="8"/>
     </row>
     <row r="62" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="75"/>
-      <c r="B62" s="79"/>
-      <c r="C62" s="76" t="s">
+      <c r="A62" s="76"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76">
+      <c r="D62" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77">
         <v>100</v>
       </c>
-      <c r="G62" s="78" t="s">
+      <c r="G62" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H62" s="8"/>
@@ -4165,18 +4222,18 @@
       <c r="AA62" s="8"/>
     </row>
     <row r="63" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="75"/>
-      <c r="B63" s="79"/>
-      <c r="C63" s="76"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="78"/>
+      <c r="A63" s="76"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="79"/>
       <c r="H63" s="8"/>
       <c r="I63" s="9"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
-      <c r="L63" s="74"/>
+      <c r="L63" s="73"/>
       <c r="M63" s="60"/>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
@@ -4194,19 +4251,19 @@
       <c r="AA63" s="8"/>
     </row>
     <row r="64" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="75"/>
-      <c r="B64" s="79"/>
-      <c r="C64" s="76" t="s">
+      <c r="A64" s="76"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="D64" s="77" t="s">
+      <c r="D64" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76">
+      <c r="E64" s="77"/>
+      <c r="F64" s="77">
         <v>100</v>
       </c>
-      <c r="G64" s="78" t="s">
+      <c r="G64" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H64" s="8"/>
@@ -4230,18 +4287,18 @@
       <c r="AA64" s="8"/>
     </row>
     <row r="65" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="75"/>
-      <c r="B65" s="79"/>
-      <c r="C65" s="76"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="78"/>
+      <c r="A65" s="76"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="79"/>
       <c r="H65" s="8"/>
       <c r="I65" s="9"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
-      <c r="L65" s="74"/>
+      <c r="L65" s="73"/>
       <c r="M65" s="60"/>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
@@ -4259,19 +4316,19 @@
       <c r="AA65" s="8"/>
     </row>
     <row r="66" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="75"/>
-      <c r="B66" s="79"/>
-      <c r="C66" s="76" t="s">
+      <c r="A66" s="76"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="D66" s="77" t="s">
+      <c r="D66" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76">
+      <c r="E66" s="77"/>
+      <c r="F66" s="77">
         <v>20</v>
       </c>
-      <c r="G66" s="78" t="s">
+      <c r="G66" s="79" t="s">
         <v>37</v>
       </c>
       <c r="H66" s="8"/>
@@ -4295,13 +4352,13 @@
       <c r="AA66" s="8"/>
     </row>
     <row r="67" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="75"/>
-      <c r="B67" s="79"/>
-      <c r="C67" s="76"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="76"/>
-      <c r="F67" s="76"/>
-      <c r="G67" s="78"/>
+      <c r="A67" s="76"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="79"/>
       <c r="H67" s="8"/>
       <c r="I67" s="9"/>
       <c r="J67" s="8"/>
@@ -4324,20 +4381,20 @@
       <c r="AA67" s="8"/>
     </row>
     <row r="68" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="75"/>
-      <c r="B68" s="94">
+      <c r="A68" s="76"/>
+      <c r="B68" s="93">
         <v>3.6</v>
       </c>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94" t="s">
+      <c r="C68" s="93"/>
+      <c r="D68" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="E68" s="95"/>
-      <c r="F68" s="95">
-        <f>SUM(F70:F75)/4</f>
-        <v>30</v>
-      </c>
-      <c r="G68" s="104" t="s">
+      <c r="E68" s="94"/>
+      <c r="F68" s="94">
+        <f>SUM(F70:F81)/6</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="G68" s="105" t="s">
         <v>37</v>
       </c>
       <c r="H68" s="32"/>
@@ -4350,8 +4407,8 @@
       <c r="O68" s="44"/>
       <c r="P68" s="44"/>
       <c r="Q68" s="44"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="44"/>
       <c r="T68" s="8"/>
       <c r="U68" s="8"/>
       <c r="V68" s="39"/>
@@ -4362,13 +4419,13 @@
       <c r="AA68" s="8"/>
     </row>
     <row r="69" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="75"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="95"/>
-      <c r="F69" s="95"/>
-      <c r="G69" s="104"/>
+      <c r="A69" s="76"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="93"/>
+      <c r="E69" s="94"/>
+      <c r="F69" s="94"/>
+      <c r="G69" s="105"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -4379,8 +4436,8 @@
       <c r="O69" s="44"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="44"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
+      <c r="R69" s="44"/>
+      <c r="S69" s="44"/>
       <c r="T69" s="8"/>
       <c r="U69" s="8"/>
       <c r="V69" s="39"/>
@@ -4391,19 +4448,19 @@
       <c r="AA69" s="8"/>
     </row>
     <row r="70" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="75"/>
-      <c r="B70" s="79"/>
-      <c r="C70" s="76" t="s">
+      <c r="A70" s="76"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="D70" s="77" t="s">
+      <c r="D70" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76">
+      <c r="E70" s="77"/>
+      <c r="F70" s="77">
         <v>100</v>
       </c>
-      <c r="G70" s="78" t="s">
+      <c r="G70" s="79" t="s">
         <v>40</v>
       </c>
       <c r="H70" s="8"/>
@@ -4428,13 +4485,13 @@
       <c r="AA70" s="8"/>
     </row>
     <row r="71" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="75"/>
-      <c r="B71" s="79"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="78"/>
+      <c r="A71" s="76"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="79"/>
       <c r="H71" s="8"/>
       <c r="I71" s="9"/>
       <c r="J71" s="8"/>
@@ -4457,20 +4514,20 @@
       <c r="AA71" s="8"/>
     </row>
     <row r="72" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="75"/>
-      <c r="B72" s="79"/>
-      <c r="C72" s="76" t="s">
+      <c r="A72" s="76"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="77" t="s">
+      <c r="D72" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="E72" s="76"/>
-      <c r="F72" s="76">
-        <v>10</v>
-      </c>
-      <c r="G72" s="78" t="s">
-        <v>37</v>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77">
+        <v>100</v>
+      </c>
+      <c r="G72" s="79" t="s">
+        <v>38</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="9"/>
@@ -4494,20 +4551,20 @@
       <c r="AA72" s="8"/>
     </row>
     <row r="73" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="75"/>
-      <c r="B73" s="79"/>
-      <c r="C73" s="76"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="78"/>
+      <c r="A73" s="76"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="79"/>
       <c r="H73" s="8"/>
       <c r="I73" s="9"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="M73" s="60"/>
-      <c r="N73" s="8"/>
+      <c r="N73" s="60"/>
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
       <c r="Q73" s="9"/>
@@ -4523,20 +4580,20 @@
       <c r="AA73" s="8"/>
     </row>
     <row r="74" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="75"/>
-      <c r="B74" s="79"/>
-      <c r="C74" s="76" t="s">
+      <c r="A74" s="76"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="D74" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="E74" s="76"/>
-      <c r="F74" s="76">
-        <v>10</v>
-      </c>
-      <c r="G74" s="78" t="s">
-        <v>37</v>
+      <c r="D74" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="77"/>
+      <c r="F74" s="77">
+        <v>80</v>
+      </c>
+      <c r="G74" s="79" t="s">
+        <v>38</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="9"/>
@@ -4560,20 +4617,20 @@
       <c r="AA74" s="8"/>
     </row>
     <row r="75" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="75"/>
-      <c r="B75" s="79"/>
-      <c r="C75" s="76"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="76"/>
-      <c r="F75" s="76"/>
-      <c r="G75" s="78"/>
+      <c r="A75" s="76"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="79"/>
       <c r="H75" s="8"/>
       <c r="I75" s="9"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="60"/>
-      <c r="N75" s="8"/>
+      <c r="N75" s="123"/>
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
       <c r="Q75" s="9"/>
@@ -4589,35 +4646,34 @@
       <c r="AA75" s="8"/>
     </row>
     <row r="76" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="75"/>
-      <c r="B76" s="94">
-        <v>3.7</v>
-      </c>
-      <c r="C76" s="94"/>
-      <c r="D76" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95">
-        <f>SUM(F78:F81)/2</f>
-        <v>0</v>
-      </c>
-      <c r="G76" s="104" t="s">
-        <v>37</v>
-      </c>
-      <c r="H76" s="32"/>
-      <c r="I76" s="33"/>
-      <c r="J76" s="32"/>
+      <c r="A76" s="76"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77">
+        <v>90</v>
+      </c>
+      <c r="G76" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="H76" s="8"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="44"/>
-      <c r="P76" s="44"/>
-      <c r="Q76" s="52"/>
-      <c r="R76" s="44"/>
-      <c r="S76" s="44"/>
-      <c r="T76" s="44"/>
+      <c r="N76" s="53"/>
+      <c r="O76" s="53"/>
+      <c r="P76" s="53"/>
+      <c r="Q76" s="69"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
       <c r="U76" s="8"/>
       <c r="V76" s="39"/>
       <c r="W76" s="39"/>
@@ -4627,26 +4683,26 @@
       <c r="AA76" s="8"/>
     </row>
     <row r="77" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="75"/>
-      <c r="B77" s="94"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="95"/>
-      <c r="F77" s="95"/>
-      <c r="G77" s="104"/>
+      <c r="A77" s="76"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="79"/>
       <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
+      <c r="I77" s="9"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="44"/>
-      <c r="P77" s="44"/>
-      <c r="Q77" s="52"/>
-      <c r="R77" s="44"/>
-      <c r="S77" s="44"/>
-      <c r="T77" s="44"/>
+      <c r="M77" s="123"/>
+      <c r="N77" s="60"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
       <c r="U77" s="8"/>
       <c r="V77" s="39"/>
       <c r="W77" s="39"/>
@@ -4656,18 +4712,20 @@
       <c r="AA77" s="8"/>
     </row>
     <row r="78" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="75"/>
-      <c r="B78" s="79"/>
-      <c r="C78" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76">
-        <v>0</v>
-      </c>
-      <c r="G78" s="78" t="s">
-        <v>37</v>
+      <c r="A78" s="76"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77">
+        <v>30</v>
+      </c>
+      <c r="G78" s="79" t="s">
+        <v>38</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="9"/>
@@ -4675,10 +4733,10 @@
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="9"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="53"/>
+      <c r="P78" s="53"/>
+      <c r="Q78" s="69"/>
       <c r="R78" s="8"/>
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
@@ -4691,21 +4749,21 @@
       <c r="AA78" s="8"/>
     </row>
     <row r="79" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="75"/>
-      <c r="B79" s="79"/>
-      <c r="C79" s="76"/>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="78"/>
+      <c r="A79" s="76"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="79"/>
       <c r="H79" s="8"/>
       <c r="I79" s="9"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
+      <c r="M79" s="123"/>
+      <c r="N79" s="60"/>
+      <c r="O79" s="60"/>
       <c r="P79" s="8"/>
       <c r="Q79" s="9"/>
       <c r="R79" s="8"/>
@@ -4720,17 +4778,19 @@
       <c r="AA79" s="8"/>
     </row>
     <row r="80" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="75"/>
-      <c r="B80" s="79"/>
-      <c r="C80" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="D80" s="76"/>
-      <c r="E80" s="76"/>
-      <c r="F80" s="76">
-        <v>0</v>
-      </c>
-      <c r="G80" s="78" t="s">
+      <c r="A80" s="76"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="E80" s="77"/>
+      <c r="F80" s="77">
+        <v>10</v>
+      </c>
+      <c r="G80" s="79" t="s">
         <v>37</v>
       </c>
       <c r="H80" s="8"/>
@@ -4739,12 +4799,12 @@
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
+      <c r="N80" s="123"/>
+      <c r="O80" s="123"/>
+      <c r="P80" s="53"/>
+      <c r="Q80" s="69"/>
+      <c r="R80" s="53"/>
+      <c r="S80" s="53"/>
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
       <c r="V80" s="39"/>
@@ -4755,20 +4815,20 @@
       <c r="AA80" s="8"/>
     </row>
     <row r="81" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="75"/>
-      <c r="B81" s="79"/>
-      <c r="C81" s="76"/>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="78"/>
+      <c r="A81" s="76"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="77"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="77"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="79"/>
       <c r="H81" s="8"/>
       <c r="I81" s="9"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
+      <c r="M81" s="123"/>
+      <c r="N81" s="123"/>
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
       <c r="Q81" s="9"/>
@@ -4784,20 +4844,20 @@
       <c r="AA81" s="8"/>
     </row>
     <row r="82" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="75"/>
-      <c r="B82" s="94">
-        <v>3.8</v>
-      </c>
-      <c r="C82" s="94"/>
-      <c r="D82" s="94" t="s">
-        <v>110</v>
-      </c>
-      <c r="E82" s="95"/>
-      <c r="F82" s="95">
-        <f>SUM(F84:F87)/3</f>
+      <c r="A82" s="76"/>
+      <c r="B82" s="93">
+        <v>3.7</v>
+      </c>
+      <c r="C82" s="93"/>
+      <c r="D82" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82" s="94"/>
+      <c r="F82" s="94">
+        <f>SUM(F84:F87)/2</f>
         <v>0</v>
       </c>
-      <c r="G82" s="104" t="s">
+      <c r="G82" s="105" t="s">
         <v>37</v>
       </c>
       <c r="H82" s="32"/>
@@ -4807,12 +4867,12 @@
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
       <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
+      <c r="O82" s="44"/>
+      <c r="P82" s="44"/>
+      <c r="Q82" s="52"/>
+      <c r="R82" s="44"/>
+      <c r="S82" s="44"/>
+      <c r="T82" s="44"/>
       <c r="U82" s="8"/>
       <c r="V82" s="39"/>
       <c r="W82" s="39"/>
@@ -4822,13 +4882,13 @@
       <c r="AA82" s="8"/>
     </row>
     <row r="83" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="75"/>
-      <c r="B83" s="94"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="95"/>
-      <c r="F83" s="95"/>
-      <c r="G83" s="104"/>
+      <c r="A83" s="76"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="93"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="94"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="105"/>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
@@ -4836,12 +4896,12 @@
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
+      <c r="O83" s="44"/>
+      <c r="P83" s="44"/>
+      <c r="Q83" s="52"/>
+      <c r="R83" s="44"/>
+      <c r="S83" s="44"/>
+      <c r="T83" s="44"/>
       <c r="U83" s="8"/>
       <c r="V83" s="39"/>
       <c r="W83" s="39"/>
@@ -4851,17 +4911,17 @@
       <c r="AA83" s="8"/>
     </row>
     <row r="84" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="75"/>
-      <c r="B84" s="79"/>
-      <c r="C84" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="76">
+      <c r="A84" s="76"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" s="77"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="77">
         <v>0</v>
       </c>
-      <c r="G84" s="78" t="s">
+      <c r="G84" s="79" t="s">
         <v>37</v>
       </c>
       <c r="H84" s="8"/>
@@ -4886,13 +4946,13 @@
       <c r="AA84" s="8"/>
     </row>
     <row r="85" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="75"/>
-      <c r="B85" s="79"/>
-      <c r="C85" s="76"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="78"/>
+      <c r="A85" s="76"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="79"/>
       <c r="H85" s="8"/>
       <c r="I85" s="9"/>
       <c r="J85" s="8"/>
@@ -4915,17 +4975,17 @@
       <c r="AA85" s="8"/>
     </row>
     <row r="86" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="75"/>
-      <c r="B86" s="79"/>
-      <c r="C86" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="D86" s="76"/>
-      <c r="E86" s="76"/>
-      <c r="F86" s="76">
+      <c r="A86" s="76"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" s="77"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77">
         <v>0</v>
       </c>
-      <c r="G86" s="78" t="s">
+      <c r="G86" s="79" t="s">
         <v>37</v>
       </c>
       <c r="H86" s="8"/>
@@ -4950,13 +5010,13 @@
       <c r="AA86" s="8"/>
     </row>
     <row r="87" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="75"/>
-      <c r="B87" s="79"/>
-      <c r="C87" s="76"/>
-      <c r="D87" s="76"/>
-      <c r="E87" s="76"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="78"/>
+      <c r="A87" s="76"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="79"/>
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
       <c r="J87" s="8"/>
@@ -4979,24 +5039,25 @@
       <c r="AA87" s="8"/>
     </row>
     <row r="88" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="75"/>
-      <c r="B88" s="82">
+      <c r="A88" s="76"/>
+      <c r="B88" s="93">
         <v>3.8</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="E88" s="28"/>
-      <c r="F88" s="101">
+      <c r="C88" s="93"/>
+      <c r="D88" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="E88" s="94"/>
+      <c r="F88" s="94">
+        <f>SUM(F90:F93)/3</f>
         <v>0</v>
       </c>
-      <c r="G88" s="78" t="s">
+      <c r="G88" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="H88" s="8"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="8"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="32"/>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
@@ -5016,15 +5077,15 @@
       <c r="AA88" s="8"/>
     </row>
     <row r="89" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="75"/>
-      <c r="B89" s="82"/>
-      <c r="C89" s="82"/>
-      <c r="D89" s="82"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="101"/>
-      <c r="G89" s="78"/>
+      <c r="A89" s="76"/>
+      <c r="B89" s="93"/>
+      <c r="C89" s="93"/>
+      <c r="D89" s="93"/>
+      <c r="E89" s="94"/>
+      <c r="F89" s="94"/>
+      <c r="G89" s="105"/>
       <c r="H89" s="8"/>
-      <c r="I89" s="9"/>
+      <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
@@ -5045,25 +5106,22 @@
       <c r="AA89" s="8"/>
     </row>
     <row r="90" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="98">
-        <v>4</v>
-      </c>
-      <c r="B90" s="83"/>
-      <c r="C90" s="83"/>
-      <c r="D90" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="E90" s="38"/>
-      <c r="F90" s="80">
-        <f>SUM(F92:F97)/6</f>
+      <c r="A90" s="76"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D90" s="77"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77">
         <v>0</v>
       </c>
-      <c r="G90" s="81" t="s">
+      <c r="G90" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="H90" s="30"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="30"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
@@ -5078,18 +5136,18 @@
       <c r="V90" s="39"/>
       <c r="W90" s="39"/>
       <c r="X90" s="8"/>
-      <c r="Y90" s="43"/>
+      <c r="Y90" s="9"/>
       <c r="Z90" s="8"/>
       <c r="AA90" s="8"/>
     </row>
     <row r="91" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="98"/>
-      <c r="B91" s="83"/>
-      <c r="C91" s="83"/>
-      <c r="D91" s="83"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="80"/>
-      <c r="G91" s="81"/>
+      <c r="A91" s="76"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="79"/>
       <c r="H91" s="8"/>
       <c r="I91" s="9"/>
       <c r="J91" s="8"/>
@@ -5107,27 +5165,25 @@
       <c r="V91" s="39"/>
       <c r="W91" s="39"/>
       <c r="X91" s="8"/>
-      <c r="Y91" s="43"/>
+      <c r="Y91" s="9"/>
       <c r="Z91" s="8"/>
       <c r="AA91" s="8"/>
     </row>
     <row r="92" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="75"/>
-      <c r="B92" s="77">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C92" s="77"/>
-      <c r="D92" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="E92" s="76"/>
-      <c r="F92" s="76">
+      <c r="A92" s="76"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="D92" s="77"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="77">
         <v>0</v>
       </c>
-      <c r="G92" s="78" t="s">
+      <c r="G92" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="H92" s="32"/>
+      <c r="H92" s="8"/>
       <c r="I92" s="9"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -5149,13 +5205,13 @@
       <c r="AA92" s="8"/>
     </row>
     <row r="93" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="75"/>
-      <c r="B93" s="77"/>
+      <c r="A93" s="76"/>
+      <c r="B93" s="80"/>
       <c r="C93" s="77"/>
       <c r="D93" s="77"/>
-      <c r="E93" s="76"/>
-      <c r="F93" s="76"/>
-      <c r="G93" s="78"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="79"/>
       <c r="H93" s="8"/>
       <c r="I93" s="9"/>
       <c r="J93" s="8"/>
@@ -5178,24 +5234,24 @@
       <c r="AA93" s="8"/>
     </row>
     <row r="94" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="75"/>
-      <c r="B94" s="77">
-        <v>4.2</v>
-      </c>
-      <c r="C94" s="77"/>
-      <c r="D94" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="E94" s="76"/>
-      <c r="F94" s="76">
+      <c r="A94" s="76"/>
+      <c r="B94" s="84">
+        <v>3.8</v>
+      </c>
+      <c r="C94" s="84"/>
+      <c r="D94" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="E94" s="28"/>
+      <c r="F94" s="100">
         <v>0</v>
       </c>
-      <c r="G94" s="78" t="s">
+      <c r="G94" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="H94" s="32"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="32"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
       <c r="M94" s="8"/>
@@ -5215,15 +5271,15 @@
       <c r="AA94" s="8"/>
     </row>
     <row r="95" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="75"/>
-      <c r="B95" s="77"/>
-      <c r="C95" s="77"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="76"/>
-      <c r="F95" s="76"/>
-      <c r="G95" s="78"/>
+      <c r="A95" s="76"/>
+      <c r="B95" s="84"/>
+      <c r="C95" s="84"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="100"/>
+      <c r="G95" s="79"/>
       <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
+      <c r="I95" s="9"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
@@ -5244,24 +5300,25 @@
       <c r="AA95" s="8"/>
     </row>
     <row r="96" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="75"/>
-      <c r="B96" s="77">
-        <v>4.3</v>
-      </c>
-      <c r="C96" s="77"/>
-      <c r="D96" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="E96" s="76"/>
-      <c r="F96" s="76">
+      <c r="A96" s="97">
+        <v>4</v>
+      </c>
+      <c r="B96" s="83"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="E96" s="38"/>
+      <c r="F96" s="81">
+        <f>SUM(F98:F103)/6</f>
         <v>0</v>
       </c>
-      <c r="G96" s="78" t="s">
+      <c r="G96" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="H96" s="32"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="32"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="30"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
@@ -5276,18 +5333,18 @@
       <c r="V96" s="39"/>
       <c r="W96" s="39"/>
       <c r="X96" s="8"/>
-      <c r="Y96" s="9"/>
+      <c r="Y96" s="43"/>
       <c r="Z96" s="8"/>
       <c r="AA96" s="8"/>
     </row>
     <row r="97" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="75"/>
-      <c r="B97" s="77"/>
-      <c r="C97" s="77"/>
-      <c r="D97" s="77"/>
-      <c r="E97" s="76"/>
-      <c r="F97" s="76"/>
-      <c r="G97" s="78"/>
+      <c r="A97" s="97"/>
+      <c r="B97" s="83"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="81"/>
+      <c r="G97" s="82"/>
       <c r="H97" s="8"/>
       <c r="I97" s="9"/>
       <c r="J97" s="8"/>
@@ -5305,28 +5362,27 @@
       <c r="V97" s="39"/>
       <c r="W97" s="39"/>
       <c r="X97" s="8"/>
-      <c r="Y97" s="9"/>
+      <c r="Y97" s="43"/>
       <c r="Z97" s="8"/>
       <c r="AA97" s="8"/>
     </row>
     <row r="98" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="86">
-        <v>5</v>
-      </c>
-      <c r="B98" s="87"/>
-      <c r="C98" s="87"/>
-      <c r="D98" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="E98" s="29"/>
-      <c r="F98" s="88">
-        <f>SUM(F102:F109)/4</f>
+      <c r="A98" s="76"/>
+      <c r="B98" s="78">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C98" s="78"/>
+      <c r="D98" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="E98" s="77"/>
+      <c r="F98" s="77">
         <v>0</v>
       </c>
-      <c r="G98" s="85" t="s">
+      <c r="G98" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="H98" s="8"/>
+      <c r="H98" s="32"/>
       <c r="I98" s="9"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
@@ -5348,13 +5404,13 @@
       <c r="AA98" s="8"/>
     </row>
     <row r="99" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="86"/>
-      <c r="B99" s="87"/>
-      <c r="C99" s="87"/>
-      <c r="D99" s="87"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="88"/>
-      <c r="G99" s="85"/>
+      <c r="A99" s="76"/>
+      <c r="B99" s="78"/>
+      <c r="C99" s="78"/>
+      <c r="D99" s="78"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="79"/>
       <c r="H99" s="8"/>
       <c r="I99" s="9"/>
       <c r="J99" s="8"/>
@@ -5377,24 +5433,24 @@
       <c r="AA99" s="8"/>
     </row>
     <row r="100" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="75"/>
-      <c r="B100" s="77">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C100" s="77"/>
-      <c r="D100" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="E100" s="76"/>
-      <c r="F100" s="76">
+      <c r="A100" s="76"/>
+      <c r="B100" s="78">
+        <v>4.2</v>
+      </c>
+      <c r="C100" s="78"/>
+      <c r="D100" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77">
         <v>0</v>
       </c>
-      <c r="G100" s="78" t="s">
+      <c r="G100" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="H100" s="34"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="8"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="32"/>
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
@@ -5414,15 +5470,15 @@
       <c r="AA100" s="8"/>
     </row>
     <row r="101" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="75"/>
-      <c r="B101" s="77"/>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="76"/>
-      <c r="F101" s="76"/>
-      <c r="G101" s="78"/>
+      <c r="A101" s="76"/>
+      <c r="B101" s="78"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="79"/>
       <c r="H101" s="8"/>
-      <c r="I101" s="9"/>
+      <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
@@ -5443,24 +5499,24 @@
       <c r="AA101" s="8"/>
     </row>
     <row r="102" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="75"/>
-      <c r="B102" s="77">
-        <v>5.2</v>
-      </c>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="E102" s="76"/>
-      <c r="F102" s="76">
+      <c r="A102" s="76"/>
+      <c r="B102" s="78">
+        <v>4.3</v>
+      </c>
+      <c r="C102" s="78"/>
+      <c r="D102" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77">
         <v>0</v>
       </c>
-      <c r="G102" s="78" t="s">
+      <c r="G102" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="H102" s="8"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="8"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="32"/>
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
@@ -5480,13 +5536,13 @@
       <c r="AA102" s="8"/>
     </row>
     <row r="103" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="75"/>
-      <c r="B103" s="77"/>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="78"/>
+      <c r="A103" s="76"/>
+      <c r="B103" s="78"/>
+      <c r="C103" s="78"/>
+      <c r="D103" s="78"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="79"/>
       <c r="H103" s="8"/>
       <c r="I103" s="9"/>
       <c r="J103" s="8"/>
@@ -5509,19 +5565,20 @@
       <c r="AA103" s="8"/>
     </row>
     <row r="104" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="75"/>
-      <c r="B104" s="77">
-        <v>5.3</v>
-      </c>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="E104" s="76"/>
-      <c r="F104" s="76">
+      <c r="A104" s="87">
+        <v>5</v>
+      </c>
+      <c r="B104" s="88"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" s="29"/>
+      <c r="F104" s="89">
+        <f>SUM(F108:F115)/4</f>
         <v>0</v>
       </c>
-      <c r="G104" s="78" t="s">
+      <c r="G104" s="86" t="s">
         <v>37</v>
       </c>
       <c r="H104" s="8"/>
@@ -5546,13 +5603,13 @@
       <c r="AA104" s="8"/>
     </row>
     <row r="105" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="75"/>
-      <c r="B105" s="77"/>
-      <c r="C105" s="77"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="76"/>
-      <c r="F105" s="76"/>
-      <c r="G105" s="78"/>
+      <c r="A105" s="87"/>
+      <c r="B105" s="88"/>
+      <c r="C105" s="88"/>
+      <c r="D105" s="88"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="89"/>
+      <c r="G105" s="86"/>
       <c r="H105" s="8"/>
       <c r="I105" s="9"/>
       <c r="J105" s="8"/>
@@ -5575,22 +5632,22 @@
       <c r="AA105" s="8"/>
     </row>
     <row r="106" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="75"/>
-      <c r="B106" s="77">
-        <v>5.4</v>
-      </c>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="E106" s="76"/>
-      <c r="F106" s="76">
+      <c r="A106" s="76"/>
+      <c r="B106" s="78">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C106" s="78"/>
+      <c r="D106" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77">
         <v>0</v>
       </c>
-      <c r="G106" s="78" t="s">
+      <c r="G106" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="H106" s="8"/>
+      <c r="H106" s="34"/>
       <c r="I106" s="9"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
@@ -5607,18 +5664,18 @@
       <c r="V106" s="39"/>
       <c r="W106" s="39"/>
       <c r="X106" s="8"/>
-      <c r="Y106" s="35"/>
+      <c r="Y106" s="9"/>
       <c r="Z106" s="8"/>
       <c r="AA106" s="8"/>
     </row>
     <row r="107" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="75"/>
-      <c r="B107" s="77"/>
-      <c r="C107" s="77"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="76"/>
-      <c r="F107" s="76"/>
-      <c r="G107" s="78"/>
+      <c r="A107" s="76"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="79"/>
       <c r="H107" s="8"/>
       <c r="I107" s="9"/>
       <c r="J107" s="8"/>
@@ -5641,19 +5698,19 @@
       <c r="AA107" s="8"/>
     </row>
     <row r="108" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="75"/>
-      <c r="B108" s="77">
-        <v>5.5</v>
-      </c>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="E108" s="76"/>
-      <c r="F108" s="76">
+      <c r="A108" s="76"/>
+      <c r="B108" s="78">
+        <v>5.2</v>
+      </c>
+      <c r="C108" s="78"/>
+      <c r="D108" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77">
         <v>0</v>
       </c>
-      <c r="G108" s="78" t="s">
+      <c r="G108" s="79" t="s">
         <v>37</v>
       </c>
       <c r="H108" s="8"/>
@@ -5675,132 +5732,300 @@
       <c r="X108" s="8"/>
       <c r="Y108" s="9"/>
       <c r="Z108" s="8"/>
-      <c r="AA108" s="34"/>
-    </row>
-    <row r="109" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="89"/>
-      <c r="B109" s="90"/>
-      <c r="C109" s="90"/>
-      <c r="D109" s="90"/>
-      <c r="E109" s="84"/>
-      <c r="F109" s="84"/>
-      <c r="G109" s="91"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="19"/>
-      <c r="K109" s="19"/>
-      <c r="L109" s="19"/>
-      <c r="M109" s="19"/>
-      <c r="N109" s="19"/>
-      <c r="O109" s="19"/>
-      <c r="P109" s="19"/>
-      <c r="Q109" s="20"/>
-      <c r="R109" s="19"/>
-      <c r="S109" s="19"/>
-      <c r="T109" s="19"/>
-      <c r="U109" s="19"/>
-      <c r="V109" s="40"/>
-      <c r="W109" s="40"/>
-      <c r="X109" s="19"/>
-      <c r="Y109" s="20"/>
-      <c r="Z109" s="19"/>
-      <c r="AA109" s="19"/>
-    </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="36"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AA108" s="8"/>
+    </row>
+    <row r="109" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="76"/>
+      <c r="B109" s="78"/>
+      <c r="C109" s="78"/>
+      <c r="D109" s="78"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="79"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="39"/>
+      <c r="W109" s="39"/>
+      <c r="X109" s="8"/>
+      <c r="Y109" s="9"/>
+      <c r="Z109" s="8"/>
+      <c r="AA109" s="8"/>
+    </row>
+    <row r="110" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="76"/>
+      <c r="B110" s="78">
+        <v>5.3</v>
+      </c>
+      <c r="C110" s="78"/>
+      <c r="D110" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77">
+        <v>0</v>
+      </c>
+      <c r="G110" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H110" s="8"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
+      <c r="U110" s="8"/>
+      <c r="V110" s="39"/>
+      <c r="W110" s="39"/>
+      <c r="X110" s="8"/>
+      <c r="Y110" s="9"/>
+      <c r="Z110" s="8"/>
+      <c r="AA110" s="8"/>
+    </row>
+    <row r="111" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="76"/>
+      <c r="B111" s="78"/>
+      <c r="C111" s="78"/>
+      <c r="D111" s="78"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="79"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="8"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="8"/>
+      <c r="U111" s="8"/>
+      <c r="V111" s="39"/>
+      <c r="W111" s="39"/>
+      <c r="X111" s="8"/>
+      <c r="Y111" s="9"/>
+      <c r="Z111" s="8"/>
+      <c r="AA111" s="8"/>
+    </row>
+    <row r="112" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="76"/>
+      <c r="B112" s="78">
+        <v>5.4</v>
+      </c>
+      <c r="C112" s="78"/>
+      <c r="D112" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77">
+        <v>0</v>
+      </c>
+      <c r="G112" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H112" s="8"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+      <c r="Q112" s="9"/>
+      <c r="R112" s="8"/>
+      <c r="S112" s="8"/>
+      <c r="T112" s="8"/>
+      <c r="U112" s="8"/>
+      <c r="V112" s="39"/>
+      <c r="W112" s="39"/>
+      <c r="X112" s="8"/>
+      <c r="Y112" s="35"/>
+      <c r="Z112" s="8"/>
+      <c r="AA112" s="8"/>
+    </row>
+    <row r="113" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="76"/>
+      <c r="B113" s="78"/>
+      <c r="C113" s="78"/>
+      <c r="D113" s="78"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="79"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="8"/>
+      <c r="S113" s="8"/>
+      <c r="T113" s="8"/>
+      <c r="U113" s="8"/>
+      <c r="V113" s="39"/>
+      <c r="W113" s="39"/>
+      <c r="X113" s="8"/>
+      <c r="Y113" s="9"/>
+      <c r="Z113" s="8"/>
+      <c r="AA113" s="8"/>
+    </row>
+    <row r="114" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="76"/>
+      <c r="B114" s="78">
+        <v>5.5</v>
+      </c>
+      <c r="C114" s="78"/>
+      <c r="D114" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77">
+        <v>0</v>
+      </c>
+      <c r="G114" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114" s="8"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="8"/>
+      <c r="U114" s="8"/>
+      <c r="V114" s="39"/>
+      <c r="W114" s="39"/>
+      <c r="X114" s="8"/>
+      <c r="Y114" s="9"/>
+      <c r="Z114" s="8"/>
+      <c r="AA114" s="34"/>
+    </row>
+    <row r="115" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="90"/>
+      <c r="B115" s="91"/>
+      <c r="C115" s="91"/>
+      <c r="D115" s="91"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="92"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="19"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="20"/>
+      <c r="R115" s="19"/>
+      <c r="S115" s="19"/>
+      <c r="T115" s="19"/>
+      <c r="U115" s="19"/>
+      <c r="V115" s="40"/>
+      <c r="W115" s="40"/>
+      <c r="X115" s="19"/>
+      <c r="Y115" s="20"/>
+      <c r="Z115" s="19"/>
+      <c r="AA115" s="19"/>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -7390,35 +7615,70 @@
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
     </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1"/>
+      <c r="B446" s="1"/>
+      <c r="C446" s="1"/>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1"/>
+      <c r="B447" s="1"/>
+      <c r="C447" s="1"/>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1"/>
+      <c r="B448" s="1"/>
+      <c r="C448" s="1"/>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1"/>
+      <c r="B449" s="1"/>
+      <c r="C449" s="1"/>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1"/>
+      <c r="B450" s="1"/>
+      <c r="C450" s="1"/>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1"/>
+      <c r="B451" s="1"/>
+      <c r="C451" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="306">
-    <mergeCell ref="A86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="A84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="A42:B43"/>
+  <mergeCells count="324">
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="A90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="A78:B79"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="E42:E43"/>
@@ -7429,21 +7689,18 @@
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="G38:G39"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="A80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="B76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="A86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:C69"/>
     <mergeCell ref="D68:D69"/>
@@ -7453,70 +7710,66 @@
     <mergeCell ref="A72:B73"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="D72:D73"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
     <mergeCell ref="A74:B75"/>
     <mergeCell ref="C74:C75"/>
     <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
     <mergeCell ref="E60:E61"/>
     <mergeCell ref="F60:F61"/>
     <mergeCell ref="G60:G61"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D58:D59"/>
     <mergeCell ref="D62:D63"/>
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="G62:G63"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B14:C15"/>
     <mergeCell ref="A4:C5"/>
@@ -7546,12 +7799,12 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="D106:D107"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B100:C101"/>
+    <mergeCell ref="B106:C107"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="D12:D13"/>
@@ -7584,18 +7837,17 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="B92:C93"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:D25"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A90:C91"/>
-    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A96:C97"/>
+    <mergeCell ref="A94:A95"/>
     <mergeCell ref="E64:E65"/>
     <mergeCell ref="F64:F65"/>
     <mergeCell ref="G64:G65"/>
@@ -7608,20 +7860,36 @@
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B100:C101"/>
+    <mergeCell ref="B98:C99"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="A42:B43"/>
     <mergeCell ref="A50:B51"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="D50:D51"/>
@@ -7631,91 +7899,96 @@
     <mergeCell ref="A60:B61"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="D60:D61"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="A98:C99"/>
-    <mergeCell ref="B102:C103"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="G104:G105"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="D108:D109"/>
     <mergeCell ref="F108:F109"/>
     <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B106:C107"/>
+    <mergeCell ref="A104:C105"/>
     <mergeCell ref="B108:C109"/>
-    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="D104:D105"/>
     <mergeCell ref="F104:F105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:C105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="B112:C113"/>
+    <mergeCell ref="B114:C115"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:C111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="G98:G99"/>
     <mergeCell ref="E66:E67"/>
     <mergeCell ref="F66:F67"/>
     <mergeCell ref="G66:G67"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="B88:C89"/>
-    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="D94:D95"/>
     <mergeCell ref="A40:B41"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="A84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="B102:C103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="D100:D101"/>
     <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="A78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="B96:C97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A94:A95"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F4:F30 F32 F36:F38 F40 F88:F109">
-    <cfRule type="cellIs" dxfId="23" priority="34" operator="equal">
+  <conditionalFormatting sqref="F4:F30 F32 F36:F38 F40 F94:F115">
+    <cfRule type="cellIs" dxfId="29" priority="43" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7728,8 +8001,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F38 F32 F40 F4:F30 F88:F109">
-    <cfRule type="dataBar" priority="37">
+  <conditionalFormatting sqref="F36:F38 F32 F40 F4:F30 F94:F115">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7743,13 +8016,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7763,13 +8036,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F46 F48">
-    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="40" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7783,13 +8056,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7803,13 +8076,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:F54 F56">
-    <cfRule type="cellIs" dxfId="13" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="37" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="30">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7823,13 +8096,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58:F60 F62">
-    <cfRule type="cellIs" dxfId="11" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="34" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="27">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7843,13 +8116,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64 F66">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7863,13 +8136,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:F70 F72">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7882,14 +8155,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="F80">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7902,14 +8175,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:F78 F80">
-    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
+  <conditionalFormatting sqref="F82:F84 F86">
+    <cfRule type="cellIs" dxfId="9" priority="31" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7922,14 +8195,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F82:F84 F86">
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
+  <conditionalFormatting sqref="F88:F90 F92">
+    <cfRule type="cellIs" dxfId="7" priority="28" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -7938,6 +8211,66 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{BFCA5482-0225-48EE-8E53-FDDF0ACCB26F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{42F361B7-7B9D-4290-AE0E-016876DBC05E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6E2CC454-1EAC-4C09-A83F-07BE82807532}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{153BA535-64DB-4A3B-9782-C0EBD1BCF52A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7976,7 +8309,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F36:F38 F32 F40 F4:F30 F88:F109</xm:sqref>
+          <xm:sqref>F36:F38 F32 F40 F4:F30 F94:F115</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{982B3ECA-59F0-467D-B182-B1E4F4D7FA8D}">
@@ -8096,7 +8429,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F74</xm:sqref>
+          <xm:sqref>F80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93065951-09EA-4D52-A3E0-BA9DBB76332C}">
@@ -8111,7 +8444,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F76:F78 F80</xm:sqref>
+          <xm:sqref>F82:F84 F86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BFCA5482-0225-48EE-8E53-FDDF0ACCB26F}">
@@ -8126,7 +8459,52 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F82:F84 F86</xm:sqref>
+          <xm:sqref>F88:F90 F92</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{42F361B7-7B9D-4290-AE0E-016876DBC05E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F78</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6E2CC454-1EAC-4C09-A83F-07BE82807532}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F76</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{153BA535-64DB-4A3B-9782-C0EBD1BCF52A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F74</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8136,7 +8514,7 @@
           <x14:formula1>
             <xm:f>'Status '!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G32 G36:G38 G40 G4:G30 G44:G46 G48 G52:G54 G56 G58:G60 G62 G76:G78 G80 G82:G84 G86 G88:G109 G34 G50 G42 G64 G66 G68:G70 G72 G74</xm:sqref>
+          <xm:sqref>G32 G36:G38 G40 G4:G30 G44:G46 G48 G52:G54 G56 G58:G60 G62 G82:G84 G86 G88:G90 G92 G94:G115 G34 G50 G42 G64 G66 G68:G70 G72 G80 G78 G76 G74</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8329,8 +8707,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="112"/>
-      <c r="B3" s="113" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="114" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="10"/>
@@ -8355,8 +8733,8 @@
       <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
-      <c r="B4" s="113"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="114"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="8"/>
@@ -8379,8 +8757,8 @@
       <c r="V4" s="8"/>
     </row>
     <row r="5" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
-      <c r="B5" s="121" t="s">
+      <c r="A5" s="121"/>
+      <c r="B5" s="122" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="30"/>
@@ -8405,8 +8783,8 @@
       <c r="V5" s="8"/>
     </row>
     <row r="6" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120"/>
-      <c r="B6" s="121"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="8"/>
@@ -8429,8 +8807,8 @@
       <c r="V6" s="8"/>
     </row>
     <row r="7" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118"/>
-      <c r="B7" s="119" t="s">
+      <c r="A7" s="119"/>
+      <c r="B7" s="120" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="8"/>
@@ -8455,8 +8833,8 @@
       <c r="V7" s="30"/>
     </row>
     <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
-      <c r="B8" s="119"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
@@ -8479,8 +8857,8 @@
       <c r="V8" s="8"/>
     </row>
     <row r="9" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
-      <c r="B9" s="116" t="s">
+      <c r="A9" s="115"/>
+      <c r="B9" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C9" s="8"/>
@@ -8505,8 +8883,8 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
-      <c r="B10" s="117"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="19"/>
